--- a/likert/examples/in_their_own_words/Corrected combined Sentiment analysis.xlsx
+++ b/likert/examples/in_their_own_words/Corrected combined Sentiment analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thorwhalen/Dropbox/py/proj/t/likert/likert/examples/in_their_own_words/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BDE08B5-8716-2946-BCEA-4882A2091D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B877F551-0902-384A-AB3E-52ADB9A2898B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="1020" windowWidth="32360" windowHeight="20720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6480" yWindow="-37900" windowWidth="21600" windowHeight="37900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="99">
   <si>
     <t>expression</t>
   </si>
@@ -45,9 +45,6 @@
     <t>sentiment</t>
   </si>
   <si>
-    <t>auto expression</t>
-  </si>
-  <si>
     <t>auto sentiment</t>
   </si>
   <si>
@@ -255,9 +252,6 @@
     <t>somebody who uses</t>
   </si>
   <si>
-    <t xml:space="preserve">heroin addict </t>
-  </si>
-  <si>
     <t>productive</t>
   </si>
   <si>
@@ -331,6 +325,15 @@
   </si>
   <si>
     <t>diff</t>
+  </si>
+  <si>
+    <t>correction</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>was_corrected</t>
   </si>
 </sst>
 </file>
@@ -514,15 +517,11 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -558,11 +557,26 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -778,106 +792,109 @@
   </sheetPr>
   <dimension ref="A1:O993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61:A70"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="M50" sqref="M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="32.5" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="14"/>
-    <col min="4" max="5" width="12.6640625" style="16"/>
-    <col min="6" max="6" width="10.6640625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="27"/>
-    <col min="8" max="9" width="12.6640625" style="17"/>
-    <col min="10" max="10" width="10.83203125" style="17" customWidth="1"/>
-    <col min="11" max="11" width="12.6640625" style="29"/>
-    <col min="12" max="12" width="16.5" style="26" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.83203125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="12"/>
+    <col min="4" max="5" width="12.6640625" style="14"/>
+    <col min="6" max="6" width="10.6640625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="25"/>
+    <col min="8" max="9" width="12.6640625" style="15"/>
+    <col min="10" max="10" width="10.83203125" style="15" customWidth="1"/>
+    <col min="11" max="11" width="12.6640625" style="27"/>
+    <col min="12" max="12" width="16.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.83203125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="30" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B1" s="9" t="s">
+    <row r="1" spans="1:15" s="28" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="27" t="s">
+      <c r="C1" s="29" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="M1" s="31"/>
+      <c r="N1" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="27" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="J1" s="29" t="s">
+      <c r="O1" s="28" t="s">
         <v>95</v>
-      </c>
-      <c r="K1" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="L1" s="32" t="s">
-        <v>90</v>
-      </c>
-      <c r="M1" s="33"/>
-      <c r="N1" s="30" t="s">
-        <v>96</v>
-      </c>
-      <c r="O1" s="30" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="16">
+      <c r="B2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="14">
         <v>-60</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="14">
         <v>-80</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="14">
         <f>ABS(D2-E2)</f>
         <v>20</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="25">
         <f>AVERAGE(D2:E2)</f>
         <v>-70</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="15">
         <v>-90</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="15">
         <v>-100</v>
       </c>
-      <c r="J2" s="17">
+      <c r="J2" s="15">
         <f>ABS(H2-I2)</f>
         <v>10</v>
       </c>
-      <c r="K2" s="29">
+      <c r="K2" s="27">
         <f>AVERAGE(H2:I2)</f>
         <v>-95</v>
       </c>
-      <c r="L2" s="25">
+      <c r="L2" s="23">
         <f>AVERAGE(G2,K2)</f>
         <v>-82.5</v>
       </c>
@@ -894,45 +911,45 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="16">
+      <c r="B3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="14">
         <v>60</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="14">
         <v>70</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="14">
         <f t="shared" ref="F3:F62" si="0">ABS(D3-E3)</f>
         <v>10</v>
       </c>
-      <c r="G3" s="27">
+      <c r="G3" s="25">
         <f t="shared" ref="G3:G62" si="1">AVERAGE(D3:E3)</f>
         <v>65</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="15">
         <v>100</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="15">
         <v>90</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="15">
         <f t="shared" ref="J3:J62" si="2">ABS(H3-I3)</f>
         <v>10</v>
       </c>
-      <c r="K3" s="29">
+      <c r="K3" s="27">
         <f t="shared" ref="K3:K62" si="3">AVERAGE(H3:I3)</f>
         <v>95</v>
       </c>
-      <c r="L3" s="25">
+      <c r="L3" s="23">
         <f t="shared" ref="L3:L62" si="4">AVERAGE(G3,K3)</f>
         <v>80</v>
       </c>
-      <c r="M3" s="13"/>
+      <c r="M3" s="11"/>
       <c r="N3">
         <f t="shared" ref="N3:N62" si="5">(E3+I3)/2</f>
         <v>80</v>
@@ -946,41 +963,41 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="16">
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="14">
         <v>-50</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="14">
         <v>-30</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="14">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G4" s="27">
+      <c r="G4" s="25">
         <f t="shared" si="1"/>
         <v>-40</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="15">
         <v>-50</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="15">
         <v>-40</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="15">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="K4" s="29">
+      <c r="K4" s="27">
         <f t="shared" si="3"/>
         <v>-45</v>
       </c>
-      <c r="L4" s="25">
+      <c r="L4" s="23">
         <f t="shared" si="4"/>
         <v>-42.5</v>
       </c>
@@ -997,41 +1014,41 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="16">
+      <c r="B5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D5" s="14">
         <v>-90</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>-80</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="25">
         <f t="shared" si="1"/>
         <v>-85</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="15">
         <v>-100</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="15">
         <v>-100</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K5" s="29">
+      <c r="K5" s="27">
         <f t="shared" si="3"/>
         <v>-100</v>
       </c>
-      <c r="L5" s="25">
+      <c r="L5" s="23">
         <f t="shared" si="4"/>
         <v>-92.5</v>
       </c>
@@ -1048,41 +1065,41 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="16">
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="14">
         <v>-30</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="14">
         <v>-30</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="25">
         <f t="shared" si="1"/>
         <v>-30</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="15">
         <v>-40</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="15">
         <v>-40</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="29">
+      <c r="K6" s="27">
         <f t="shared" si="3"/>
         <v>-40</v>
       </c>
-      <c r="L6" s="25">
+      <c r="L6" s="23">
         <f t="shared" si="4"/>
         <v>-35</v>
       </c>
@@ -1099,41 +1116,41 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D7" s="16">
+      <c r="B7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="14">
         <v>60</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="14">
         <v>70</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="25">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="15">
         <v>100</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="15">
         <v>80</v>
       </c>
-      <c r="J7" s="17">
+      <c r="J7" s="15">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K7" s="29">
+      <c r="K7" s="27">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="L7" s="25">
+      <c r="L7" s="23">
         <f t="shared" si="4"/>
         <v>77.5</v>
       </c>
@@ -1150,41 +1167,41 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="14">
+        <v>-40</v>
+      </c>
+      <c r="E8" s="14">
+        <v>-30</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="16">
-        <v>-40</v>
-      </c>
-      <c r="E8" s="16">
-        <v>-30</v>
-      </c>
-      <c r="F8" s="16">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="G8" s="27">
+      <c r="G8" s="25">
         <f t="shared" si="1"/>
         <v>-35</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="15">
         <v>-60</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="15">
         <v>-30</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="15">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="K8" s="29">
+      <c r="K8" s="27">
         <f t="shared" si="3"/>
         <v>-45</v>
       </c>
-      <c r="L8" s="25">
+      <c r="L8" s="23">
         <f t="shared" si="4"/>
         <v>-40</v>
       </c>
@@ -1201,41 +1218,41 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D9" s="16">
+      <c r="B9" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="14">
         <v>-20</v>
       </c>
-      <c r="E9" s="16">
+      <c r="E9" s="14">
         <v>-30</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G9" s="27">
+      <c r="G9" s="25">
         <f t="shared" si="1"/>
         <v>-25</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="15">
         <v>-30</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="15">
         <v>-50</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="15">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="27">
         <f t="shared" si="3"/>
         <v>-40</v>
       </c>
-      <c r="L9" s="25">
+      <c r="L9" s="23">
         <f t="shared" si="4"/>
         <v>-32.5</v>
       </c>
@@ -1252,41 +1269,41 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10" s="16">
+      <c r="B10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="14">
         <v>20</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="14">
         <v>20</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="27">
+      <c r="G10" s="25">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="15">
         <v>40</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="15">
         <v>20</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="15">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K10" s="29">
+      <c r="K10" s="27">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="L10" s="25">
+      <c r="L10" s="23">
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
@@ -1303,41 +1320,41 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D11" s="16">
+      <c r="B11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="14">
         <v>60</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <v>60</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="25">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="15">
         <v>70</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="15">
         <v>70</v>
       </c>
-      <c r="J11" s="17">
+      <c r="J11" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="29">
+      <c r="K11" s="27">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="L11" s="25">
+      <c r="L11" s="23">
         <f t="shared" si="4"/>
         <v>65</v>
       </c>
@@ -1354,41 +1371,41 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="16">
+      <c r="B12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="14">
         <v>70</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <v>60</v>
       </c>
-      <c r="F12" s="16">
+      <c r="F12" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="25">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="15">
         <v>90</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="15">
         <v>70</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="15">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K12" s="29">
+      <c r="K12" s="27">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="L12" s="25">
+      <c r="L12" s="23">
         <f t="shared" si="4"/>
         <v>72.5</v>
       </c>
@@ -1405,41 +1422,41 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="16">
+      <c r="B13" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="14">
         <v>-35</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="14">
         <v>-10</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="14">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="25">
         <f t="shared" si="1"/>
         <v>-22.5</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="15">
         <v>-50</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="15">
         <v>-50</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K13" s="29">
+      <c r="K13" s="27">
         <f t="shared" si="3"/>
         <v>-50</v>
       </c>
-      <c r="L13" s="25">
+      <c r="L13" s="23">
         <f t="shared" si="4"/>
         <v>-36.25</v>
       </c>
@@ -1456,41 +1473,41 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D14" s="16">
+      <c r="B14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="14">
         <v>-100</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="14">
         <v>-90</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G14" s="27">
+      <c r="G14" s="25">
         <f t="shared" si="1"/>
         <v>-95</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="15">
         <v>-100</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="15">
         <v>-90</v>
       </c>
-      <c r="J14" s="17">
+      <c r="J14" s="15">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="27">
         <f t="shared" si="3"/>
         <v>-95</v>
       </c>
-      <c r="L14" s="25">
+      <c r="L14" s="23">
         <f t="shared" si="4"/>
         <v>-95</v>
       </c>
@@ -1507,41 +1524,41 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="16">
+      <c r="B15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="14">
         <v>-10</v>
       </c>
-      <c r="E15" s="16">
+      <c r="E15" s="14">
         <v>-10</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G15" s="27">
+      <c r="G15" s="25">
         <f t="shared" si="1"/>
         <v>-10</v>
       </c>
-      <c r="H15" s="17">
+      <c r="H15" s="15">
         <v>-30</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="15">
         <v>-40</v>
       </c>
-      <c r="J15" s="17">
+      <c r="J15" s="15">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="K15" s="29">
+      <c r="K15" s="27">
         <f t="shared" si="3"/>
         <v>-35</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15" s="23">
         <f t="shared" si="4"/>
         <v>-22.5</v>
       </c>
@@ -1558,41 +1575,41 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="16">
+      <c r="B16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="14">
         <v>-50</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="14">
         <v>-60</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G16" s="27">
+      <c r="G16" s="25">
         <f t="shared" si="1"/>
         <v>-55</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="15">
         <v>-60</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="15">
         <v>-80</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="15">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K16" s="29">
+      <c r="K16" s="27">
         <f t="shared" si="3"/>
         <v>-70</v>
       </c>
-      <c r="L16" s="25">
+      <c r="L16" s="23">
         <f t="shared" si="4"/>
         <v>-62.5</v>
       </c>
@@ -1609,41 +1626,41 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D17" s="16">
+      <c r="B17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="14">
         <v>-55</v>
       </c>
-      <c r="E17" s="16">
+      <c r="E17" s="14">
         <v>-55</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G17" s="27">
+      <c r="G17" s="25">
         <f t="shared" si="1"/>
         <v>-55</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="15">
         <v>-80</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="15">
         <v>-70</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="15">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="K17" s="29">
+      <c r="K17" s="27">
         <f t="shared" si="3"/>
         <v>-75</v>
       </c>
-      <c r="L17" s="25">
+      <c r="L17" s="23">
         <f t="shared" si="4"/>
         <v>-65</v>
       </c>
@@ -1660,41 +1677,41 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="16">
+      <c r="B18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D18" s="14">
         <v>60</v>
       </c>
-      <c r="E18" s="16">
+      <c r="E18" s="14">
         <v>50</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G18" s="27">
+      <c r="G18" s="25">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="15">
         <v>80</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="15">
         <v>80</v>
       </c>
-      <c r="J18" s="17">
+      <c r="J18" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K18" s="29">
+      <c r="K18" s="27">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="L18" s="25">
+      <c r="L18" s="23">
         <f t="shared" si="4"/>
         <v>67.5</v>
       </c>
@@ -1711,41 +1728,41 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="16">
+      <c r="B19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="14">
         <v>65</v>
       </c>
-      <c r="E19" s="16">
+      <c r="E19" s="14">
         <v>60</v>
       </c>
-      <c r="F19" s="16">
+      <c r="F19" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G19" s="27">
+      <c r="G19" s="25">
         <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
-      <c r="H19" s="17">
+      <c r="H19" s="15">
         <v>70</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="15">
         <v>50</v>
       </c>
-      <c r="J19" s="17">
+      <c r="J19" s="15">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K19" s="29">
+      <c r="K19" s="27">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="L19" s="25">
+      <c r="L19" s="23">
         <f t="shared" si="4"/>
         <v>61.25</v>
       </c>
@@ -1762,46 +1779,46 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D20" s="16">
+      <c r="B20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D20" s="14">
         <v>-55</v>
       </c>
-      <c r="E20" s="16">
+      <c r="E20" s="14">
         <v>-50</v>
       </c>
-      <c r="F20" s="16">
+      <c r="F20" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="27">
+      <c r="G20" s="25">
         <f t="shared" si="1"/>
         <v>-52.5</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="15">
         <v>-90</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="15">
         <v>-95</v>
       </c>
-      <c r="J20" s="17">
+      <c r="J20" s="15">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="K20" s="29">
+      <c r="K20" s="27">
         <f t="shared" si="3"/>
         <v>-92.5</v>
       </c>
-      <c r="L20" s="25">
+      <c r="L20" s="23">
         <f t="shared" si="4"/>
         <v>-72.5</v>
       </c>
-      <c r="M20" s="13" t="s">
-        <v>91</v>
+      <c r="M20" s="11" t="s">
+        <v>89</v>
       </c>
       <c r="N20">
         <f t="shared" si="5"/>
@@ -1816,45 +1833,45 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D21" s="15">
+      <c r="B21" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" s="13">
         <v>70</v>
       </c>
-      <c r="E21" s="16">
+      <c r="E21" s="14">
         <v>60</v>
       </c>
-      <c r="F21" s="16">
+      <c r="F21" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="25">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="15">
         <v>100</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="15">
         <v>80</v>
       </c>
-      <c r="J21" s="17">
+      <c r="J21" s="15">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K21" s="29">
+      <c r="K21" s="27">
         <f t="shared" si="3"/>
         <v>90</v>
       </c>
-      <c r="L21" s="25">
+      <c r="L21" s="23">
         <f t="shared" si="4"/>
         <v>77.5</v>
       </c>
-      <c r="M21" s="13"/>
+      <c r="M21" s="11"/>
       <c r="N21">
         <f t="shared" si="5"/>
         <v>70</v>
@@ -1868,41 +1885,41 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D22" s="15">
+      <c r="B22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="13">
         <v>55</v>
       </c>
-      <c r="E22" s="16">
+      <c r="E22" s="14">
         <v>60</v>
       </c>
-      <c r="F22" s="16">
+      <c r="F22" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G22" s="27">
+      <c r="G22" s="25">
         <f t="shared" si="1"/>
         <v>57.5</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="15">
         <v>80</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="15">
         <v>90</v>
       </c>
-      <c r="J22" s="17">
+      <c r="J22" s="15">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="K22" s="29">
+      <c r="K22" s="27">
         <f t="shared" si="3"/>
         <v>85</v>
       </c>
-      <c r="L22" s="25">
+      <c r="L22" s="23">
         <f t="shared" si="4"/>
         <v>71.25</v>
       </c>
@@ -1919,41 +1936,41 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="15">
+      <c r="B23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D23" s="13">
         <v>-80</v>
       </c>
-      <c r="E23" s="16">
+      <c r="E23" s="14">
         <v>-60</v>
       </c>
-      <c r="F23" s="16">
+      <c r="F23" s="14">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G23" s="27">
+      <c r="G23" s="25">
         <f t="shared" si="1"/>
         <v>-70</v>
       </c>
-      <c r="H23" s="17">
+      <c r="H23" s="15">
         <v>-50</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="15">
         <v>-70</v>
       </c>
-      <c r="J23" s="17">
+      <c r="J23" s="15">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K23" s="29">
+      <c r="K23" s="27">
         <f t="shared" si="3"/>
         <v>-60</v>
       </c>
-      <c r="L23" s="25">
+      <c r="L23" s="23">
         <f t="shared" si="4"/>
         <v>-65</v>
       </c>
@@ -1970,41 +1987,41 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D24" s="16">
+      <c r="B24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D24" s="14">
         <v>-50</v>
       </c>
-      <c r="E24" s="16">
+      <c r="E24" s="14">
         <v>-50</v>
       </c>
-      <c r="F24" s="16">
+      <c r="F24" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G24" s="27">
+      <c r="G24" s="25">
         <f t="shared" si="1"/>
         <v>-50</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="15">
         <v>-90</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="15">
         <v>-90</v>
       </c>
-      <c r="J24" s="17">
+      <c r="J24" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K24" s="29">
+      <c r="K24" s="27">
         <f t="shared" si="3"/>
         <v>-90</v>
       </c>
-      <c r="L24" s="25">
+      <c r="L24" s="23">
         <f t="shared" si="4"/>
         <v>-70</v>
       </c>
@@ -2021,41 +2038,41 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="16">
+      <c r="B25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="14">
         <v>95</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="14">
         <v>60</v>
       </c>
-      <c r="F25" s="16">
+      <c r="F25" s="14">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="G25" s="27">
+      <c r="G25" s="25">
         <f t="shared" si="1"/>
         <v>77.5</v>
       </c>
-      <c r="H25" s="17">
+      <c r="H25" s="15">
         <v>90</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="15">
         <v>80</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J25" s="15">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="K25" s="29">
+      <c r="K25" s="27">
         <f t="shared" si="3"/>
         <v>85</v>
       </c>
-      <c r="L25" s="25">
+      <c r="L25" s="23">
         <f t="shared" si="4"/>
         <v>81.25</v>
       </c>
@@ -2072,41 +2089,41 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D26" s="16">
+      <c r="B26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="14">
         <v>-80</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E26" s="14">
         <v>-80</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G26" s="27">
+      <c r="G26" s="25">
         <f t="shared" si="1"/>
         <v>-80</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="15">
         <v>-100</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="15">
         <v>-90</v>
       </c>
-      <c r="J26" s="17">
+      <c r="J26" s="15">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="K26" s="29">
+      <c r="K26" s="27">
         <f t="shared" si="3"/>
         <v>-95</v>
       </c>
-      <c r="L26" s="25">
+      <c r="L26" s="23">
         <f t="shared" si="4"/>
         <v>-87.5</v>
       </c>
@@ -2123,41 +2140,41 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="16">
+      <c r="B27" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="14">
         <v>25</v>
       </c>
-      <c r="E27" s="16">
+      <c r="E27" s="14">
         <v>30</v>
       </c>
-      <c r="F27" s="16">
+      <c r="F27" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G27" s="27">
+      <c r="G27" s="25">
         <f t="shared" si="1"/>
         <v>27.5</v>
       </c>
-      <c r="H27" s="17">
+      <c r="H27" s="15">
         <v>25</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="15">
         <v>10</v>
       </c>
-      <c r="J27" s="17">
+      <c r="J27" s="15">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="K27" s="29">
+      <c r="K27" s="27">
         <f t="shared" si="3"/>
         <v>17.5</v>
       </c>
-      <c r="L27" s="25">
+      <c r="L27" s="23">
         <f t="shared" si="4"/>
         <v>22.5</v>
       </c>
@@ -2174,41 +2191,41 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D28" s="16">
+      <c r="B28" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="14">
         <v>20</v>
       </c>
-      <c r="E28" s="16">
+      <c r="E28" s="14">
         <v>20</v>
       </c>
-      <c r="F28" s="16">
+      <c r="F28" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G28" s="27">
+      <c r="G28" s="25">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="15">
         <v>20</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="15">
         <v>20</v>
       </c>
-      <c r="J28" s="17">
+      <c r="J28" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K28" s="29">
+      <c r="K28" s="27">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="L28" s="25">
+      <c r="L28" s="23">
         <f t="shared" si="4"/>
         <v>20</v>
       </c>
@@ -2225,41 +2242,41 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D29" s="16">
+      <c r="B29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="14">
         <v>60</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="14">
         <v>55</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G29" s="27">
+      <c r="G29" s="25">
         <f t="shared" si="1"/>
         <v>57.5</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="15">
         <v>70</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="15">
         <v>60</v>
       </c>
-      <c r="J29" s="17">
+      <c r="J29" s="15">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="K29" s="29">
+      <c r="K29" s="27">
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="L29" s="25">
+      <c r="L29" s="23">
         <f t="shared" si="4"/>
         <v>61.25</v>
       </c>
@@ -2276,41 +2293,41 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="16">
+      <c r="B30" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="14">
         <v>25</v>
       </c>
-      <c r="E30" s="16">
+      <c r="E30" s="14">
         <v>10</v>
       </c>
-      <c r="F30" s="16">
+      <c r="F30" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G30" s="27">
+      <c r="G30" s="25">
         <f t="shared" si="1"/>
         <v>17.5</v>
       </c>
-      <c r="H30" s="17">
+      <c r="H30" s="15">
         <v>20</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="15">
         <v>20</v>
       </c>
-      <c r="J30" s="17">
+      <c r="J30" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K30" s="29">
+      <c r="K30" s="27">
         <f t="shared" si="3"/>
         <v>20</v>
       </c>
-      <c r="L30" s="25">
+      <c r="L30" s="23">
         <f t="shared" si="4"/>
         <v>18.75</v>
       </c>
@@ -2327,41 +2344,41 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D31" s="16">
+      <c r="B31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="14">
         <v>-55</v>
       </c>
-      <c r="E31" s="16">
+      <c r="E31" s="14">
         <v>-50</v>
       </c>
-      <c r="F31" s="16">
+      <c r="F31" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G31" s="27">
+      <c r="G31" s="25">
         <f t="shared" si="1"/>
         <v>-52.5</v>
       </c>
-      <c r="H31" s="17">
+      <c r="H31" s="15">
         <v>-90</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="15">
         <v>-90</v>
       </c>
-      <c r="J31" s="17">
+      <c r="J31" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K31" s="29">
+      <c r="K31" s="27">
         <f t="shared" si="3"/>
         <v>-90</v>
       </c>
-      <c r="L31" s="25">
+      <c r="L31" s="23">
         <f t="shared" si="4"/>
         <v>-71.25</v>
       </c>
@@ -2378,41 +2395,41 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D32" s="16">
+      <c r="B32" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D32" s="14">
         <v>55</v>
       </c>
-      <c r="E32" s="16">
+      <c r="E32" s="14">
         <v>50</v>
       </c>
-      <c r="F32" s="16">
+      <c r="F32" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G32" s="27">
+      <c r="G32" s="25">
         <f t="shared" si="1"/>
         <v>52.5</v>
       </c>
-      <c r="H32" s="17">
+      <c r="H32" s="15">
         <v>75</v>
       </c>
-      <c r="I32" s="17">
+      <c r="I32" s="15">
         <v>70</v>
       </c>
-      <c r="J32" s="17">
+      <c r="J32" s="15">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="K32" s="29">
+      <c r="K32" s="27">
         <f t="shared" si="3"/>
         <v>72.5</v>
       </c>
-      <c r="L32" s="25">
+      <c r="L32" s="23">
         <f t="shared" si="4"/>
         <v>62.5</v>
       </c>
@@ -2429,41 +2446,41 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D33" s="16">
+      <c r="B33" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="14">
         <v>45</v>
       </c>
-      <c r="E33" s="16">
+      <c r="E33" s="14">
         <v>60</v>
       </c>
-      <c r="F33" s="16">
+      <c r="F33" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G33" s="27">
+      <c r="G33" s="25">
         <f t="shared" si="1"/>
         <v>52.5</v>
       </c>
-      <c r="H33" s="17">
+      <c r="H33" s="15">
         <v>50</v>
       </c>
-      <c r="I33" s="17">
+      <c r="I33" s="15">
         <v>70</v>
       </c>
-      <c r="J33" s="17">
+      <c r="J33" s="15">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K33" s="29">
+      <c r="K33" s="27">
         <f t="shared" si="3"/>
         <v>60</v>
       </c>
-      <c r="L33" s="25">
+      <c r="L33" s="23">
         <f t="shared" si="4"/>
         <v>56.25</v>
       </c>
@@ -2480,41 +2497,41 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D34" s="16">
+      <c r="B34" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="14">
         <v>-60</v>
       </c>
-      <c r="E34" s="16">
+      <c r="E34" s="14">
         <v>-40</v>
       </c>
-      <c r="F34" s="16">
+      <c r="F34" s="14">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G34" s="27">
+      <c r="G34" s="25">
         <f t="shared" si="1"/>
         <v>-50</v>
       </c>
-      <c r="H34" s="17">
+      <c r="H34" s="15">
         <v>-75</v>
       </c>
-      <c r="I34" s="17">
+      <c r="I34" s="15">
         <v>-50</v>
       </c>
-      <c r="J34" s="17">
+      <c r="J34" s="15">
         <f t="shared" si="2"/>
         <v>25</v>
       </c>
-      <c r="K34" s="29">
+      <c r="K34" s="27">
         <f t="shared" si="3"/>
         <v>-62.5</v>
       </c>
-      <c r="L34" s="25">
+      <c r="L34" s="23">
         <f t="shared" si="4"/>
         <v>-56.25</v>
       </c>
@@ -2531,41 +2548,41 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D35" s="16">
+      <c r="B35" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="14">
         <v>65</v>
       </c>
-      <c r="E35" s="16">
+      <c r="E35" s="14">
         <v>60</v>
       </c>
-      <c r="F35" s="16">
+      <c r="F35" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G35" s="27">
+      <c r="G35" s="25">
         <f t="shared" si="1"/>
         <v>62.5</v>
       </c>
-      <c r="H35" s="17">
+      <c r="H35" s="15">
         <v>75</v>
       </c>
-      <c r="I35" s="17">
+      <c r="I35" s="15">
         <v>80</v>
       </c>
-      <c r="J35" s="17">
+      <c r="J35" s="15">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="K35" s="29">
+      <c r="K35" s="27">
         <f t="shared" si="3"/>
         <v>77.5</v>
       </c>
-      <c r="L35" s="25">
+      <c r="L35" s="23">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
@@ -2582,41 +2599,41 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C36" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D36" s="16">
+      <c r="B36" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D36" s="14">
         <v>80</v>
       </c>
-      <c r="E36" s="16">
+      <c r="E36" s="14">
         <v>60</v>
       </c>
-      <c r="F36" s="16">
+      <c r="F36" s="14">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G36" s="27">
+      <c r="G36" s="25">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="H36" s="17">
+      <c r="H36" s="15">
         <v>80</v>
       </c>
-      <c r="I36" s="17">
+      <c r="I36" s="15">
         <v>85</v>
       </c>
-      <c r="J36" s="17">
+      <c r="J36" s="15">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="K36" s="29">
+      <c r="K36" s="27">
         <f t="shared" si="3"/>
         <v>82.5</v>
       </c>
-      <c r="L36" s="25">
+      <c r="L36" s="23">
         <f t="shared" si="4"/>
         <v>76.25</v>
       </c>
@@ -2633,41 +2650,41 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D37" s="16">
+      <c r="B37" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D37" s="14">
         <v>-10</v>
       </c>
-      <c r="E37" s="16">
+      <c r="E37" s="14">
         <v>-40</v>
       </c>
-      <c r="F37" s="16">
+      <c r="F37" s="14">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G37" s="27">
+      <c r="G37" s="25">
         <f t="shared" si="1"/>
         <v>-25</v>
       </c>
-      <c r="H37" s="17">
+      <c r="H37" s="15">
         <v>-40</v>
       </c>
-      <c r="I37" s="17">
+      <c r="I37" s="15">
         <v>-10</v>
       </c>
-      <c r="J37" s="17">
+      <c r="J37" s="15">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="K37" s="29">
+      <c r="K37" s="27">
         <f t="shared" si="3"/>
         <v>-25</v>
       </c>
-      <c r="L37" s="25">
+      <c r="L37" s="23">
         <f t="shared" si="4"/>
         <v>-25</v>
       </c>
@@ -2684,46 +2701,46 @@
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D38" s="16">
+      <c r="B38" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D38" s="14">
         <v>55</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E38" s="14">
         <v>60</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F38" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G38" s="27">
+      <c r="G38" s="25">
         <f t="shared" si="1"/>
         <v>57.5</v>
       </c>
-      <c r="H38" s="17">
+      <c r="H38" s="15">
         <v>80</v>
       </c>
-      <c r="I38" s="17">
+      <c r="I38" s="15">
         <v>80</v>
       </c>
-      <c r="J38" s="17">
+      <c r="J38" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K38" s="29">
+      <c r="K38" s="27">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="L38" s="25">
+      <c r="L38" s="23">
         <f t="shared" si="4"/>
         <v>68.75</v>
       </c>
-      <c r="M38" s="13" t="s">
-        <v>92</v>
+      <c r="M38" s="11" t="s">
+        <v>90</v>
       </c>
       <c r="N38">
         <f t="shared" si="5"/>
@@ -2738,41 +2755,41 @@
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D39" s="16">
+      <c r="B39" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D39" s="14">
         <v>90</v>
       </c>
-      <c r="E39" s="16">
+      <c r="E39" s="14">
         <v>70</v>
       </c>
-      <c r="F39" s="16">
+      <c r="F39" s="14">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G39" s="27">
+      <c r="G39" s="25">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="H39" s="17">
+      <c r="H39" s="15">
         <v>70</v>
       </c>
-      <c r="I39" s="17">
+      <c r="I39" s="15">
         <v>80</v>
       </c>
-      <c r="J39" s="17">
+      <c r="J39" s="15">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="K39" s="29">
+      <c r="K39" s="27">
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-      <c r="L39" s="25">
+      <c r="L39" s="23">
         <f t="shared" si="4"/>
         <v>77.5</v>
       </c>
@@ -2789,41 +2806,41 @@
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D40" s="16">
+      <c r="B40" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D40" s="14">
         <v>70</v>
       </c>
-      <c r="E40" s="16">
+      <c r="E40" s="14">
         <v>40</v>
       </c>
-      <c r="F40" s="16">
+      <c r="F40" s="14">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G40" s="27">
+      <c r="G40" s="25">
         <f t="shared" si="1"/>
         <v>55</v>
       </c>
-      <c r="H40" s="17">
+      <c r="H40" s="15">
         <v>50</v>
       </c>
-      <c r="I40" s="17">
+      <c r="I40" s="15">
         <v>50</v>
       </c>
-      <c r="J40" s="17">
+      <c r="J40" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K40" s="29">
+      <c r="K40" s="27">
         <f t="shared" si="3"/>
         <v>50</v>
       </c>
-      <c r="L40" s="25">
+      <c r="L40" s="23">
         <f t="shared" si="4"/>
         <v>52.5</v>
       </c>
@@ -2840,41 +2857,41 @@
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="16">
+      <c r="B41" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D41" s="14">
         <v>80</v>
       </c>
-      <c r="E41" s="16">
+      <c r="E41" s="14">
         <v>60</v>
       </c>
-      <c r="F41" s="16">
+      <c r="F41" s="14">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G41" s="27">
+      <c r="G41" s="25">
         <f t="shared" si="1"/>
         <v>70</v>
       </c>
-      <c r="H41" s="17">
+      <c r="H41" s="15">
         <v>66</v>
       </c>
-      <c r="I41" s="17">
+      <c r="I41" s="15">
         <v>70</v>
       </c>
-      <c r="J41" s="17">
+      <c r="J41" s="15">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="K41" s="29">
+      <c r="K41" s="27">
         <f t="shared" si="3"/>
         <v>68</v>
       </c>
-      <c r="L41" s="25">
+      <c r="L41" s="23">
         <f t="shared" si="4"/>
         <v>69</v>
       </c>
@@ -2891,41 +2908,41 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D42" s="16">
+      <c r="B42" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="14">
         <v>40</v>
       </c>
-      <c r="E42" s="16">
+      <c r="E42" s="14">
         <v>55</v>
       </c>
-      <c r="F42" s="16">
+      <c r="F42" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G42" s="27">
+      <c r="G42" s="25">
         <f t="shared" si="1"/>
         <v>47.5</v>
       </c>
-      <c r="H42" s="17">
+      <c r="H42" s="15">
         <v>60</v>
       </c>
-      <c r="I42" s="17">
+      <c r="I42" s="15">
         <v>70</v>
       </c>
-      <c r="J42" s="17">
+      <c r="J42" s="15">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="K42" s="29">
+      <c r="K42" s="27">
         <f t="shared" si="3"/>
         <v>65</v>
       </c>
-      <c r="L42" s="25">
+      <c r="L42" s="23">
         <f t="shared" si="4"/>
         <v>56.25</v>
       </c>
@@ -2942,41 +2959,41 @@
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="B43" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D43" s="16">
+      <c r="B43" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="14">
         <v>60</v>
       </c>
-      <c r="E43" s="16">
+      <c r="E43" s="14">
         <v>60</v>
       </c>
-      <c r="F43" s="16">
+      <c r="F43" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G43" s="27">
+      <c r="G43" s="25">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="H43" s="17">
+      <c r="H43" s="15">
         <v>50</v>
       </c>
-      <c r="I43" s="17">
+      <c r="I43" s="15">
         <v>60</v>
       </c>
-      <c r="J43" s="17">
+      <c r="J43" s="15">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="K43" s="29">
+      <c r="K43" s="27">
         <f t="shared" si="3"/>
         <v>55</v>
       </c>
-      <c r="L43" s="25">
+      <c r="L43" s="23">
         <f t="shared" si="4"/>
         <v>57.5</v>
       </c>
@@ -2993,41 +3010,41 @@
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" s="16">
+      <c r="B44" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D44" s="14">
         <v>50</v>
       </c>
-      <c r="E44" s="16">
+      <c r="E44" s="14">
         <v>50</v>
       </c>
-      <c r="F44" s="16">
+      <c r="F44" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G44" s="27">
+      <c r="G44" s="25">
         <f t="shared" si="1"/>
         <v>50</v>
       </c>
-      <c r="H44" s="17">
+      <c r="H44" s="15">
         <v>70</v>
       </c>
-      <c r="I44" s="17">
+      <c r="I44" s="15">
         <v>70</v>
       </c>
-      <c r="J44" s="17">
+      <c r="J44" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K44" s="29">
+      <c r="K44" s="27">
         <f t="shared" si="3"/>
         <v>70</v>
       </c>
-      <c r="L44" s="25">
+      <c r="L44" s="23">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
@@ -3044,46 +3061,46 @@
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D45" s="15">
+      <c r="B45" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D45" s="13">
         <v>-50</v>
       </c>
-      <c r="E45" s="16">
+      <c r="E45" s="14">
         <v>-50</v>
       </c>
-      <c r="F45" s="16">
+      <c r="F45" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G45" s="27">
+      <c r="G45" s="25">
         <f t="shared" si="1"/>
         <v>-50</v>
       </c>
-      <c r="H45" s="17">
+      <c r="H45" s="15">
         <v>-80</v>
       </c>
-      <c r="I45" s="17">
+      <c r="I45" s="15">
         <v>-80</v>
       </c>
-      <c r="J45" s="17">
+      <c r="J45" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K45" s="29">
+      <c r="K45" s="27">
         <f t="shared" si="3"/>
         <v>-80</v>
       </c>
-      <c r="L45" s="25">
+      <c r="L45" s="23">
         <f t="shared" si="4"/>
         <v>-65</v>
       </c>
-      <c r="M45" s="13" t="s">
-        <v>93</v>
+      <c r="M45" s="11" t="s">
+        <v>91</v>
       </c>
       <c r="N45">
         <f t="shared" si="5"/>
@@ -3098,45 +3115,45 @@
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D46" s="15">
+      <c r="B46" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D46" s="13">
         <v>-10</v>
       </c>
-      <c r="E46" s="16">
+      <c r="E46" s="14">
         <v>-20</v>
       </c>
-      <c r="F46" s="16">
+      <c r="F46" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G46" s="27">
+      <c r="G46" s="25">
         <f t="shared" si="1"/>
         <v>-15</v>
       </c>
-      <c r="H46" s="17">
+      <c r="H46" s="15">
         <v>-20</v>
       </c>
-      <c r="I46" s="17">
+      <c r="I46" s="15">
         <v>-20</v>
       </c>
-      <c r="J46" s="17">
+      <c r="J46" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K46" s="29">
+      <c r="K46" s="27">
         <f t="shared" si="3"/>
         <v>-20</v>
       </c>
-      <c r="L46" s="25">
+      <c r="L46" s="23">
         <f t="shared" si="4"/>
         <v>-17.5</v>
       </c>
-      <c r="M46" s="13"/>
+      <c r="M46" s="11"/>
       <c r="N46">
         <f t="shared" si="5"/>
         <v>-20</v>
@@ -3150,41 +3167,41 @@
       <c r="A47">
         <v>46</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D47" s="15">
+      <c r="B47" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D47" s="13">
         <v>25</v>
       </c>
-      <c r="E47" s="16">
+      <c r="E47" s="14">
         <v>40</v>
       </c>
-      <c r="F47" s="16">
+      <c r="F47" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G47" s="27">
+      <c r="G47" s="25">
         <f t="shared" si="1"/>
         <v>32.5</v>
       </c>
-      <c r="H47" s="17">
+      <c r="H47" s="15">
         <v>45</v>
       </c>
-      <c r="I47" s="17">
+      <c r="I47" s="15">
         <v>25</v>
       </c>
-      <c r="J47" s="17">
+      <c r="J47" s="15">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="K47" s="29">
+      <c r="K47" s="27">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="L47" s="25">
+      <c r="L47" s="23">
         <f t="shared" si="4"/>
         <v>33.75</v>
       </c>
@@ -3201,41 +3218,41 @@
       <c r="A48">
         <v>47</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D48" s="15">
+      <c r="B48" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D48" s="13">
         <v>75</v>
       </c>
-      <c r="E48" s="16">
+      <c r="E48" s="14">
         <v>75</v>
       </c>
-      <c r="F48" s="16">
+      <c r="F48" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G48" s="27">
+      <c r="G48" s="25">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="H48" s="17">
+      <c r="H48" s="15">
         <v>100</v>
       </c>
-      <c r="I48" s="17">
+      <c r="I48" s="15">
         <v>95</v>
       </c>
-      <c r="J48" s="17">
+      <c r="J48" s="15">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="K48" s="29">
+      <c r="K48" s="27">
         <f t="shared" si="3"/>
         <v>97.5</v>
       </c>
-      <c r="L48" s="25">
+      <c r="L48" s="23">
         <f t="shared" si="4"/>
         <v>86.25</v>
       </c>
@@ -3252,41 +3269,41 @@
       <c r="A49">
         <v>48</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D49" s="15">
+      <c r="B49" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D49" s="13">
         <v>70</v>
       </c>
-      <c r="E49" s="16">
+      <c r="E49" s="14">
         <v>80</v>
       </c>
-      <c r="F49" s="16">
+      <c r="F49" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G49" s="27">
+      <c r="G49" s="25">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="H49" s="17">
+      <c r="H49" s="15">
         <v>90</v>
       </c>
-      <c r="I49" s="17">
+      <c r="I49" s="15">
         <v>95</v>
       </c>
-      <c r="J49" s="17">
+      <c r="J49" s="15">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="K49" s="29">
+      <c r="K49" s="27">
         <f t="shared" si="3"/>
         <v>92.5</v>
       </c>
-      <c r="L49" s="25">
+      <c r="L49" s="23">
         <f t="shared" si="4"/>
         <v>83.75</v>
       </c>
@@ -3303,46 +3320,46 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D50" s="15">
+      <c r="B50" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" s="13">
         <v>20</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E50" s="14">
         <v>40</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F50" s="14">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="G50" s="27">
+      <c r="G50" s="25">
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="H50" s="17">
+      <c r="H50" s="15">
         <v>50</v>
       </c>
-      <c r="I50" s="17">
+      <c r="I50" s="15">
         <v>20</v>
       </c>
-      <c r="J50" s="17">
+      <c r="J50" s="15">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="K50" s="29">
+      <c r="K50" s="27">
         <f t="shared" si="3"/>
         <v>35</v>
       </c>
-      <c r="L50" s="25">
+      <c r="L50" s="23">
         <f t="shared" si="4"/>
         <v>32.5</v>
       </c>
-      <c r="M50" s="12" t="s">
-        <v>75</v>
+      <c r="M50" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="N50">
         <f t="shared" si="5"/>
@@ -3357,41 +3374,41 @@
       <c r="A51">
         <v>50</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51" s="15">
+      <c r="B51" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D51" s="13">
         <v>-55</v>
       </c>
-      <c r="E51" s="16">
+      <c r="E51" s="14">
         <v>-60</v>
       </c>
-      <c r="F51" s="16">
+      <c r="F51" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G51" s="27">
+      <c r="G51" s="25">
         <f t="shared" si="1"/>
         <v>-57.5</v>
       </c>
-      <c r="H51" s="17">
+      <c r="H51" s="15">
         <v>-95</v>
       </c>
-      <c r="I51" s="17">
+      <c r="I51" s="15">
         <v>-85</v>
       </c>
-      <c r="J51" s="17">
+      <c r="J51" s="15">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="K51" s="29">
+      <c r="K51" s="27">
         <f t="shared" si="3"/>
         <v>-90</v>
       </c>
-      <c r="L51" s="25">
+      <c r="L51" s="23">
         <f t="shared" si="4"/>
         <v>-73.75</v>
       </c>
@@ -3408,41 +3425,41 @@
       <c r="A52">
         <v>51</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D52" s="13">
+        <v>70</v>
+      </c>
+      <c r="E52" s="14">
         <v>60</v>
       </c>
-      <c r="C52" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D52" s="15">
-        <v>70</v>
-      </c>
-      <c r="E52" s="16">
-        <v>60</v>
-      </c>
-      <c r="F52" s="16">
+      <c r="F52" s="14">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="G52" s="27">
+      <c r="G52" s="25">
         <f t="shared" si="1"/>
         <v>65</v>
       </c>
-      <c r="H52" s="17">
+      <c r="H52" s="15">
         <v>85</v>
       </c>
-      <c r="I52" s="17">
+      <c r="I52" s="15">
         <v>70</v>
       </c>
-      <c r="J52" s="17">
+      <c r="J52" s="15">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="K52" s="29">
+      <c r="K52" s="27">
         <f t="shared" si="3"/>
         <v>77.5</v>
       </c>
-      <c r="L52" s="25">
+      <c r="L52" s="23">
         <f t="shared" si="4"/>
         <v>71.25</v>
       </c>
@@ -3459,41 +3476,41 @@
       <c r="A53">
         <v>52</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="C53" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D53" s="15">
+      <c r="B53" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D53" s="13">
         <v>45</v>
       </c>
-      <c r="E53" s="16">
+      <c r="E53" s="14">
         <v>75</v>
       </c>
-      <c r="F53" s="16">
+      <c r="F53" s="14">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="G53" s="27">
+      <c r="G53" s="25">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="H53" s="17">
+      <c r="H53" s="15">
         <v>75</v>
       </c>
-      <c r="I53" s="17">
+      <c r="I53" s="15">
         <v>80</v>
       </c>
-      <c r="J53" s="17">
+      <c r="J53" s="15">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="K53" s="29">
+      <c r="K53" s="27">
         <f t="shared" si="3"/>
         <v>77.5</v>
       </c>
-      <c r="L53" s="25">
+      <c r="L53" s="23">
         <f t="shared" si="4"/>
         <v>68.75</v>
       </c>
@@ -3510,45 +3527,45 @@
       <c r="A54">
         <v>53</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D54" s="15">
+      <c r="B54" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D54" s="13">
         <v>25</v>
       </c>
-      <c r="E54" s="16">
+      <c r="E54" s="14">
         <v>20</v>
       </c>
-      <c r="F54" s="16">
+      <c r="F54" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G54" s="27">
+      <c r="G54" s="25">
         <f t="shared" si="1"/>
         <v>22.5</v>
       </c>
-      <c r="H54" s="17">
+      <c r="H54" s="15">
         <v>30</v>
       </c>
-      <c r="I54" s="17">
+      <c r="I54" s="15">
         <v>20</v>
       </c>
-      <c r="J54" s="17">
+      <c r="J54" s="15">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="K54" s="29">
+      <c r="K54" s="27">
         <f t="shared" si="3"/>
         <v>25</v>
       </c>
-      <c r="L54" s="25">
+      <c r="L54" s="23">
         <f t="shared" si="4"/>
         <v>23.75</v>
       </c>
-      <c r="M54" s="13"/>
+      <c r="M54" s="11"/>
       <c r="N54">
         <f t="shared" si="5"/>
         <v>20</v>
@@ -3562,41 +3579,41 @@
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C55" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D55" s="15">
+      <c r="B55" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" s="13">
         <v>75</v>
       </c>
-      <c r="E55" s="16">
+      <c r="E55" s="14">
         <v>75</v>
       </c>
-      <c r="F55" s="16">
+      <c r="F55" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G55" s="27">
+      <c r="G55" s="25">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="H55" s="17">
+      <c r="H55" s="15">
         <v>100</v>
       </c>
-      <c r="I55" s="17">
+      <c r="I55" s="15">
         <v>100</v>
       </c>
-      <c r="J55" s="17">
+      <c r="J55" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K55" s="29">
+      <c r="K55" s="27">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="L55" s="25">
+      <c r="L55" s="23">
         <f t="shared" si="4"/>
         <v>87.5</v>
       </c>
@@ -3613,41 +3630,41 @@
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D56" s="15">
+      <c r="B56" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C56" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D56" s="13">
         <v>75</v>
       </c>
-      <c r="E56" s="16">
+      <c r="E56" s="14">
         <v>75</v>
       </c>
-      <c r="F56" s="16">
+      <c r="F56" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G56" s="27">
+      <c r="G56" s="25">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="H56" s="17">
+      <c r="H56" s="15">
         <v>100</v>
       </c>
-      <c r="I56" s="17">
+      <c r="I56" s="15">
         <v>100</v>
       </c>
-      <c r="J56" s="17">
+      <c r="J56" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K56" s="29">
+      <c r="K56" s="27">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="L56" s="25">
+      <c r="L56" s="23">
         <f t="shared" si="4"/>
         <v>87.5</v>
       </c>
@@ -3664,41 +3681,41 @@
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C57" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D57" s="15">
+      <c r="B57" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C57" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D57" s="13">
         <v>75</v>
       </c>
-      <c r="E57" s="16">
+      <c r="E57" s="14">
         <v>80</v>
       </c>
-      <c r="F57" s="16">
+      <c r="F57" s="14">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G57" s="27">
+      <c r="G57" s="25">
         <f t="shared" si="1"/>
         <v>77.5</v>
       </c>
-      <c r="H57" s="17">
+      <c r="H57" s="15">
         <v>100</v>
       </c>
-      <c r="I57" s="17">
+      <c r="I57" s="15">
         <v>100</v>
       </c>
-      <c r="J57" s="17">
+      <c r="J57" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K57" s="29">
+      <c r="K57" s="27">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="L57" s="25">
+      <c r="L57" s="23">
         <f t="shared" si="4"/>
         <v>88.75</v>
       </c>
@@ -3715,41 +3732,41 @@
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D58" s="15">
+      <c r="B58" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D58" s="13">
         <v>75</v>
       </c>
-      <c r="E58" s="16">
+      <c r="E58" s="14">
         <v>60</v>
       </c>
-      <c r="F58" s="16">
+      <c r="F58" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G58" s="27">
+      <c r="G58" s="25">
         <f t="shared" si="1"/>
         <v>67.5</v>
       </c>
-      <c r="H58" s="17">
+      <c r="H58" s="15">
         <v>90</v>
       </c>
-      <c r="I58" s="17">
+      <c r="I58" s="15">
         <v>80</v>
       </c>
-      <c r="J58" s="17">
+      <c r="J58" s="15">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="K58" s="29">
+      <c r="K58" s="27">
         <f t="shared" si="3"/>
         <v>85</v>
       </c>
-      <c r="L58" s="25">
+      <c r="L58" s="23">
         <f t="shared" si="4"/>
         <v>76.25</v>
       </c>
@@ -3766,41 +3783,41 @@
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D59" s="15">
+      <c r="B59" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="13">
         <v>75</v>
       </c>
-      <c r="E59" s="16">
+      <c r="E59" s="14">
         <v>75</v>
       </c>
-      <c r="F59" s="16">
+      <c r="F59" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G59" s="27">
+      <c r="G59" s="25">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="H59" s="17">
+      <c r="H59" s="15">
         <v>100</v>
       </c>
-      <c r="I59" s="17">
+      <c r="I59" s="15">
         <v>100</v>
       </c>
-      <c r="J59" s="17">
+      <c r="J59" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K59" s="29">
+      <c r="K59" s="27">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="L59" s="25">
+      <c r="L59" s="23">
         <f t="shared" si="4"/>
         <v>87.5</v>
       </c>
@@ -3817,41 +3834,41 @@
       <c r="A60">
         <v>59</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D60" s="15">
+      <c r="B60" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D60" s="13">
         <v>75</v>
       </c>
-      <c r="E60" s="16">
+      <c r="E60" s="14">
         <v>75</v>
       </c>
-      <c r="F60" s="16">
+      <c r="F60" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G60" s="27">
+      <c r="G60" s="25">
         <f t="shared" si="1"/>
         <v>75</v>
       </c>
-      <c r="H60" s="17">
+      <c r="H60" s="15">
         <v>100</v>
       </c>
-      <c r="I60" s="17">
+      <c r="I60" s="15">
         <v>100</v>
       </c>
-      <c r="J60" s="17">
+      <c r="J60" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K60" s="29">
+      <c r="K60" s="27">
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-      <c r="L60" s="25">
+      <c r="L60" s="23">
         <f t="shared" si="4"/>
         <v>87.5</v>
       </c>
@@ -3868,41 +3885,41 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C61" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D61" s="15">
+      <c r="B61" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D61" s="13">
         <v>95</v>
       </c>
-      <c r="E61" s="16">
+      <c r="E61" s="14">
         <v>80</v>
       </c>
-      <c r="F61" s="16">
+      <c r="F61" s="14">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="G61" s="27">
+      <c r="G61" s="25">
         <f t="shared" si="1"/>
         <v>87.5</v>
       </c>
-      <c r="H61" s="17">
+      <c r="H61" s="15">
         <v>100</v>
       </c>
-      <c r="I61" s="17">
+      <c r="I61" s="15">
         <v>90</v>
       </c>
-      <c r="J61" s="17">
+      <c r="J61" s="15">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="K61" s="29">
+      <c r="K61" s="27">
         <f t="shared" si="3"/>
         <v>95</v>
       </c>
-      <c r="L61" s="25">
+      <c r="L61" s="23">
         <f t="shared" si="4"/>
         <v>91.25</v>
       </c>
@@ -3919,41 +3936,41 @@
       <c r="A62">
         <v>61</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D62" s="15">
+      <c r="B62" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D62" s="13">
         <v>60</v>
       </c>
-      <c r="E62" s="16">
+      <c r="E62" s="14">
         <v>60</v>
       </c>
-      <c r="F62" s="16">
+      <c r="F62" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G62" s="27">
+      <c r="G62" s="25">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="H62" s="17">
+      <c r="H62" s="15">
         <v>80</v>
       </c>
-      <c r="I62" s="17">
+      <c r="I62" s="15">
         <v>80</v>
       </c>
-      <c r="J62" s="17">
+      <c r="J62" s="15">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K62" s="29">
+      <c r="K62" s="27">
         <f t="shared" si="3"/>
         <v>80</v>
       </c>
-      <c r="L62" s="25">
+      <c r="L62" s="23">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
@@ -3981,96 +3998,96 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:13" s="22" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:13" s="20" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
-      <c r="B66" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="C66" s="20"/>
-      <c r="D66" s="18"/>
-      <c r="E66" s="18"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="18"/>
-      <c r="I66" s="18"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="28"/>
-      <c r="L66" s="26"/>
-      <c r="M66" s="21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" s="22" customFormat="1" ht="42" x14ac:dyDescent="0.15">
+      <c r="B66" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" s="18"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="26"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="24"/>
+      <c r="M66" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" s="20" customFormat="1" ht="42" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="C67" s="20"/>
-      <c r="D67" s="18"/>
-      <c r="E67" s="18"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="18"/>
-      <c r="I67" s="18"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="28"/>
-      <c r="L67" s="26"/>
-      <c r="M67" s="23"/>
-    </row>
-    <row r="68" spans="1:13" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B67" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" s="18"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="24"/>
+      <c r="M67" s="21"/>
+    </row>
+    <row r="68" spans="1:13" s="20" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
-      <c r="C68" s="20"/>
-      <c r="D68" s="18"/>
-      <c r="E68" s="18"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="28"/>
-      <c r="H68" s="18"/>
-      <c r="I68" s="18"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="28"/>
-      <c r="L68" s="26"/>
-      <c r="M68" s="23"/>
-    </row>
-    <row r="69" spans="1:13" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="C68" s="18"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="21"/>
+    </row>
+    <row r="69" spans="1:13" s="20" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C69" s="20"/>
-      <c r="D69" s="18"/>
-      <c r="E69" s="18"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="18"/>
-      <c r="I69" s="18"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="28"/>
-      <c r="L69" s="26"/>
-      <c r="M69" s="23"/>
-    </row>
-    <row r="70" spans="1:13" s="22" customFormat="1" ht="13" x14ac:dyDescent="0.15">
+      <c r="B69" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="18"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="26"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="24"/>
+      <c r="M69" s="21"/>
+    </row>
+    <row r="70" spans="1:13" s="20" customFormat="1" ht="13" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="C70" s="20"/>
-      <c r="D70" s="18"/>
-      <c r="E70" s="18"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="28"/>
-      <c r="H70" s="18"/>
-      <c r="I70" s="18"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="28"/>
-      <c r="L70" s="26"/>
-      <c r="M70" s="23"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="26"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="21"/>
     </row>
     <row r="71" spans="1:13" ht="13" x14ac:dyDescent="0.15"/>
     <row r="72" spans="1:13" ht="13" x14ac:dyDescent="0.15"/>
@@ -5018,3780 +5035,4057 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="25.5" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="4">
+        <v>-99.999535100000003</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="5">
+        <v>-0.99999535100000003</v>
+      </c>
+      <c r="E2" t="b">
+        <f>A2=C2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5">
-        <v>-99.999535100000003</v>
-      </c>
-      <c r="C2" s="6" t="s">
+      <c r="B3" s="4">
+        <v>-99.996030300000001</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="7">
-        <v>-0.99999535100000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="D3" s="5">
+        <v>-0.99996030300000005</v>
+      </c>
+      <c r="E3" t="b">
+        <f t="shared" ref="E3:E66" si="0">A3=C3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="5">
-        <v>-99.996030300000001</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B4" s="4">
+        <v>-99.99194150000001</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="7">
-        <v>-0.99996030300000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="D4" s="5">
+        <v>-0.99991941500000003</v>
+      </c>
+      <c r="E4" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5">
-        <v>-99.99194150000001</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B5" s="4">
+        <v>-99.9870181</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="7">
-        <v>-0.99991941500000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="D5" s="5">
+        <v>-0.99987018100000002</v>
+      </c>
+      <c r="E5" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="5">
-        <v>-99.9870181</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B6" s="4">
+        <v>-99.984407399999995</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7">
-        <v>-0.99987018100000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="D6" s="5">
+        <v>-0.99984407399999997</v>
+      </c>
+      <c r="E6" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5">
-        <v>-99.984407399999995</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B7" s="4">
+        <v>-99.983596800000001</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="7">
-        <v>-0.99984407399999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
+      <c r="D7" s="5">
+        <v>-0.99983596799999996</v>
+      </c>
+      <c r="E7" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="5">
-        <v>-99.983596800000001</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B8" s="4">
+        <v>-99.977570800000009</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="7">
-        <v>-0.99983596799999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A8" s="4" t="s">
+      <c r="D8" s="5">
+        <v>-0.99977570800000004</v>
+      </c>
+      <c r="E8" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="5">
-        <v>-99.977570800000009</v>
-      </c>
-      <c r="C8" s="6" t="s">
+      <c r="B9" s="4">
+        <v>-99.950063200000002</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="7">
-        <v>-0.99977570800000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="D9" s="5">
+        <v>-0.99950063199999994</v>
+      </c>
+      <c r="E9" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="5">
-        <v>-99.950063200000002</v>
-      </c>
-      <c r="C9" s="6" t="s">
+      <c r="B10" s="4">
+        <v>-99.9479592</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="7">
-        <v>-0.99950063199999994</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
+      <c r="D10" s="5">
+        <v>-0.99947959200000003</v>
+      </c>
+      <c r="E10" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="5">
-        <v>-99.9479592</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B11" s="4">
+        <v>-99.938726399999993</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="7">
-        <v>-0.99947959200000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="D11" s="5">
+        <v>-0.999387264</v>
+      </c>
+      <c r="E11" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="5">
-        <v>-99.938726399999993</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B12" s="4">
+        <v>-99.922967</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="7">
-        <v>-0.999387264</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="D12" s="5">
+        <v>-0.99922966999999996</v>
+      </c>
+      <c r="E12" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="5">
-        <v>-99.922967</v>
-      </c>
-      <c r="C12" s="6" t="s">
+      <c r="B13" s="4">
+        <v>-99.918371399999998</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="7">
-        <v>-0.99922966999999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A13" s="4" t="s">
+      <c r="D13" s="5">
+        <v>-0.99918371399999995</v>
+      </c>
+      <c r="E13" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="5">
-        <v>-99.918371399999998</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B14" s="4">
+        <v>-99.890267800000004</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="7">
-        <v>-0.99918371399999995</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="4" t="s">
+      <c r="D14" s="5">
+        <v>-0.99890267799999999</v>
+      </c>
+      <c r="E14" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="5">
-        <v>-99.890267800000004</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B15" s="4">
+        <v>-99.867057799999998</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="7">
-        <v>-0.99890267799999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="D15" s="5">
+        <v>-0.99867057800000003</v>
+      </c>
+      <c r="E15" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="5">
-        <v>-99.867057799999998</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B16" s="4">
+        <v>-99.858439000000004</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="7">
-        <v>-0.99867057800000003</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="D16" s="5">
+        <v>-0.99858438999999999</v>
+      </c>
+      <c r="E16" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="5">
-        <v>-99.858439000000004</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B17" s="4">
+        <v>-99.799782000000008</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="7">
-        <v>-0.99858438999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="D17" s="5">
+        <v>-0.99799782000000004</v>
+      </c>
+      <c r="E17" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="5">
-        <v>-99.799782000000008</v>
-      </c>
-      <c r="C17" s="6" t="s">
+      <c r="B18" s="4">
+        <v>-99.780398599999998</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="7">
-        <v>-0.99799782000000004</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A18" s="4" t="s">
+      <c r="D18" s="5">
+        <v>-0.99780398599999998</v>
+      </c>
+      <c r="E18" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="5">
-        <v>-99.780398599999998</v>
-      </c>
-      <c r="C18" s="6" t="s">
+      <c r="B19" s="4">
+        <v>-99.768579000000003</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D18" s="7">
-        <v>-0.99780398599999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="D19" s="5">
+        <v>-0.99768579000000002</v>
+      </c>
+      <c r="E19" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="5">
-        <v>-99.768579000000003</v>
-      </c>
-      <c r="C19" s="6" t="s">
+      <c r="B20" s="4">
+        <v>-99.752730099999994</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="7">
-        <v>-0.99768579000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="4" t="s">
+      <c r="D20" s="5">
+        <v>-0.99752730099999998</v>
+      </c>
+      <c r="E20" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="5">
-        <v>-99.752730099999994</v>
-      </c>
-      <c r="C20" s="6" t="s">
+      <c r="B21" s="4">
+        <v>100</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="5">
+        <v>-0.99738222399999998</v>
+      </c>
+      <c r="E21" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="4">
+        <v>-99.726223899999994</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="5">
+        <v>-0.99726223899999999</v>
+      </c>
+      <c r="E22" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="4">
+        <v>-99.709832700000007</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="5">
+        <v>-0.99709832700000001</v>
+      </c>
+      <c r="E23" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="4">
+        <v>-99.682581400000004</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="5">
+        <v>-0.99682581400000003</v>
+      </c>
+      <c r="E24" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="4">
+        <v>100</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="5">
+        <v>-0.99680173400000005</v>
+      </c>
+      <c r="E25" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="4">
+        <v>-99.590307499999994</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="5">
+        <v>-0.99590307499999997</v>
+      </c>
+      <c r="E26" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="4">
+        <v>-99.344628999999998</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="5">
+        <v>-0.99344628999999995</v>
+      </c>
+      <c r="E27" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="4">
+        <v>-99.095320700000002</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="5">
+        <v>-0.990953207</v>
+      </c>
+      <c r="E28" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="4">
+        <v>-99.059301599999998</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="5">
+        <v>-0.99059301600000005</v>
+      </c>
+      <c r="E29" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="4">
+        <v>-98.958080999999993</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="5">
+        <v>-0.98958080999999998</v>
+      </c>
+      <c r="E30" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="4">
+        <v>-98.712211800000006</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="5">
+        <v>-0.98712211800000005</v>
+      </c>
+      <c r="E31" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="4">
+        <v>98</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="5">
+        <v>-0.97508537799999995</v>
+      </c>
+      <c r="E32" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="4">
+        <v>-97.422766699999997</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="5">
+        <v>-0.97422766699999996</v>
+      </c>
+      <c r="E33" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="4">
+        <v>97</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="5">
+        <v>-0.96838432600000002</v>
+      </c>
+      <c r="E34" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="4">
+        <v>-94.987863300000001</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="5">
+        <v>-0.94987863299999997</v>
+      </c>
+      <c r="E35" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="4">
+        <v>-93.946838400000004</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="5">
+        <v>-0.93946838399999999</v>
+      </c>
+      <c r="E36" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="4">
+        <v>87</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="5">
+        <v>-0.86592888800000001</v>
+      </c>
+      <c r="E37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="4">
+        <v>-85.450994999999992</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="5">
+        <v>-0.85450994999999996</v>
+      </c>
+      <c r="E38" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="4">
+        <v>-80.147802799999994</v>
+      </c>
+      <c r="C39" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D20" s="7">
-        <v>-0.99752730099999998</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A21" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="5">
-        <v>100</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="7">
-        <v>-0.99738222399999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="5">
-        <v>-99.726223899999994</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D22" s="7">
-        <v>-0.99726223899999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="D39" s="5">
+        <v>-0.80147802800000001</v>
+      </c>
+      <c r="E39" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="4">
+        <v>-71.620190100000002</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="5">
+        <v>-0.71620190100000003</v>
+      </c>
+      <c r="E40" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="4">
+        <v>-63.640242800000003</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="5">
+        <v>-0.63640242800000002</v>
+      </c>
+      <c r="E41" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="4">
+        <v>52.415520000000001</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="5">
+        <v>0.52415520000000004</v>
+      </c>
+      <c r="E42" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="4">
+        <v>52.743262099999995</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="5">
+        <v>0.52743262099999999</v>
+      </c>
+      <c r="E43" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="4">
+        <v>58.057606200000002</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="5">
+        <v>0.580576062</v>
+      </c>
+      <c r="E44" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="4">
+        <v>66.124647899999999</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="5">
+        <v>0.661246479</v>
+      </c>
+      <c r="E45" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="4">
+        <v>82.047957199999999</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="5">
+        <v>0.82047957199999999</v>
+      </c>
+      <c r="E46" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="4">
+        <v>-100</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="5">
-        <v>-99.709832700000007</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="7">
-        <v>-0.99709832700000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" s="5">
-        <v>-99.682581400000004</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" s="7">
-        <v>-0.99682581400000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" s="5">
-        <v>100</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" s="7">
-        <v>-0.99680173400000005</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" s="5">
-        <v>-99.590307499999994</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D26" s="7">
-        <v>-0.99590307499999997</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" s="5">
-        <v>-99.344628999999998</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="7">
-        <v>-0.99344628999999995</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A28" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" s="5">
-        <v>-99.095320700000002</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="7">
-        <v>-0.990953207</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" s="5">
-        <v>-99.059301599999998</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="7">
-        <v>-0.99059301600000005</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A30" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="5">
-        <v>-98.958080999999993</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D30" s="7">
-        <v>-0.98958080999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A31" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" s="5">
-        <v>-98.712211800000006</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="D31" s="7">
-        <v>-0.98712211800000005</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A32" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="5">
-        <v>98</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D32" s="7">
-        <v>-0.97508537799999995</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A33" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" s="5">
-        <v>-97.422766699999997</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D33" s="7">
-        <v>-0.97422766699999996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A34" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="5">
+      <c r="D47" s="5">
+        <v>0.91747272000000002</v>
+      </c>
+      <c r="E47" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="4">
+        <v>-93</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D48" s="5">
+        <v>0.92958265500000004</v>
+      </c>
+      <c r="E48" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="4">
+        <v>95.233881499999995</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D49" s="5">
+        <v>0.95233881499999995</v>
+      </c>
+      <c r="E49" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="4">
+        <v>95.662486599999994</v>
+      </c>
+      <c r="C50" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="C34" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D34" s="7">
-        <v>-0.96838432600000002</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A35" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35" s="5">
-        <v>-94.987863300000001</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="D35" s="7">
-        <v>-0.94987863299999997</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A36" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="5">
-        <v>-93.946838400000004</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D36" s="7">
-        <v>-0.93946838399999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A37" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" s="5">
-        <v>87</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D37" s="7">
-        <v>-0.86592888800000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="5">
-        <v>-85.450994999999992</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="7">
-        <v>-0.85450994999999996</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A39" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="B39" s="5">
-        <v>-80.147802799999994</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="7">
-        <v>-0.80147802800000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A40" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="5">
-        <v>-71.620190100000002</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D40" s="7">
-        <v>-0.71620190100000003</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="5">
-        <v>-63.640242800000003</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D41" s="7">
-        <v>-0.63640242800000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A42" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" s="5">
-        <v>52.415520000000001</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D42" s="7">
-        <v>0.52415520000000004</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A43" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" s="5">
-        <v>52.743262099999995</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="D43" s="7">
-        <v>0.52743262099999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A44" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" s="5">
-        <v>58.057606200000002</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="D44" s="7">
-        <v>0.580576062</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A45" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" s="5">
-        <v>66.124647899999999</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" s="7">
-        <v>0.661246479</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A46" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" s="5">
-        <v>82.047957199999999</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D46" s="7">
-        <v>0.82047957199999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A47" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B47" s="5">
-        <v>-100</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D47" s="7">
-        <v>0.91747272000000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" s="5">
-        <v>-93</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="D48" s="7">
-        <v>0.92958265500000004</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A49" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" s="5">
-        <v>95.233881499999995</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D49" s="7">
-        <v>0.95233881499999995</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A50" s="4" t="s">
+      <c r="D50" s="5">
+        <v>0.95662486599999996</v>
+      </c>
+      <c r="E50" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B50" s="5">
-        <v>95.662486599999994</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D50" s="7">
-        <v>0.95662486599999996</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
+      <c r="B51" s="4">
+        <v>95.988416700000002</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" s="5">
+        <v>0.95988416700000001</v>
+      </c>
+      <c r="E51" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B51" s="5">
-        <v>95.988416700000002</v>
-      </c>
-      <c r="C51" s="6" t="s">
+      <c r="B52" s="4">
+        <v>96.022111199999998</v>
+      </c>
+      <c r="C52" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="D51" s="7">
-        <v>0.95988416700000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A52" s="4" t="s">
+      <c r="D52" s="5">
+        <v>0.96022111200000004</v>
+      </c>
+      <c r="E52" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B52" s="5">
-        <v>96.022111199999998</v>
-      </c>
-      <c r="C52" s="6" t="s">
+      <c r="B53" s="4">
+        <v>96.507293000000004</v>
+      </c>
+      <c r="C53" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D52" s="7">
-        <v>0.96022111200000004</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A53" s="4" t="s">
+      <c r="D53" s="5">
+        <v>0.96507293000000005</v>
+      </c>
+      <c r="E53" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B53" s="5">
-        <v>96.507293000000004</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D53" s="7">
-        <v>0.96507293000000005</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A54" s="4" t="s">
+      <c r="B54" s="4">
+        <v>97.433686300000005</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" s="5">
+        <v>0.974336863</v>
+      </c>
+      <c r="E54" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B54" s="5">
-        <v>97.433686300000005</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="D54" s="7">
-        <v>0.974336863</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A55" s="4" t="s">
+      <c r="B55" s="4">
+        <v>97.437488999999999</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" s="5">
+        <v>0.97437488999999999</v>
+      </c>
+      <c r="E55" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B55" s="5">
-        <v>97.437488999999999</v>
-      </c>
-      <c r="C55" s="6" t="s">
+      <c r="B56" s="4">
+        <v>-98</v>
+      </c>
+      <c r="C56" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D55" s="7">
-        <v>0.97437488999999999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A56" s="4" t="s">
+      <c r="D56" s="5">
+        <v>0.98157805200000003</v>
+      </c>
+      <c r="E56" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B56" s="5">
-        <v>-98</v>
-      </c>
-      <c r="C56" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D56" s="7">
-        <v>0.98157805200000003</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A57" s="4" t="s">
+      <c r="B57" s="4">
+        <v>98.969191300000006</v>
+      </c>
+      <c r="C57" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" s="5">
+        <v>0.98969191300000003</v>
+      </c>
+      <c r="E57" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B57" s="5">
-        <v>98.969191300000006</v>
-      </c>
-      <c r="C57" s="6" t="s">
+      <c r="B58" s="4">
+        <v>99.330067600000007</v>
+      </c>
+      <c r="C58" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="D57" s="7">
-        <v>0.98969191300000003</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
+      <c r="D58" s="5">
+        <v>0.99330067600000005</v>
+      </c>
+      <c r="E58" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B58" s="5">
-        <v>99.330067600000007</v>
-      </c>
-      <c r="C58" s="6" t="s">
+      <c r="B59" s="4">
+        <v>99.496763899999991</v>
+      </c>
+      <c r="C59" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D58" s="7">
-        <v>0.99330067600000005</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A59" s="4" t="s">
+      <c r="D59" s="5">
+        <v>0.99496763899999996</v>
+      </c>
+      <c r="E59" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B59" s="5">
-        <v>99.496763899999991</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D59" s="7">
-        <v>0.99496763899999996</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A60" s="4" t="s">
+      <c r="B60" s="4">
+        <v>99.547356399999998</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" s="5">
+        <v>0.99547356399999998</v>
+      </c>
+      <c r="E60" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B60" s="5">
-        <v>99.547356399999998</v>
-      </c>
-      <c r="C60" s="6" t="s">
+      <c r="B61" s="4">
+        <v>99.603515899999991</v>
+      </c>
+      <c r="C61" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="D60" s="7">
-        <v>0.99547356399999998</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A61" s="4" t="s">
+      <c r="D61" s="5">
+        <v>0.99603515899999995</v>
+      </c>
+      <c r="E61" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B61" s="5">
-        <v>99.603515899999991</v>
-      </c>
-      <c r="C61" s="6" t="s">
+      <c r="B62" s="4">
+        <v>99.647313400000002</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D61" s="7">
-        <v>0.99603515899999995</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
+      <c r="D62" s="5">
+        <v>0.99647313400000004</v>
+      </c>
+      <c r="E62" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B62" s="5">
-        <v>99.647313400000002</v>
-      </c>
-      <c r="C62" s="6" t="s">
+      <c r="B63" s="4">
+        <v>99.796992500000002</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="D62" s="7">
-        <v>0.99647313400000004</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A63" s="4" t="s">
+      <c r="D63" s="5">
+        <v>0.99796992500000004</v>
+      </c>
+      <c r="E63" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B63" s="5">
-        <v>99.796992500000002</v>
-      </c>
-      <c r="C63" s="6" t="s">
+      <c r="B64" s="4">
+        <v>99.8188198</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="D63" s="7">
-        <v>0.99796992500000004</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A64" s="4" t="s">
+      <c r="D64" s="5">
+        <v>0.99818819800000003</v>
+      </c>
+      <c r="E64" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B64" s="5">
-        <v>99.8188198</v>
-      </c>
-      <c r="C64" s="6" t="s">
+      <c r="B65" s="4">
+        <v>99.827528000000001</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D64" s="7">
-        <v>0.99818819800000003</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A65" s="4" t="s">
+      <c r="D65" s="5">
+        <v>0.99827527999999999</v>
+      </c>
+      <c r="E65" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="B65" s="5">
-        <v>99.827528000000001</v>
-      </c>
-      <c r="C65" s="6" t="s">
+      <c r="B66" s="4">
+        <v>99.851709600000007</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D65" s="7">
-        <v>0.99827527999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A66" s="4" t="s">
+      <c r="D66" s="5">
+        <v>0.99851709600000005</v>
+      </c>
+      <c r="E66" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="B66" s="5">
-        <v>99.851709600000007</v>
-      </c>
-      <c r="C66" s="6" t="s">
+      <c r="B67" s="4">
+        <v>99.966311500000003</v>
+      </c>
+      <c r="C67" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D66" s="7">
-        <v>0.99851709600000005</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A67" s="4" t="s">
+      <c r="D67" s="5">
+        <v>0.99966311500000005</v>
+      </c>
+      <c r="E67" t="b">
+        <f t="shared" ref="E67:E69" si="1">A67=C67</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B67" s="5">
-        <v>99.966311500000003</v>
-      </c>
-      <c r="C67" s="6" t="s">
+      <c r="B68" s="4">
+        <v>99.966526000000002</v>
+      </c>
+      <c r="C68" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="D67" s="7">
-        <v>0.99966311500000005</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A68" s="4" t="s">
+      <c r="D68" s="5">
+        <v>0.99966526</v>
+      </c>
+      <c r="E68" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B68" s="5">
-        <v>99.966526000000002</v>
-      </c>
-      <c r="C68" s="6" t="s">
+      <c r="B69" s="4">
+        <v>99.971073899999993</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D68" s="7">
-        <v>0.99966526</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.2">
-      <c r="A69" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69" s="5">
-        <v>99.971073899999993</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D69" s="7">
+      <c r="D69" s="5">
         <v>0.99971073899999996</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D70" s="8"/>
-    </row>
-    <row r="71" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D71" s="8"/>
-    </row>
-    <row r="72" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D72" s="8"/>
-    </row>
-    <row r="73" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D73" s="8"/>
-    </row>
-    <row r="74" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D74" s="8"/>
-    </row>
-    <row r="75" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D75" s="8"/>
-    </row>
-    <row r="76" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D76" s="8"/>
-    </row>
-    <row r="77" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D77" s="8"/>
-    </row>
-    <row r="78" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D78" s="8"/>
-    </row>
-    <row r="79" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D79" s="8"/>
-    </row>
-    <row r="80" spans="1:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D80" s="8"/>
+      <c r="E69" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="D70" s="6"/>
+    </row>
+    <row r="71" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="D71" s="6"/>
+    </row>
+    <row r="72" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="D72" s="6"/>
+    </row>
+    <row r="73" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="D73" s="6"/>
+    </row>
+    <row r="74" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="D74" s="6"/>
+    </row>
+    <row r="75" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="D75" s="6"/>
+    </row>
+    <row r="76" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="D76" s="6"/>
+    </row>
+    <row r="77" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="D77" s="6"/>
+    </row>
+    <row r="78" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="D78" s="6"/>
+    </row>
+    <row r="79" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="D79" s="6"/>
+    </row>
+    <row r="80" spans="1:5" ht="13" x14ac:dyDescent="0.15">
+      <c r="D80" s="6"/>
     </row>
     <row r="81" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D81" s="8"/>
+      <c r="D81" s="6"/>
     </row>
     <row r="82" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D82" s="8"/>
+      <c r="D82" s="6"/>
     </row>
     <row r="83" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D83" s="8"/>
+      <c r="D83" s="6"/>
     </row>
     <row r="84" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D84" s="8"/>
+      <c r="D84" s="6"/>
     </row>
     <row r="85" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D85" s="8"/>
+      <c r="D85" s="6"/>
     </row>
     <row r="86" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D86" s="8"/>
+      <c r="D86" s="6"/>
     </row>
     <row r="87" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D87" s="8"/>
+      <c r="D87" s="6"/>
     </row>
     <row r="88" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D88" s="8"/>
+      <c r="D88" s="6"/>
     </row>
     <row r="89" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D89" s="8"/>
+      <c r="D89" s="6"/>
     </row>
     <row r="90" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D90" s="8"/>
+      <c r="D90" s="6"/>
     </row>
     <row r="91" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D91" s="8"/>
+      <c r="D91" s="6"/>
     </row>
     <row r="92" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D92" s="8"/>
+      <c r="D92" s="6"/>
     </row>
     <row r="93" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D93" s="8"/>
+      <c r="D93" s="6"/>
     </row>
     <row r="94" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D94" s="8"/>
+      <c r="D94" s="6"/>
     </row>
     <row r="95" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D95" s="8"/>
+      <c r="D95" s="6"/>
     </row>
     <row r="96" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D96" s="8"/>
+      <c r="D96" s="6"/>
     </row>
     <row r="97" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D97" s="8"/>
+      <c r="D97" s="6"/>
     </row>
     <row r="98" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D98" s="8"/>
+      <c r="D98" s="6"/>
     </row>
     <row r="99" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D99" s="8"/>
+      <c r="D99" s="6"/>
     </row>
     <row r="100" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D100" s="8"/>
+      <c r="D100" s="6"/>
     </row>
     <row r="101" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D101" s="8"/>
+      <c r="D101" s="6"/>
     </row>
     <row r="102" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D102" s="8"/>
+      <c r="D102" s="6"/>
     </row>
     <row r="103" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D103" s="8"/>
+      <c r="D103" s="6"/>
     </row>
     <row r="104" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D104" s="8"/>
+      <c r="D104" s="6"/>
     </row>
     <row r="105" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D105" s="8"/>
+      <c r="D105" s="6"/>
     </row>
     <row r="106" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D106" s="8"/>
+      <c r="D106" s="6"/>
     </row>
     <row r="107" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D107" s="8"/>
+      <c r="D107" s="6"/>
     </row>
     <row r="108" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D108" s="8"/>
+      <c r="D108" s="6"/>
     </row>
     <row r="109" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D109" s="8"/>
+      <c r="D109" s="6"/>
     </row>
     <row r="110" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D110" s="8"/>
+      <c r="D110" s="6"/>
     </row>
     <row r="111" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D111" s="8"/>
+      <c r="D111" s="6"/>
     </row>
     <row r="112" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D112" s="8"/>
+      <c r="D112" s="6"/>
     </row>
     <row r="113" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D113" s="8"/>
+      <c r="D113" s="6"/>
     </row>
     <row r="114" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D114" s="8"/>
+      <c r="D114" s="6"/>
     </row>
     <row r="115" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D115" s="8"/>
+      <c r="D115" s="6"/>
     </row>
     <row r="116" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D116" s="8"/>
+      <c r="D116" s="6"/>
     </row>
     <row r="117" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D117" s="8"/>
+      <c r="D117" s="6"/>
     </row>
     <row r="118" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D118" s="8"/>
+      <c r="D118" s="6"/>
     </row>
     <row r="119" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D119" s="8"/>
+      <c r="D119" s="6"/>
     </row>
     <row r="120" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D120" s="8"/>
+      <c r="D120" s="6"/>
     </row>
     <row r="121" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D121" s="8"/>
+      <c r="D121" s="6"/>
     </row>
     <row r="122" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D122" s="8"/>
+      <c r="D122" s="6"/>
     </row>
     <row r="123" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D123" s="8"/>
+      <c r="D123" s="6"/>
     </row>
     <row r="124" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D124" s="8"/>
+      <c r="D124" s="6"/>
     </row>
     <row r="125" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D125" s="8"/>
+      <c r="D125" s="6"/>
     </row>
     <row r="126" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D126" s="8"/>
+      <c r="D126" s="6"/>
     </row>
     <row r="127" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D127" s="8"/>
+      <c r="D127" s="6"/>
     </row>
     <row r="128" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D128" s="8"/>
+      <c r="D128" s="6"/>
     </row>
     <row r="129" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D129" s="8"/>
+      <c r="D129" s="6"/>
     </row>
     <row r="130" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D130" s="8"/>
+      <c r="D130" s="6"/>
     </row>
     <row r="131" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D131" s="8"/>
+      <c r="D131" s="6"/>
     </row>
     <row r="132" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D132" s="8"/>
+      <c r="D132" s="6"/>
     </row>
     <row r="133" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D133" s="8"/>
+      <c r="D133" s="6"/>
     </row>
     <row r="134" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D134" s="8"/>
+      <c r="D134" s="6"/>
     </row>
     <row r="135" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D135" s="8"/>
+      <c r="D135" s="6"/>
     </row>
     <row r="136" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D136" s="8"/>
+      <c r="D136" s="6"/>
     </row>
     <row r="137" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D137" s="8"/>
+      <c r="D137" s="6"/>
     </row>
     <row r="138" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D138" s="8"/>
+      <c r="D138" s="6"/>
     </row>
     <row r="139" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D139" s="8"/>
+      <c r="D139" s="6"/>
     </row>
     <row r="140" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D140" s="8"/>
+      <c r="D140" s="6"/>
     </row>
     <row r="141" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D141" s="8"/>
+      <c r="D141" s="6"/>
     </row>
     <row r="142" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D142" s="8"/>
+      <c r="D142" s="6"/>
     </row>
     <row r="143" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D143" s="8"/>
+      <c r="D143" s="6"/>
     </row>
     <row r="144" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D144" s="8"/>
+      <c r="D144" s="6"/>
     </row>
     <row r="145" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D145" s="8"/>
+      <c r="D145" s="6"/>
     </row>
     <row r="146" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D146" s="8"/>
+      <c r="D146" s="6"/>
     </row>
     <row r="147" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D147" s="8"/>
+      <c r="D147" s="6"/>
     </row>
     <row r="148" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D148" s="8"/>
+      <c r="D148" s="6"/>
     </row>
     <row r="149" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D149" s="8"/>
+      <c r="D149" s="6"/>
     </row>
     <row r="150" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D150" s="8"/>
+      <c r="D150" s="6"/>
     </row>
     <row r="151" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D151" s="8"/>
+      <c r="D151" s="6"/>
     </row>
     <row r="152" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D152" s="8"/>
+      <c r="D152" s="6"/>
     </row>
     <row r="153" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D153" s="8"/>
+      <c r="D153" s="6"/>
     </row>
     <row r="154" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D154" s="8"/>
+      <c r="D154" s="6"/>
     </row>
     <row r="155" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D155" s="8"/>
+      <c r="D155" s="6"/>
     </row>
     <row r="156" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D156" s="8"/>
+      <c r="D156" s="6"/>
     </row>
     <row r="157" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D157" s="8"/>
+      <c r="D157" s="6"/>
     </row>
     <row r="158" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D158" s="8"/>
+      <c r="D158" s="6"/>
     </row>
     <row r="159" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D159" s="8"/>
+      <c r="D159" s="6"/>
     </row>
     <row r="160" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D160" s="8"/>
+      <c r="D160" s="6"/>
     </row>
     <row r="161" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D161" s="8"/>
+      <c r="D161" s="6"/>
     </row>
     <row r="162" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D162" s="8"/>
+      <c r="D162" s="6"/>
     </row>
     <row r="163" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D163" s="8"/>
+      <c r="D163" s="6"/>
     </row>
     <row r="164" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D164" s="8"/>
+      <c r="D164" s="6"/>
     </row>
     <row r="165" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D165" s="8"/>
+      <c r="D165" s="6"/>
     </row>
     <row r="166" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D166" s="8"/>
+      <c r="D166" s="6"/>
     </row>
     <row r="167" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D167" s="8"/>
+      <c r="D167" s="6"/>
     </row>
     <row r="168" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D168" s="8"/>
+      <c r="D168" s="6"/>
     </row>
     <row r="169" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D169" s="8"/>
+      <c r="D169" s="6"/>
     </row>
     <row r="170" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D170" s="8"/>
+      <c r="D170" s="6"/>
     </row>
     <row r="171" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D171" s="8"/>
+      <c r="D171" s="6"/>
     </row>
     <row r="172" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D172" s="8"/>
+      <c r="D172" s="6"/>
     </row>
     <row r="173" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D173" s="8"/>
+      <c r="D173" s="6"/>
     </row>
     <row r="174" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D174" s="8"/>
+      <c r="D174" s="6"/>
     </row>
     <row r="175" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D175" s="8"/>
+      <c r="D175" s="6"/>
     </row>
     <row r="176" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D176" s="8"/>
+      <c r="D176" s="6"/>
     </row>
     <row r="177" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D177" s="8"/>
+      <c r="D177" s="6"/>
     </row>
     <row r="178" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D178" s="8"/>
+      <c r="D178" s="6"/>
     </row>
     <row r="179" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D179" s="8"/>
+      <c r="D179" s="6"/>
     </row>
     <row r="180" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D180" s="8"/>
+      <c r="D180" s="6"/>
     </row>
     <row r="181" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D181" s="8"/>
+      <c r="D181" s="6"/>
     </row>
     <row r="182" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D182" s="8"/>
+      <c r="D182" s="6"/>
     </row>
     <row r="183" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D183" s="8"/>
+      <c r="D183" s="6"/>
     </row>
     <row r="184" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D184" s="8"/>
+      <c r="D184" s="6"/>
     </row>
     <row r="185" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D185" s="8"/>
+      <c r="D185" s="6"/>
     </row>
     <row r="186" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D186" s="8"/>
+      <c r="D186" s="6"/>
     </row>
     <row r="187" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D187" s="8"/>
+      <c r="D187" s="6"/>
     </row>
     <row r="188" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D188" s="8"/>
+      <c r="D188" s="6"/>
     </row>
     <row r="189" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D189" s="8"/>
+      <c r="D189" s="6"/>
     </row>
     <row r="190" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D190" s="8"/>
+      <c r="D190" s="6"/>
     </row>
     <row r="191" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D191" s="8"/>
+      <c r="D191" s="6"/>
     </row>
     <row r="192" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D192" s="8"/>
+      <c r="D192" s="6"/>
     </row>
     <row r="193" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D193" s="8"/>
+      <c r="D193" s="6"/>
     </row>
     <row r="194" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D194" s="8"/>
+      <c r="D194" s="6"/>
     </row>
     <row r="195" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D195" s="8"/>
+      <c r="D195" s="6"/>
     </row>
     <row r="196" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D196" s="8"/>
+      <c r="D196" s="6"/>
     </row>
     <row r="197" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D197" s="8"/>
+      <c r="D197" s="6"/>
     </row>
     <row r="198" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D198" s="8"/>
+      <c r="D198" s="6"/>
     </row>
     <row r="199" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D199" s="8"/>
+      <c r="D199" s="6"/>
     </row>
     <row r="200" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D200" s="8"/>
+      <c r="D200" s="6"/>
     </row>
     <row r="201" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D201" s="8"/>
+      <c r="D201" s="6"/>
     </row>
     <row r="202" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D202" s="8"/>
+      <c r="D202" s="6"/>
     </row>
     <row r="203" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D203" s="8"/>
+      <c r="D203" s="6"/>
     </row>
     <row r="204" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D204" s="8"/>
+      <c r="D204" s="6"/>
     </row>
     <row r="205" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D205" s="8"/>
+      <c r="D205" s="6"/>
     </row>
     <row r="206" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D206" s="8"/>
+      <c r="D206" s="6"/>
     </row>
     <row r="207" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D207" s="8"/>
+      <c r="D207" s="6"/>
     </row>
     <row r="208" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D208" s="8"/>
+      <c r="D208" s="6"/>
     </row>
     <row r="209" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D209" s="8"/>
+      <c r="D209" s="6"/>
     </row>
     <row r="210" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D210" s="8"/>
+      <c r="D210" s="6"/>
     </row>
     <row r="211" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D211" s="8"/>
+      <c r="D211" s="6"/>
     </row>
     <row r="212" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D212" s="8"/>
+      <c r="D212" s="6"/>
     </row>
     <row r="213" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D213" s="8"/>
+      <c r="D213" s="6"/>
     </row>
     <row r="214" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D214" s="8"/>
+      <c r="D214" s="6"/>
     </row>
     <row r="215" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D215" s="8"/>
+      <c r="D215" s="6"/>
     </row>
     <row r="216" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D216" s="8"/>
+      <c r="D216" s="6"/>
     </row>
     <row r="217" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D217" s="8"/>
+      <c r="D217" s="6"/>
     </row>
     <row r="218" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D218" s="8"/>
+      <c r="D218" s="6"/>
     </row>
     <row r="219" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D219" s="8"/>
+      <c r="D219" s="6"/>
     </row>
     <row r="220" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D220" s="8"/>
+      <c r="D220" s="6"/>
     </row>
     <row r="221" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D221" s="8"/>
+      <c r="D221" s="6"/>
     </row>
     <row r="222" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D222" s="8"/>
+      <c r="D222" s="6"/>
     </row>
     <row r="223" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D223" s="8"/>
+      <c r="D223" s="6"/>
     </row>
     <row r="224" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D224" s="8"/>
+      <c r="D224" s="6"/>
     </row>
     <row r="225" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D225" s="8"/>
+      <c r="D225" s="6"/>
     </row>
     <row r="226" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D226" s="8"/>
+      <c r="D226" s="6"/>
     </row>
     <row r="227" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D227" s="8"/>
+      <c r="D227" s="6"/>
     </row>
     <row r="228" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D228" s="8"/>
+      <c r="D228" s="6"/>
     </row>
     <row r="229" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D229" s="8"/>
+      <c r="D229" s="6"/>
     </row>
     <row r="230" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D230" s="8"/>
+      <c r="D230" s="6"/>
     </row>
     <row r="231" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D231" s="8"/>
+      <c r="D231" s="6"/>
     </row>
     <row r="232" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D232" s="8"/>
+      <c r="D232" s="6"/>
     </row>
     <row r="233" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D233" s="8"/>
+      <c r="D233" s="6"/>
     </row>
     <row r="234" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D234" s="8"/>
+      <c r="D234" s="6"/>
     </row>
     <row r="235" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D235" s="8"/>
+      <c r="D235" s="6"/>
     </row>
     <row r="236" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D236" s="8"/>
+      <c r="D236" s="6"/>
     </row>
     <row r="237" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D237" s="8"/>
+      <c r="D237" s="6"/>
     </row>
     <row r="238" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D238" s="8"/>
+      <c r="D238" s="6"/>
     </row>
     <row r="239" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D239" s="8"/>
+      <c r="D239" s="6"/>
     </row>
     <row r="240" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D240" s="8"/>
+      <c r="D240" s="6"/>
     </row>
     <row r="241" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D241" s="8"/>
+      <c r="D241" s="6"/>
     </row>
     <row r="242" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D242" s="8"/>
+      <c r="D242" s="6"/>
     </row>
     <row r="243" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D243" s="8"/>
+      <c r="D243" s="6"/>
     </row>
     <row r="244" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D244" s="8"/>
+      <c r="D244" s="6"/>
     </row>
     <row r="245" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D245" s="8"/>
+      <c r="D245" s="6"/>
     </row>
     <row r="246" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D246" s="8"/>
+      <c r="D246" s="6"/>
     </row>
     <row r="247" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D247" s="8"/>
+      <c r="D247" s="6"/>
     </row>
     <row r="248" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D248" s="8"/>
+      <c r="D248" s="6"/>
     </row>
     <row r="249" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D249" s="8"/>
+      <c r="D249" s="6"/>
     </row>
     <row r="250" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D250" s="8"/>
+      <c r="D250" s="6"/>
     </row>
     <row r="251" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D251" s="8"/>
+      <c r="D251" s="6"/>
     </row>
     <row r="252" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D252" s="8"/>
+      <c r="D252" s="6"/>
     </row>
     <row r="253" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D253" s="8"/>
+      <c r="D253" s="6"/>
     </row>
     <row r="254" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D254" s="8"/>
+      <c r="D254" s="6"/>
     </row>
     <row r="255" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D255" s="8"/>
+      <c r="D255" s="6"/>
     </row>
     <row r="256" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D256" s="8"/>
+      <c r="D256" s="6"/>
     </row>
     <row r="257" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D257" s="8"/>
+      <c r="D257" s="6"/>
     </row>
     <row r="258" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D258" s="8"/>
+      <c r="D258" s="6"/>
     </row>
     <row r="259" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D259" s="8"/>
+      <c r="D259" s="6"/>
     </row>
     <row r="260" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D260" s="8"/>
+      <c r="D260" s="6"/>
     </row>
     <row r="261" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D261" s="8"/>
+      <c r="D261" s="6"/>
     </row>
     <row r="262" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D262" s="8"/>
+      <c r="D262" s="6"/>
     </row>
     <row r="263" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D263" s="8"/>
+      <c r="D263" s="6"/>
     </row>
     <row r="264" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D264" s="8"/>
+      <c r="D264" s="6"/>
     </row>
     <row r="265" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D265" s="8"/>
+      <c r="D265" s="6"/>
     </row>
     <row r="266" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D266" s="8"/>
+      <c r="D266" s="6"/>
     </row>
     <row r="267" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D267" s="8"/>
+      <c r="D267" s="6"/>
     </row>
     <row r="268" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D268" s="8"/>
+      <c r="D268" s="6"/>
     </row>
     <row r="269" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D269" s="8"/>
+      <c r="D269" s="6"/>
     </row>
     <row r="270" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D270" s="8"/>
+      <c r="D270" s="6"/>
     </row>
     <row r="271" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D271" s="8"/>
+      <c r="D271" s="6"/>
     </row>
     <row r="272" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D272" s="8"/>
+      <c r="D272" s="6"/>
     </row>
     <row r="273" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D273" s="8"/>
+      <c r="D273" s="6"/>
     </row>
     <row r="274" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D274" s="8"/>
+      <c r="D274" s="6"/>
     </row>
     <row r="275" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D275" s="8"/>
+      <c r="D275" s="6"/>
     </row>
     <row r="276" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D276" s="8"/>
+      <c r="D276" s="6"/>
     </row>
     <row r="277" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D277" s="8"/>
+      <c r="D277" s="6"/>
     </row>
     <row r="278" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D278" s="8"/>
+      <c r="D278" s="6"/>
     </row>
     <row r="279" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D279" s="8"/>
+      <c r="D279" s="6"/>
     </row>
     <row r="280" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D280" s="8"/>
+      <c r="D280" s="6"/>
     </row>
     <row r="281" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D281" s="8"/>
+      <c r="D281" s="6"/>
     </row>
     <row r="282" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D282" s="8"/>
+      <c r="D282" s="6"/>
     </row>
     <row r="283" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D283" s="8"/>
+      <c r="D283" s="6"/>
     </row>
     <row r="284" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D284" s="8"/>
+      <c r="D284" s="6"/>
     </row>
     <row r="285" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D285" s="8"/>
+      <c r="D285" s="6"/>
     </row>
     <row r="286" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D286" s="8"/>
+      <c r="D286" s="6"/>
     </row>
     <row r="287" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D287" s="8"/>
+      <c r="D287" s="6"/>
     </row>
     <row r="288" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D288" s="8"/>
+      <c r="D288" s="6"/>
     </row>
     <row r="289" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D289" s="8"/>
+      <c r="D289" s="6"/>
     </row>
     <row r="290" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D290" s="8"/>
+      <c r="D290" s="6"/>
     </row>
     <row r="291" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D291" s="8"/>
+      <c r="D291" s="6"/>
     </row>
     <row r="292" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D292" s="8"/>
+      <c r="D292" s="6"/>
     </row>
     <row r="293" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D293" s="8"/>
+      <c r="D293" s="6"/>
     </row>
     <row r="294" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D294" s="8"/>
+      <c r="D294" s="6"/>
     </row>
     <row r="295" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D295" s="8"/>
+      <c r="D295" s="6"/>
     </row>
     <row r="296" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D296" s="8"/>
+      <c r="D296" s="6"/>
     </row>
     <row r="297" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D297" s="8"/>
+      <c r="D297" s="6"/>
     </row>
     <row r="298" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D298" s="8"/>
+      <c r="D298" s="6"/>
     </row>
     <row r="299" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D299" s="8"/>
+      <c r="D299" s="6"/>
     </row>
     <row r="300" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D300" s="8"/>
+      <c r="D300" s="6"/>
     </row>
     <row r="301" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D301" s="8"/>
+      <c r="D301" s="6"/>
     </row>
     <row r="302" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D302" s="8"/>
+      <c r="D302" s="6"/>
     </row>
     <row r="303" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D303" s="8"/>
+      <c r="D303" s="6"/>
     </row>
     <row r="304" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D304" s="8"/>
+      <c r="D304" s="6"/>
     </row>
     <row r="305" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D305" s="8"/>
+      <c r="D305" s="6"/>
     </row>
     <row r="306" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D306" s="8"/>
+      <c r="D306" s="6"/>
     </row>
     <row r="307" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D307" s="8"/>
+      <c r="D307" s="6"/>
     </row>
     <row r="308" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D308" s="8"/>
+      <c r="D308" s="6"/>
     </row>
     <row r="309" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D309" s="8"/>
+      <c r="D309" s="6"/>
     </row>
     <row r="310" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D310" s="8"/>
+      <c r="D310" s="6"/>
     </row>
     <row r="311" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D311" s="8"/>
+      <c r="D311" s="6"/>
     </row>
     <row r="312" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D312" s="8"/>
+      <c r="D312" s="6"/>
     </row>
     <row r="313" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D313" s="8"/>
+      <c r="D313" s="6"/>
     </row>
     <row r="314" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D314" s="8"/>
+      <c r="D314" s="6"/>
     </row>
     <row r="315" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D315" s="8"/>
+      <c r="D315" s="6"/>
     </row>
     <row r="316" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D316" s="8"/>
+      <c r="D316" s="6"/>
     </row>
     <row r="317" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D317" s="8"/>
+      <c r="D317" s="6"/>
     </row>
     <row r="318" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D318" s="8"/>
+      <c r="D318" s="6"/>
     </row>
     <row r="319" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D319" s="8"/>
+      <c r="D319" s="6"/>
     </row>
     <row r="320" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D320" s="8"/>
+      <c r="D320" s="6"/>
     </row>
     <row r="321" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D321" s="8"/>
+      <c r="D321" s="6"/>
     </row>
     <row r="322" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D322" s="8"/>
+      <c r="D322" s="6"/>
     </row>
     <row r="323" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D323" s="8"/>
+      <c r="D323" s="6"/>
     </row>
     <row r="324" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D324" s="8"/>
+      <c r="D324" s="6"/>
     </row>
     <row r="325" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D325" s="8"/>
+      <c r="D325" s="6"/>
     </row>
     <row r="326" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D326" s="8"/>
+      <c r="D326" s="6"/>
     </row>
     <row r="327" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D327" s="8"/>
+      <c r="D327" s="6"/>
     </row>
     <row r="328" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D328" s="8"/>
+      <c r="D328" s="6"/>
     </row>
     <row r="329" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D329" s="8"/>
+      <c r="D329" s="6"/>
     </row>
     <row r="330" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D330" s="8"/>
+      <c r="D330" s="6"/>
     </row>
     <row r="331" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D331" s="8"/>
+      <c r="D331" s="6"/>
     </row>
     <row r="332" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D332" s="8"/>
+      <c r="D332" s="6"/>
     </row>
     <row r="333" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D333" s="8"/>
+      <c r="D333" s="6"/>
     </row>
     <row r="334" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D334" s="8"/>
+      <c r="D334" s="6"/>
     </row>
     <row r="335" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D335" s="8"/>
+      <c r="D335" s="6"/>
     </row>
     <row r="336" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D336" s="8"/>
+      <c r="D336" s="6"/>
     </row>
     <row r="337" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D337" s="8"/>
+      <c r="D337" s="6"/>
     </row>
     <row r="338" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D338" s="8"/>
+      <c r="D338" s="6"/>
     </row>
     <row r="339" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D339" s="8"/>
+      <c r="D339" s="6"/>
     </row>
     <row r="340" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D340" s="8"/>
+      <c r="D340" s="6"/>
     </row>
     <row r="341" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D341" s="8"/>
+      <c r="D341" s="6"/>
     </row>
     <row r="342" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D342" s="8"/>
+      <c r="D342" s="6"/>
     </row>
     <row r="343" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D343" s="8"/>
+      <c r="D343" s="6"/>
     </row>
     <row r="344" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D344" s="8"/>
+      <c r="D344" s="6"/>
     </row>
     <row r="345" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D345" s="8"/>
+      <c r="D345" s="6"/>
     </row>
     <row r="346" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D346" s="8"/>
+      <c r="D346" s="6"/>
     </row>
     <row r="347" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D347" s="8"/>
+      <c r="D347" s="6"/>
     </row>
     <row r="348" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D348" s="8"/>
+      <c r="D348" s="6"/>
     </row>
     <row r="349" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D349" s="8"/>
+      <c r="D349" s="6"/>
     </row>
     <row r="350" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D350" s="8"/>
+      <c r="D350" s="6"/>
     </row>
     <row r="351" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D351" s="8"/>
+      <c r="D351" s="6"/>
     </row>
     <row r="352" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D352" s="8"/>
+      <c r="D352" s="6"/>
     </row>
     <row r="353" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D353" s="8"/>
+      <c r="D353" s="6"/>
     </row>
     <row r="354" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D354" s="8"/>
+      <c r="D354" s="6"/>
     </row>
     <row r="355" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D355" s="8"/>
+      <c r="D355" s="6"/>
     </row>
     <row r="356" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D356" s="8"/>
+      <c r="D356" s="6"/>
     </row>
     <row r="357" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D357" s="8"/>
+      <c r="D357" s="6"/>
     </row>
     <row r="358" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D358" s="8"/>
+      <c r="D358" s="6"/>
     </row>
     <row r="359" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D359" s="8"/>
+      <c r="D359" s="6"/>
     </row>
     <row r="360" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D360" s="8"/>
+      <c r="D360" s="6"/>
     </row>
     <row r="361" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D361" s="8"/>
+      <c r="D361" s="6"/>
     </row>
     <row r="362" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D362" s="8"/>
+      <c r="D362" s="6"/>
     </row>
     <row r="363" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D363" s="8"/>
+      <c r="D363" s="6"/>
     </row>
     <row r="364" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D364" s="8"/>
+      <c r="D364" s="6"/>
     </row>
     <row r="365" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D365" s="8"/>
+      <c r="D365" s="6"/>
     </row>
     <row r="366" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D366" s="8"/>
+      <c r="D366" s="6"/>
     </row>
     <row r="367" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D367" s="8"/>
+      <c r="D367" s="6"/>
     </row>
     <row r="368" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D368" s="8"/>
+      <c r="D368" s="6"/>
     </row>
     <row r="369" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D369" s="8"/>
+      <c r="D369" s="6"/>
     </row>
     <row r="370" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D370" s="8"/>
+      <c r="D370" s="6"/>
     </row>
     <row r="371" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D371" s="8"/>
+      <c r="D371" s="6"/>
     </row>
     <row r="372" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D372" s="8"/>
+      <c r="D372" s="6"/>
     </row>
     <row r="373" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D373" s="8"/>
+      <c r="D373" s="6"/>
     </row>
     <row r="374" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D374" s="8"/>
+      <c r="D374" s="6"/>
     </row>
     <row r="375" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D375" s="8"/>
+      <c r="D375" s="6"/>
     </row>
     <row r="376" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D376" s="8"/>
+      <c r="D376" s="6"/>
     </row>
     <row r="377" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D377" s="8"/>
+      <c r="D377" s="6"/>
     </row>
     <row r="378" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D378" s="8"/>
+      <c r="D378" s="6"/>
     </row>
     <row r="379" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D379" s="8"/>
+      <c r="D379" s="6"/>
     </row>
     <row r="380" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D380" s="8"/>
+      <c r="D380" s="6"/>
     </row>
     <row r="381" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D381" s="8"/>
+      <c r="D381" s="6"/>
     </row>
     <row r="382" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D382" s="8"/>
+      <c r="D382" s="6"/>
     </row>
     <row r="383" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D383" s="8"/>
+      <c r="D383" s="6"/>
     </row>
     <row r="384" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D384" s="8"/>
+      <c r="D384" s="6"/>
     </row>
     <row r="385" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D385" s="8"/>
+      <c r="D385" s="6"/>
     </row>
     <row r="386" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D386" s="8"/>
+      <c r="D386" s="6"/>
     </row>
     <row r="387" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D387" s="8"/>
+      <c r="D387" s="6"/>
     </row>
     <row r="388" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D388" s="8"/>
+      <c r="D388" s="6"/>
     </row>
     <row r="389" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D389" s="8"/>
+      <c r="D389" s="6"/>
     </row>
     <row r="390" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D390" s="8"/>
+      <c r="D390" s="6"/>
     </row>
     <row r="391" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D391" s="8"/>
+      <c r="D391" s="6"/>
     </row>
     <row r="392" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D392" s="8"/>
+      <c r="D392" s="6"/>
     </row>
     <row r="393" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D393" s="8"/>
+      <c r="D393" s="6"/>
     </row>
     <row r="394" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D394" s="8"/>
+      <c r="D394" s="6"/>
     </row>
     <row r="395" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D395" s="8"/>
+      <c r="D395" s="6"/>
     </row>
     <row r="396" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D396" s="8"/>
+      <c r="D396" s="6"/>
     </row>
     <row r="397" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D397" s="8"/>
+      <c r="D397" s="6"/>
     </row>
     <row r="398" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D398" s="8"/>
+      <c r="D398" s="6"/>
     </row>
     <row r="399" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D399" s="8"/>
+      <c r="D399" s="6"/>
     </row>
     <row r="400" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D400" s="8"/>
+      <c r="D400" s="6"/>
     </row>
     <row r="401" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D401" s="8"/>
+      <c r="D401" s="6"/>
     </row>
     <row r="402" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D402" s="8"/>
+      <c r="D402" s="6"/>
     </row>
     <row r="403" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D403" s="8"/>
+      <c r="D403" s="6"/>
     </row>
     <row r="404" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D404" s="8"/>
+      <c r="D404" s="6"/>
     </row>
     <row r="405" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D405" s="8"/>
+      <c r="D405" s="6"/>
     </row>
     <row r="406" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D406" s="8"/>
+      <c r="D406" s="6"/>
     </row>
     <row r="407" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D407" s="8"/>
+      <c r="D407" s="6"/>
     </row>
     <row r="408" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D408" s="8"/>
+      <c r="D408" s="6"/>
     </row>
     <row r="409" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D409" s="8"/>
+      <c r="D409" s="6"/>
     </row>
     <row r="410" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D410" s="8"/>
+      <c r="D410" s="6"/>
     </row>
     <row r="411" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D411" s="8"/>
+      <c r="D411" s="6"/>
     </row>
     <row r="412" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D412" s="8"/>
+      <c r="D412" s="6"/>
     </row>
     <row r="413" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D413" s="8"/>
+      <c r="D413" s="6"/>
     </row>
     <row r="414" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D414" s="8"/>
+      <c r="D414" s="6"/>
     </row>
     <row r="415" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D415" s="8"/>
+      <c r="D415" s="6"/>
     </row>
     <row r="416" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D416" s="8"/>
+      <c r="D416" s="6"/>
     </row>
     <row r="417" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D417" s="8"/>
+      <c r="D417" s="6"/>
     </row>
     <row r="418" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D418" s="8"/>
+      <c r="D418" s="6"/>
     </row>
     <row r="419" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D419" s="8"/>
+      <c r="D419" s="6"/>
     </row>
     <row r="420" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D420" s="8"/>
+      <c r="D420" s="6"/>
     </row>
     <row r="421" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D421" s="8"/>
+      <c r="D421" s="6"/>
     </row>
     <row r="422" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D422" s="8"/>
+      <c r="D422" s="6"/>
     </row>
     <row r="423" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D423" s="8"/>
+      <c r="D423" s="6"/>
     </row>
     <row r="424" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D424" s="8"/>
+      <c r="D424" s="6"/>
     </row>
     <row r="425" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D425" s="8"/>
+      <c r="D425" s="6"/>
     </row>
     <row r="426" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D426" s="8"/>
+      <c r="D426" s="6"/>
     </row>
     <row r="427" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D427" s="8"/>
+      <c r="D427" s="6"/>
     </row>
     <row r="428" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D428" s="8"/>
+      <c r="D428" s="6"/>
     </row>
     <row r="429" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D429" s="8"/>
+      <c r="D429" s="6"/>
     </row>
     <row r="430" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D430" s="8"/>
+      <c r="D430" s="6"/>
     </row>
     <row r="431" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D431" s="8"/>
+      <c r="D431" s="6"/>
     </row>
     <row r="432" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D432" s="8"/>
+      <c r="D432" s="6"/>
     </row>
     <row r="433" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D433" s="8"/>
+      <c r="D433" s="6"/>
     </row>
     <row r="434" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D434" s="8"/>
+      <c r="D434" s="6"/>
     </row>
     <row r="435" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D435" s="8"/>
+      <c r="D435" s="6"/>
     </row>
     <row r="436" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D436" s="8"/>
+      <c r="D436" s="6"/>
     </row>
     <row r="437" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D437" s="8"/>
+      <c r="D437" s="6"/>
     </row>
     <row r="438" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D438" s="8"/>
+      <c r="D438" s="6"/>
     </row>
     <row r="439" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D439" s="8"/>
+      <c r="D439" s="6"/>
     </row>
     <row r="440" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D440" s="8"/>
+      <c r="D440" s="6"/>
     </row>
     <row r="441" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D441" s="8"/>
+      <c r="D441" s="6"/>
     </row>
     <row r="442" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D442" s="8"/>
+      <c r="D442" s="6"/>
     </row>
     <row r="443" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D443" s="8"/>
+      <c r="D443" s="6"/>
     </row>
     <row r="444" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D444" s="8"/>
+      <c r="D444" s="6"/>
     </row>
     <row r="445" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D445" s="8"/>
+      <c r="D445" s="6"/>
     </row>
     <row r="446" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D446" s="8"/>
+      <c r="D446" s="6"/>
     </row>
     <row r="447" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D447" s="8"/>
+      <c r="D447" s="6"/>
     </row>
     <row r="448" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D448" s="8"/>
+      <c r="D448" s="6"/>
     </row>
     <row r="449" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D449" s="8"/>
+      <c r="D449" s="6"/>
     </row>
     <row r="450" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D450" s="8"/>
+      <c r="D450" s="6"/>
     </row>
     <row r="451" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D451" s="8"/>
+      <c r="D451" s="6"/>
     </row>
     <row r="452" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D452" s="8"/>
+      <c r="D452" s="6"/>
     </row>
     <row r="453" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D453" s="8"/>
+      <c r="D453" s="6"/>
     </row>
     <row r="454" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D454" s="8"/>
+      <c r="D454" s="6"/>
     </row>
     <row r="455" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D455" s="8"/>
+      <c r="D455" s="6"/>
     </row>
     <row r="456" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D456" s="8"/>
+      <c r="D456" s="6"/>
     </row>
     <row r="457" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D457" s="8"/>
+      <c r="D457" s="6"/>
     </row>
     <row r="458" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D458" s="8"/>
+      <c r="D458" s="6"/>
     </row>
     <row r="459" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D459" s="8"/>
+      <c r="D459" s="6"/>
     </row>
     <row r="460" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D460" s="8"/>
+      <c r="D460" s="6"/>
     </row>
     <row r="461" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D461" s="8"/>
+      <c r="D461" s="6"/>
     </row>
     <row r="462" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D462" s="8"/>
+      <c r="D462" s="6"/>
     </row>
     <row r="463" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D463" s="8"/>
+      <c r="D463" s="6"/>
     </row>
     <row r="464" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D464" s="8"/>
+      <c r="D464" s="6"/>
     </row>
     <row r="465" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D465" s="8"/>
+      <c r="D465" s="6"/>
     </row>
     <row r="466" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D466" s="8"/>
+      <c r="D466" s="6"/>
     </row>
     <row r="467" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D467" s="8"/>
+      <c r="D467" s="6"/>
     </row>
     <row r="468" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D468" s="8"/>
+      <c r="D468" s="6"/>
     </row>
     <row r="469" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D469" s="8"/>
+      <c r="D469" s="6"/>
     </row>
     <row r="470" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D470" s="8"/>
+      <c r="D470" s="6"/>
     </row>
     <row r="471" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D471" s="8"/>
+      <c r="D471" s="6"/>
     </row>
     <row r="472" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D472" s="8"/>
+      <c r="D472" s="6"/>
     </row>
     <row r="473" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D473" s="8"/>
+      <c r="D473" s="6"/>
     </row>
     <row r="474" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D474" s="8"/>
+      <c r="D474" s="6"/>
     </row>
     <row r="475" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D475" s="8"/>
+      <c r="D475" s="6"/>
     </row>
     <row r="476" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D476" s="8"/>
+      <c r="D476" s="6"/>
     </row>
     <row r="477" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D477" s="8"/>
+      <c r="D477" s="6"/>
     </row>
     <row r="478" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D478" s="8"/>
+      <c r="D478" s="6"/>
     </row>
     <row r="479" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D479" s="8"/>
+      <c r="D479" s="6"/>
     </row>
     <row r="480" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D480" s="8"/>
+      <c r="D480" s="6"/>
     </row>
     <row r="481" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D481" s="8"/>
+      <c r="D481" s="6"/>
     </row>
     <row r="482" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D482" s="8"/>
+      <c r="D482" s="6"/>
     </row>
     <row r="483" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D483" s="8"/>
+      <c r="D483" s="6"/>
     </row>
     <row r="484" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D484" s="8"/>
+      <c r="D484" s="6"/>
     </row>
     <row r="485" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D485" s="8"/>
+      <c r="D485" s="6"/>
     </row>
     <row r="486" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D486" s="8"/>
+      <c r="D486" s="6"/>
     </row>
     <row r="487" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D487" s="8"/>
+      <c r="D487" s="6"/>
     </row>
     <row r="488" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D488" s="8"/>
+      <c r="D488" s="6"/>
     </row>
     <row r="489" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D489" s="8"/>
+      <c r="D489" s="6"/>
     </row>
     <row r="490" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D490" s="8"/>
+      <c r="D490" s="6"/>
     </row>
     <row r="491" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D491" s="8"/>
+      <c r="D491" s="6"/>
     </row>
     <row r="492" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D492" s="8"/>
+      <c r="D492" s="6"/>
     </row>
     <row r="493" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D493" s="8"/>
+      <c r="D493" s="6"/>
     </row>
     <row r="494" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D494" s="8"/>
+      <c r="D494" s="6"/>
     </row>
     <row r="495" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D495" s="8"/>
+      <c r="D495" s="6"/>
     </row>
     <row r="496" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D496" s="8"/>
+      <c r="D496" s="6"/>
     </row>
     <row r="497" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D497" s="8"/>
+      <c r="D497" s="6"/>
     </row>
     <row r="498" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D498" s="8"/>
+      <c r="D498" s="6"/>
     </row>
     <row r="499" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D499" s="8"/>
+      <c r="D499" s="6"/>
     </row>
     <row r="500" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D500" s="8"/>
+      <c r="D500" s="6"/>
     </row>
     <row r="501" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D501" s="8"/>
+      <c r="D501" s="6"/>
     </row>
     <row r="502" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D502" s="8"/>
+      <c r="D502" s="6"/>
     </row>
     <row r="503" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D503" s="8"/>
+      <c r="D503" s="6"/>
     </row>
     <row r="504" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D504" s="8"/>
+      <c r="D504" s="6"/>
     </row>
     <row r="505" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D505" s="8"/>
+      <c r="D505" s="6"/>
     </row>
     <row r="506" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D506" s="8"/>
+      <c r="D506" s="6"/>
     </row>
     <row r="507" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D507" s="8"/>
+      <c r="D507" s="6"/>
     </row>
     <row r="508" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D508" s="8"/>
+      <c r="D508" s="6"/>
     </row>
     <row r="509" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D509" s="8"/>
+      <c r="D509" s="6"/>
     </row>
     <row r="510" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D510" s="8"/>
+      <c r="D510" s="6"/>
     </row>
     <row r="511" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D511" s="8"/>
+      <c r="D511" s="6"/>
     </row>
     <row r="512" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D512" s="8"/>
+      <c r="D512" s="6"/>
     </row>
     <row r="513" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D513" s="8"/>
+      <c r="D513" s="6"/>
     </row>
     <row r="514" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D514" s="8"/>
+      <c r="D514" s="6"/>
     </row>
     <row r="515" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D515" s="8"/>
+      <c r="D515" s="6"/>
     </row>
     <row r="516" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D516" s="8"/>
+      <c r="D516" s="6"/>
     </row>
     <row r="517" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D517" s="8"/>
+      <c r="D517" s="6"/>
     </row>
     <row r="518" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D518" s="8"/>
+      <c r="D518" s="6"/>
     </row>
     <row r="519" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D519" s="8"/>
+      <c r="D519" s="6"/>
     </row>
     <row r="520" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D520" s="8"/>
+      <c r="D520" s="6"/>
     </row>
     <row r="521" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D521" s="8"/>
+      <c r="D521" s="6"/>
     </row>
     <row r="522" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D522" s="8"/>
+      <c r="D522" s="6"/>
     </row>
     <row r="523" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D523" s="8"/>
+      <c r="D523" s="6"/>
     </row>
     <row r="524" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D524" s="8"/>
+      <c r="D524" s="6"/>
     </row>
     <row r="525" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D525" s="8"/>
+      <c r="D525" s="6"/>
     </row>
     <row r="526" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D526" s="8"/>
+      <c r="D526" s="6"/>
     </row>
     <row r="527" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D527" s="8"/>
+      <c r="D527" s="6"/>
     </row>
     <row r="528" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D528" s="8"/>
+      <c r="D528" s="6"/>
     </row>
     <row r="529" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D529" s="8"/>
+      <c r="D529" s="6"/>
     </row>
     <row r="530" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D530" s="8"/>
+      <c r="D530" s="6"/>
     </row>
     <row r="531" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D531" s="8"/>
+      <c r="D531" s="6"/>
     </row>
     <row r="532" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D532" s="8"/>
+      <c r="D532" s="6"/>
     </row>
     <row r="533" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D533" s="8"/>
+      <c r="D533" s="6"/>
     </row>
     <row r="534" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D534" s="8"/>
+      <c r="D534" s="6"/>
     </row>
     <row r="535" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D535" s="8"/>
+      <c r="D535" s="6"/>
     </row>
     <row r="536" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D536" s="8"/>
+      <c r="D536" s="6"/>
     </row>
     <row r="537" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D537" s="8"/>
+      <c r="D537" s="6"/>
     </row>
     <row r="538" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D538" s="8"/>
+      <c r="D538" s="6"/>
     </row>
     <row r="539" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D539" s="8"/>
+      <c r="D539" s="6"/>
     </row>
     <row r="540" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D540" s="8"/>
+      <c r="D540" s="6"/>
     </row>
     <row r="541" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D541" s="8"/>
+      <c r="D541" s="6"/>
     </row>
     <row r="542" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D542" s="8"/>
+      <c r="D542" s="6"/>
     </row>
     <row r="543" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D543" s="8"/>
+      <c r="D543" s="6"/>
     </row>
     <row r="544" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D544" s="8"/>
+      <c r="D544" s="6"/>
     </row>
     <row r="545" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D545" s="8"/>
+      <c r="D545" s="6"/>
     </row>
     <row r="546" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D546" s="8"/>
+      <c r="D546" s="6"/>
     </row>
     <row r="547" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D547" s="8"/>
+      <c r="D547" s="6"/>
     </row>
     <row r="548" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D548" s="8"/>
+      <c r="D548" s="6"/>
     </row>
     <row r="549" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D549" s="8"/>
+      <c r="D549" s="6"/>
     </row>
     <row r="550" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D550" s="8"/>
+      <c r="D550" s="6"/>
     </row>
     <row r="551" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D551" s="8"/>
+      <c r="D551" s="6"/>
     </row>
     <row r="552" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D552" s="8"/>
+      <c r="D552" s="6"/>
     </row>
     <row r="553" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D553" s="8"/>
+      <c r="D553" s="6"/>
     </row>
     <row r="554" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D554" s="8"/>
+      <c r="D554" s="6"/>
     </row>
     <row r="555" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D555" s="8"/>
+      <c r="D555" s="6"/>
     </row>
     <row r="556" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D556" s="8"/>
+      <c r="D556" s="6"/>
     </row>
     <row r="557" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D557" s="8"/>
+      <c r="D557" s="6"/>
     </row>
     <row r="558" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D558" s="8"/>
+      <c r="D558" s="6"/>
     </row>
     <row r="559" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D559" s="8"/>
+      <c r="D559" s="6"/>
     </row>
     <row r="560" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D560" s="8"/>
+      <c r="D560" s="6"/>
     </row>
     <row r="561" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D561" s="8"/>
+      <c r="D561" s="6"/>
     </row>
     <row r="562" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D562" s="8"/>
+      <c r="D562" s="6"/>
     </row>
     <row r="563" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D563" s="8"/>
+      <c r="D563" s="6"/>
     </row>
     <row r="564" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D564" s="8"/>
+      <c r="D564" s="6"/>
     </row>
     <row r="565" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D565" s="8"/>
+      <c r="D565" s="6"/>
     </row>
     <row r="566" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D566" s="8"/>
+      <c r="D566" s="6"/>
     </row>
     <row r="567" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D567" s="8"/>
+      <c r="D567" s="6"/>
     </row>
     <row r="568" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D568" s="8"/>
+      <c r="D568" s="6"/>
     </row>
     <row r="569" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D569" s="8"/>
+      <c r="D569" s="6"/>
     </row>
     <row r="570" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D570" s="8"/>
+      <c r="D570" s="6"/>
     </row>
     <row r="571" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D571" s="8"/>
+      <c r="D571" s="6"/>
     </row>
     <row r="572" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D572" s="8"/>
+      <c r="D572" s="6"/>
     </row>
     <row r="573" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D573" s="8"/>
+      <c r="D573" s="6"/>
     </row>
     <row r="574" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D574" s="8"/>
+      <c r="D574" s="6"/>
     </row>
     <row r="575" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D575" s="8"/>
+      <c r="D575" s="6"/>
     </row>
     <row r="576" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D576" s="8"/>
+      <c r="D576" s="6"/>
     </row>
     <row r="577" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D577" s="8"/>
+      <c r="D577" s="6"/>
     </row>
     <row r="578" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D578" s="8"/>
+      <c r="D578" s="6"/>
     </row>
     <row r="579" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D579" s="8"/>
+      <c r="D579" s="6"/>
     </row>
     <row r="580" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D580" s="8"/>
+      <c r="D580" s="6"/>
     </row>
     <row r="581" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D581" s="8"/>
+      <c r="D581" s="6"/>
     </row>
     <row r="582" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D582" s="8"/>
+      <c r="D582" s="6"/>
     </row>
     <row r="583" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D583" s="8"/>
+      <c r="D583" s="6"/>
     </row>
     <row r="584" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D584" s="8"/>
+      <c r="D584" s="6"/>
     </row>
     <row r="585" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D585" s="8"/>
+      <c r="D585" s="6"/>
     </row>
     <row r="586" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D586" s="8"/>
+      <c r="D586" s="6"/>
     </row>
     <row r="587" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D587" s="8"/>
+      <c r="D587" s="6"/>
     </row>
     <row r="588" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D588" s="8"/>
+      <c r="D588" s="6"/>
     </row>
     <row r="589" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D589" s="8"/>
+      <c r="D589" s="6"/>
     </row>
     <row r="590" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D590" s="8"/>
+      <c r="D590" s="6"/>
     </row>
     <row r="591" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D591" s="8"/>
+      <c r="D591" s="6"/>
     </row>
     <row r="592" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D592" s="8"/>
+      <c r="D592" s="6"/>
     </row>
     <row r="593" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D593" s="8"/>
+      <c r="D593" s="6"/>
     </row>
     <row r="594" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D594" s="8"/>
+      <c r="D594" s="6"/>
     </row>
     <row r="595" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D595" s="8"/>
+      <c r="D595" s="6"/>
     </row>
     <row r="596" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D596" s="8"/>
+      <c r="D596" s="6"/>
     </row>
     <row r="597" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D597" s="8"/>
+      <c r="D597" s="6"/>
     </row>
     <row r="598" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D598" s="8"/>
+      <c r="D598" s="6"/>
     </row>
     <row r="599" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D599" s="8"/>
+      <c r="D599" s="6"/>
     </row>
     <row r="600" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D600" s="8"/>
+      <c r="D600" s="6"/>
     </row>
     <row r="601" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D601" s="8"/>
+      <c r="D601" s="6"/>
     </row>
     <row r="602" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D602" s="8"/>
+      <c r="D602" s="6"/>
     </row>
     <row r="603" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D603" s="8"/>
+      <c r="D603" s="6"/>
     </row>
     <row r="604" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D604" s="8"/>
+      <c r="D604" s="6"/>
     </row>
     <row r="605" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D605" s="8"/>
+      <c r="D605" s="6"/>
     </row>
     <row r="606" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D606" s="8"/>
+      <c r="D606" s="6"/>
     </row>
     <row r="607" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D607" s="8"/>
+      <c r="D607" s="6"/>
     </row>
     <row r="608" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D608" s="8"/>
+      <c r="D608" s="6"/>
     </row>
     <row r="609" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D609" s="8"/>
+      <c r="D609" s="6"/>
     </row>
     <row r="610" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D610" s="8"/>
+      <c r="D610" s="6"/>
     </row>
     <row r="611" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D611" s="8"/>
+      <c r="D611" s="6"/>
     </row>
     <row r="612" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D612" s="8"/>
+      <c r="D612" s="6"/>
     </row>
     <row r="613" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D613" s="8"/>
+      <c r="D613" s="6"/>
     </row>
     <row r="614" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D614" s="8"/>
+      <c r="D614" s="6"/>
     </row>
     <row r="615" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D615" s="8"/>
+      <c r="D615" s="6"/>
     </row>
     <row r="616" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D616" s="8"/>
+      <c r="D616" s="6"/>
     </row>
     <row r="617" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D617" s="8"/>
+      <c r="D617" s="6"/>
     </row>
     <row r="618" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D618" s="8"/>
+      <c r="D618" s="6"/>
     </row>
     <row r="619" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D619" s="8"/>
+      <c r="D619" s="6"/>
     </row>
     <row r="620" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D620" s="8"/>
+      <c r="D620" s="6"/>
     </row>
     <row r="621" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D621" s="8"/>
+      <c r="D621" s="6"/>
     </row>
     <row r="622" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D622" s="8"/>
+      <c r="D622" s="6"/>
     </row>
     <row r="623" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D623" s="8"/>
+      <c r="D623" s="6"/>
     </row>
     <row r="624" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D624" s="8"/>
+      <c r="D624" s="6"/>
     </row>
     <row r="625" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D625" s="8"/>
+      <c r="D625" s="6"/>
     </row>
     <row r="626" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D626" s="8"/>
+      <c r="D626" s="6"/>
     </row>
     <row r="627" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D627" s="8"/>
+      <c r="D627" s="6"/>
     </row>
     <row r="628" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D628" s="8"/>
+      <c r="D628" s="6"/>
     </row>
     <row r="629" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D629" s="8"/>
+      <c r="D629" s="6"/>
     </row>
     <row r="630" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D630" s="8"/>
+      <c r="D630" s="6"/>
     </row>
     <row r="631" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D631" s="8"/>
+      <c r="D631" s="6"/>
     </row>
     <row r="632" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D632" s="8"/>
+      <c r="D632" s="6"/>
     </row>
     <row r="633" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D633" s="8"/>
+      <c r="D633" s="6"/>
     </row>
     <row r="634" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D634" s="8"/>
+      <c r="D634" s="6"/>
     </row>
     <row r="635" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D635" s="8"/>
+      <c r="D635" s="6"/>
     </row>
     <row r="636" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D636" s="8"/>
+      <c r="D636" s="6"/>
     </row>
     <row r="637" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D637" s="8"/>
+      <c r="D637" s="6"/>
     </row>
     <row r="638" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D638" s="8"/>
+      <c r="D638" s="6"/>
     </row>
     <row r="639" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D639" s="8"/>
+      <c r="D639" s="6"/>
     </row>
     <row r="640" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D640" s="8"/>
+      <c r="D640" s="6"/>
     </row>
     <row r="641" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D641" s="8"/>
+      <c r="D641" s="6"/>
     </row>
     <row r="642" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D642" s="8"/>
+      <c r="D642" s="6"/>
     </row>
     <row r="643" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D643" s="8"/>
+      <c r="D643" s="6"/>
     </row>
     <row r="644" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D644" s="8"/>
+      <c r="D644" s="6"/>
     </row>
     <row r="645" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D645" s="8"/>
+      <c r="D645" s="6"/>
     </row>
     <row r="646" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D646" s="8"/>
+      <c r="D646" s="6"/>
     </row>
     <row r="647" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D647" s="8"/>
+      <c r="D647" s="6"/>
     </row>
     <row r="648" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D648" s="8"/>
+      <c r="D648" s="6"/>
     </row>
     <row r="649" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D649" s="8"/>
+      <c r="D649" s="6"/>
     </row>
     <row r="650" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D650" s="8"/>
+      <c r="D650" s="6"/>
     </row>
     <row r="651" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D651" s="8"/>
+      <c r="D651" s="6"/>
     </row>
     <row r="652" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D652" s="8"/>
+      <c r="D652" s="6"/>
     </row>
     <row r="653" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D653" s="8"/>
+      <c r="D653" s="6"/>
     </row>
     <row r="654" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D654" s="8"/>
+      <c r="D654" s="6"/>
     </row>
     <row r="655" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D655" s="8"/>
+      <c r="D655" s="6"/>
     </row>
     <row r="656" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D656" s="8"/>
+      <c r="D656" s="6"/>
     </row>
     <row r="657" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D657" s="8"/>
+      <c r="D657" s="6"/>
     </row>
     <row r="658" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D658" s="8"/>
+      <c r="D658" s="6"/>
     </row>
     <row r="659" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D659" s="8"/>
+      <c r="D659" s="6"/>
     </row>
     <row r="660" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D660" s="8"/>
+      <c r="D660" s="6"/>
     </row>
     <row r="661" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D661" s="8"/>
+      <c r="D661" s="6"/>
     </row>
     <row r="662" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D662" s="8"/>
+      <c r="D662" s="6"/>
     </row>
     <row r="663" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D663" s="8"/>
+      <c r="D663" s="6"/>
     </row>
     <row r="664" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D664" s="8"/>
+      <c r="D664" s="6"/>
     </row>
     <row r="665" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D665" s="8"/>
+      <c r="D665" s="6"/>
     </row>
     <row r="666" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D666" s="8"/>
+      <c r="D666" s="6"/>
     </row>
     <row r="667" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D667" s="8"/>
+      <c r="D667" s="6"/>
     </row>
     <row r="668" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D668" s="8"/>
+      <c r="D668" s="6"/>
     </row>
     <row r="669" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D669" s="8"/>
+      <c r="D669" s="6"/>
     </row>
     <row r="670" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D670" s="8"/>
+      <c r="D670" s="6"/>
     </row>
     <row r="671" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D671" s="8"/>
+      <c r="D671" s="6"/>
     </row>
     <row r="672" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D672" s="8"/>
+      <c r="D672" s="6"/>
     </row>
     <row r="673" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D673" s="8"/>
+      <c r="D673" s="6"/>
     </row>
     <row r="674" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D674" s="8"/>
+      <c r="D674" s="6"/>
     </row>
     <row r="675" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D675" s="8"/>
+      <c r="D675" s="6"/>
     </row>
     <row r="676" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D676" s="8"/>
+      <c r="D676" s="6"/>
     </row>
     <row r="677" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D677" s="8"/>
+      <c r="D677" s="6"/>
     </row>
     <row r="678" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D678" s="8"/>
+      <c r="D678" s="6"/>
     </row>
     <row r="679" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D679" s="8"/>
+      <c r="D679" s="6"/>
     </row>
     <row r="680" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D680" s="8"/>
+      <c r="D680" s="6"/>
     </row>
     <row r="681" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D681" s="8"/>
+      <c r="D681" s="6"/>
     </row>
     <row r="682" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D682" s="8"/>
+      <c r="D682" s="6"/>
     </row>
     <row r="683" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D683" s="8"/>
+      <c r="D683" s="6"/>
     </row>
     <row r="684" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D684" s="8"/>
+      <c r="D684" s="6"/>
     </row>
     <row r="685" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D685" s="8"/>
+      <c r="D685" s="6"/>
     </row>
     <row r="686" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D686" s="8"/>
+      <c r="D686" s="6"/>
     </row>
     <row r="687" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D687" s="8"/>
+      <c r="D687" s="6"/>
     </row>
     <row r="688" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D688" s="8"/>
+      <c r="D688" s="6"/>
     </row>
     <row r="689" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D689" s="8"/>
+      <c r="D689" s="6"/>
     </row>
     <row r="690" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D690" s="8"/>
+      <c r="D690" s="6"/>
     </row>
     <row r="691" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D691" s="8"/>
+      <c r="D691" s="6"/>
     </row>
     <row r="692" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D692" s="8"/>
+      <c r="D692" s="6"/>
     </row>
     <row r="693" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D693" s="8"/>
+      <c r="D693" s="6"/>
     </row>
     <row r="694" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D694" s="8"/>
+      <c r="D694" s="6"/>
     </row>
     <row r="695" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D695" s="8"/>
+      <c r="D695" s="6"/>
     </row>
     <row r="696" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D696" s="8"/>
+      <c r="D696" s="6"/>
     </row>
     <row r="697" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D697" s="8"/>
+      <c r="D697" s="6"/>
     </row>
     <row r="698" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D698" s="8"/>
+      <c r="D698" s="6"/>
     </row>
     <row r="699" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D699" s="8"/>
+      <c r="D699" s="6"/>
     </row>
     <row r="700" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D700" s="8"/>
+      <c r="D700" s="6"/>
     </row>
     <row r="701" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D701" s="8"/>
+      <c r="D701" s="6"/>
     </row>
     <row r="702" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D702" s="8"/>
+      <c r="D702" s="6"/>
     </row>
     <row r="703" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D703" s="8"/>
+      <c r="D703" s="6"/>
     </row>
     <row r="704" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D704" s="8"/>
+      <c r="D704" s="6"/>
     </row>
     <row r="705" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D705" s="8"/>
+      <c r="D705" s="6"/>
     </row>
     <row r="706" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D706" s="8"/>
+      <c r="D706" s="6"/>
     </row>
     <row r="707" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D707" s="8"/>
+      <c r="D707" s="6"/>
     </row>
     <row r="708" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D708" s="8"/>
+      <c r="D708" s="6"/>
     </row>
     <row r="709" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D709" s="8"/>
+      <c r="D709" s="6"/>
     </row>
     <row r="710" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D710" s="8"/>
+      <c r="D710" s="6"/>
     </row>
     <row r="711" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D711" s="8"/>
+      <c r="D711" s="6"/>
     </row>
     <row r="712" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D712" s="8"/>
+      <c r="D712" s="6"/>
     </row>
     <row r="713" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D713" s="8"/>
+      <c r="D713" s="6"/>
     </row>
     <row r="714" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D714" s="8"/>
+      <c r="D714" s="6"/>
     </row>
     <row r="715" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D715" s="8"/>
+      <c r="D715" s="6"/>
     </row>
     <row r="716" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D716" s="8"/>
+      <c r="D716" s="6"/>
     </row>
     <row r="717" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D717" s="8"/>
+      <c r="D717" s="6"/>
     </row>
     <row r="718" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D718" s="8"/>
+      <c r="D718" s="6"/>
     </row>
     <row r="719" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D719" s="8"/>
+      <c r="D719" s="6"/>
     </row>
     <row r="720" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D720" s="8"/>
+      <c r="D720" s="6"/>
     </row>
     <row r="721" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D721" s="8"/>
+      <c r="D721" s="6"/>
     </row>
     <row r="722" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D722" s="8"/>
+      <c r="D722" s="6"/>
     </row>
     <row r="723" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D723" s="8"/>
+      <c r="D723" s="6"/>
     </row>
     <row r="724" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D724" s="8"/>
+      <c r="D724" s="6"/>
     </row>
     <row r="725" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D725" s="8"/>
+      <c r="D725" s="6"/>
     </row>
     <row r="726" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D726" s="8"/>
+      <c r="D726" s="6"/>
     </row>
     <row r="727" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D727" s="8"/>
+      <c r="D727" s="6"/>
     </row>
     <row r="728" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D728" s="8"/>
+      <c r="D728" s="6"/>
     </row>
     <row r="729" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D729" s="8"/>
+      <c r="D729" s="6"/>
     </row>
     <row r="730" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D730" s="8"/>
+      <c r="D730" s="6"/>
     </row>
     <row r="731" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D731" s="8"/>
+      <c r="D731" s="6"/>
     </row>
     <row r="732" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D732" s="8"/>
+      <c r="D732" s="6"/>
     </row>
     <row r="733" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D733" s="8"/>
+      <c r="D733" s="6"/>
     </row>
     <row r="734" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D734" s="8"/>
+      <c r="D734" s="6"/>
     </row>
     <row r="735" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D735" s="8"/>
+      <c r="D735" s="6"/>
     </row>
     <row r="736" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D736" s="8"/>
+      <c r="D736" s="6"/>
     </row>
     <row r="737" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D737" s="8"/>
+      <c r="D737" s="6"/>
     </row>
     <row r="738" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D738" s="8"/>
+      <c r="D738" s="6"/>
     </row>
     <row r="739" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D739" s="8"/>
+      <c r="D739" s="6"/>
     </row>
     <row r="740" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D740" s="8"/>
+      <c r="D740" s="6"/>
     </row>
     <row r="741" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D741" s="8"/>
+      <c r="D741" s="6"/>
     </row>
     <row r="742" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D742" s="8"/>
+      <c r="D742" s="6"/>
     </row>
     <row r="743" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D743" s="8"/>
+      <c r="D743" s="6"/>
     </row>
     <row r="744" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D744" s="8"/>
+      <c r="D744" s="6"/>
     </row>
     <row r="745" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D745" s="8"/>
+      <c r="D745" s="6"/>
     </row>
     <row r="746" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D746" s="8"/>
+      <c r="D746" s="6"/>
     </row>
     <row r="747" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D747" s="8"/>
+      <c r="D747" s="6"/>
     </row>
     <row r="748" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D748" s="8"/>
+      <c r="D748" s="6"/>
     </row>
     <row r="749" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D749" s="8"/>
+      <c r="D749" s="6"/>
     </row>
     <row r="750" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D750" s="8"/>
+      <c r="D750" s="6"/>
     </row>
     <row r="751" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D751" s="8"/>
+      <c r="D751" s="6"/>
     </row>
     <row r="752" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D752" s="8"/>
+      <c r="D752" s="6"/>
     </row>
     <row r="753" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D753" s="8"/>
+      <c r="D753" s="6"/>
     </row>
     <row r="754" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D754" s="8"/>
+      <c r="D754" s="6"/>
     </row>
     <row r="755" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D755" s="8"/>
+      <c r="D755" s="6"/>
     </row>
     <row r="756" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D756" s="8"/>
+      <c r="D756" s="6"/>
     </row>
     <row r="757" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D757" s="8"/>
+      <c r="D757" s="6"/>
     </row>
     <row r="758" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D758" s="8"/>
+      <c r="D758" s="6"/>
     </row>
     <row r="759" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D759" s="8"/>
+      <c r="D759" s="6"/>
     </row>
     <row r="760" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D760" s="8"/>
+      <c r="D760" s="6"/>
     </row>
     <row r="761" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D761" s="8"/>
+      <c r="D761" s="6"/>
     </row>
     <row r="762" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D762" s="8"/>
+      <c r="D762" s="6"/>
     </row>
     <row r="763" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D763" s="8"/>
+      <c r="D763" s="6"/>
     </row>
     <row r="764" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D764" s="8"/>
+      <c r="D764" s="6"/>
     </row>
     <row r="765" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D765" s="8"/>
+      <c r="D765" s="6"/>
     </row>
     <row r="766" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D766" s="8"/>
+      <c r="D766" s="6"/>
     </row>
     <row r="767" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D767" s="8"/>
+      <c r="D767" s="6"/>
     </row>
     <row r="768" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D768" s="8"/>
+      <c r="D768" s="6"/>
     </row>
     <row r="769" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D769" s="8"/>
+      <c r="D769" s="6"/>
     </row>
     <row r="770" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D770" s="8"/>
+      <c r="D770" s="6"/>
     </row>
     <row r="771" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D771" s="8"/>
+      <c r="D771" s="6"/>
     </row>
     <row r="772" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D772" s="8"/>
+      <c r="D772" s="6"/>
     </row>
     <row r="773" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D773" s="8"/>
+      <c r="D773" s="6"/>
     </row>
     <row r="774" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D774" s="8"/>
+      <c r="D774" s="6"/>
     </row>
     <row r="775" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D775" s="8"/>
+      <c r="D775" s="6"/>
     </row>
     <row r="776" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D776" s="8"/>
+      <c r="D776" s="6"/>
     </row>
     <row r="777" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D777" s="8"/>
+      <c r="D777" s="6"/>
     </row>
     <row r="778" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D778" s="8"/>
+      <c r="D778" s="6"/>
     </row>
     <row r="779" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D779" s="8"/>
+      <c r="D779" s="6"/>
     </row>
     <row r="780" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D780" s="8"/>
+      <c r="D780" s="6"/>
     </row>
     <row r="781" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D781" s="8"/>
+      <c r="D781" s="6"/>
     </row>
     <row r="782" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D782" s="8"/>
+      <c r="D782" s="6"/>
     </row>
     <row r="783" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D783" s="8"/>
+      <c r="D783" s="6"/>
     </row>
     <row r="784" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D784" s="8"/>
+      <c r="D784" s="6"/>
     </row>
     <row r="785" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D785" s="8"/>
+      <c r="D785" s="6"/>
     </row>
     <row r="786" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D786" s="8"/>
+      <c r="D786" s="6"/>
     </row>
     <row r="787" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D787" s="8"/>
+      <c r="D787" s="6"/>
     </row>
     <row r="788" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D788" s="8"/>
+      <c r="D788" s="6"/>
     </row>
     <row r="789" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D789" s="8"/>
+      <c r="D789" s="6"/>
     </row>
     <row r="790" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D790" s="8"/>
+      <c r="D790" s="6"/>
     </row>
     <row r="791" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D791" s="8"/>
+      <c r="D791" s="6"/>
     </row>
     <row r="792" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D792" s="8"/>
+      <c r="D792" s="6"/>
     </row>
     <row r="793" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D793" s="8"/>
+      <c r="D793" s="6"/>
     </row>
     <row r="794" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D794" s="8"/>
+      <c r="D794" s="6"/>
     </row>
     <row r="795" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D795" s="8"/>
+      <c r="D795" s="6"/>
     </row>
     <row r="796" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D796" s="8"/>
+      <c r="D796" s="6"/>
     </row>
     <row r="797" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D797" s="8"/>
+      <c r="D797" s="6"/>
     </row>
     <row r="798" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D798" s="8"/>
+      <c r="D798" s="6"/>
     </row>
     <row r="799" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D799" s="8"/>
+      <c r="D799" s="6"/>
     </row>
     <row r="800" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D800" s="8"/>
+      <c r="D800" s="6"/>
     </row>
     <row r="801" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D801" s="8"/>
+      <c r="D801" s="6"/>
     </row>
     <row r="802" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D802" s="8"/>
+      <c r="D802" s="6"/>
     </row>
     <row r="803" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D803" s="8"/>
+      <c r="D803" s="6"/>
     </row>
     <row r="804" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D804" s="8"/>
+      <c r="D804" s="6"/>
     </row>
     <row r="805" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D805" s="8"/>
+      <c r="D805" s="6"/>
     </row>
     <row r="806" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D806" s="8"/>
+      <c r="D806" s="6"/>
     </row>
     <row r="807" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D807" s="8"/>
+      <c r="D807" s="6"/>
     </row>
     <row r="808" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D808" s="8"/>
+      <c r="D808" s="6"/>
     </row>
     <row r="809" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D809" s="8"/>
+      <c r="D809" s="6"/>
     </row>
     <row r="810" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D810" s="8"/>
+      <c r="D810" s="6"/>
     </row>
     <row r="811" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D811" s="8"/>
+      <c r="D811" s="6"/>
     </row>
     <row r="812" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D812" s="8"/>
+      <c r="D812" s="6"/>
     </row>
     <row r="813" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D813" s="8"/>
+      <c r="D813" s="6"/>
     </row>
     <row r="814" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D814" s="8"/>
+      <c r="D814" s="6"/>
     </row>
     <row r="815" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D815" s="8"/>
+      <c r="D815" s="6"/>
     </row>
     <row r="816" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D816" s="8"/>
+      <c r="D816" s="6"/>
     </row>
     <row r="817" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D817" s="8"/>
+      <c r="D817" s="6"/>
     </row>
     <row r="818" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D818" s="8"/>
+      <c r="D818" s="6"/>
     </row>
     <row r="819" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D819" s="8"/>
+      <c r="D819" s="6"/>
     </row>
     <row r="820" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D820" s="8"/>
+      <c r="D820" s="6"/>
     </row>
     <row r="821" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D821" s="8"/>
+      <c r="D821" s="6"/>
     </row>
     <row r="822" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D822" s="8"/>
+      <c r="D822" s="6"/>
     </row>
     <row r="823" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D823" s="8"/>
+      <c r="D823" s="6"/>
     </row>
     <row r="824" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D824" s="8"/>
+      <c r="D824" s="6"/>
     </row>
     <row r="825" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D825" s="8"/>
+      <c r="D825" s="6"/>
     </row>
     <row r="826" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D826" s="8"/>
+      <c r="D826" s="6"/>
     </row>
     <row r="827" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D827" s="8"/>
+      <c r="D827" s="6"/>
     </row>
     <row r="828" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D828" s="8"/>
+      <c r="D828" s="6"/>
     </row>
     <row r="829" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D829" s="8"/>
+      <c r="D829" s="6"/>
     </row>
     <row r="830" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D830" s="8"/>
+      <c r="D830" s="6"/>
     </row>
     <row r="831" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D831" s="8"/>
+      <c r="D831" s="6"/>
     </row>
     <row r="832" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D832" s="8"/>
+      <c r="D832" s="6"/>
     </row>
     <row r="833" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D833" s="8"/>
+      <c r="D833" s="6"/>
     </row>
     <row r="834" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D834" s="8"/>
+      <c r="D834" s="6"/>
     </row>
     <row r="835" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D835" s="8"/>
+      <c r="D835" s="6"/>
     </row>
     <row r="836" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D836" s="8"/>
+      <c r="D836" s="6"/>
     </row>
     <row r="837" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D837" s="8"/>
+      <c r="D837" s="6"/>
     </row>
     <row r="838" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D838" s="8"/>
+      <c r="D838" s="6"/>
     </row>
     <row r="839" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D839" s="8"/>
+      <c r="D839" s="6"/>
     </row>
     <row r="840" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D840" s="8"/>
+      <c r="D840" s="6"/>
     </row>
     <row r="841" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D841" s="8"/>
+      <c r="D841" s="6"/>
     </row>
     <row r="842" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D842" s="8"/>
+      <c r="D842" s="6"/>
     </row>
     <row r="843" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D843" s="8"/>
+      <c r="D843" s="6"/>
     </row>
     <row r="844" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D844" s="8"/>
+      <c r="D844" s="6"/>
     </row>
     <row r="845" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D845" s="8"/>
+      <c r="D845" s="6"/>
     </row>
     <row r="846" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D846" s="8"/>
+      <c r="D846" s="6"/>
     </row>
     <row r="847" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D847" s="8"/>
+      <c r="D847" s="6"/>
     </row>
     <row r="848" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D848" s="8"/>
+      <c r="D848" s="6"/>
     </row>
     <row r="849" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D849" s="8"/>
+      <c r="D849" s="6"/>
     </row>
     <row r="850" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D850" s="8"/>
+      <c r="D850" s="6"/>
     </row>
     <row r="851" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D851" s="8"/>
+      <c r="D851" s="6"/>
     </row>
     <row r="852" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D852" s="8"/>
+      <c r="D852" s="6"/>
     </row>
     <row r="853" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D853" s="8"/>
+      <c r="D853" s="6"/>
     </row>
     <row r="854" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D854" s="8"/>
+      <c r="D854" s="6"/>
     </row>
     <row r="855" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D855" s="8"/>
+      <c r="D855" s="6"/>
     </row>
     <row r="856" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D856" s="8"/>
+      <c r="D856" s="6"/>
     </row>
     <row r="857" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D857" s="8"/>
+      <c r="D857" s="6"/>
     </row>
     <row r="858" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D858" s="8"/>
+      <c r="D858" s="6"/>
     </row>
     <row r="859" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D859" s="8"/>
+      <c r="D859" s="6"/>
     </row>
     <row r="860" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D860" s="8"/>
+      <c r="D860" s="6"/>
     </row>
     <row r="861" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D861" s="8"/>
+      <c r="D861" s="6"/>
     </row>
     <row r="862" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D862" s="8"/>
+      <c r="D862" s="6"/>
     </row>
     <row r="863" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D863" s="8"/>
+      <c r="D863" s="6"/>
     </row>
     <row r="864" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D864" s="8"/>
+      <c r="D864" s="6"/>
     </row>
     <row r="865" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D865" s="8"/>
+      <c r="D865" s="6"/>
     </row>
     <row r="866" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D866" s="8"/>
+      <c r="D866" s="6"/>
     </row>
     <row r="867" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D867" s="8"/>
+      <c r="D867" s="6"/>
     </row>
     <row r="868" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D868" s="8"/>
+      <c r="D868" s="6"/>
     </row>
     <row r="869" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D869" s="8"/>
+      <c r="D869" s="6"/>
     </row>
     <row r="870" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D870" s="8"/>
+      <c r="D870" s="6"/>
     </row>
     <row r="871" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D871" s="8"/>
+      <c r="D871" s="6"/>
     </row>
     <row r="872" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D872" s="8"/>
+      <c r="D872" s="6"/>
     </row>
     <row r="873" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D873" s="8"/>
+      <c r="D873" s="6"/>
     </row>
     <row r="874" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D874" s="8"/>
+      <c r="D874" s="6"/>
     </row>
     <row r="875" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D875" s="8"/>
+      <c r="D875" s="6"/>
     </row>
     <row r="876" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D876" s="8"/>
+      <c r="D876" s="6"/>
     </row>
     <row r="877" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D877" s="8"/>
+      <c r="D877" s="6"/>
     </row>
     <row r="878" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D878" s="8"/>
+      <c r="D878" s="6"/>
     </row>
     <row r="879" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D879" s="8"/>
+      <c r="D879" s="6"/>
     </row>
     <row r="880" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D880" s="8"/>
+      <c r="D880" s="6"/>
     </row>
     <row r="881" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D881" s="8"/>
+      <c r="D881" s="6"/>
     </row>
     <row r="882" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D882" s="8"/>
+      <c r="D882" s="6"/>
     </row>
     <row r="883" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D883" s="8"/>
+      <c r="D883" s="6"/>
     </row>
     <row r="884" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D884" s="8"/>
+      <c r="D884" s="6"/>
     </row>
     <row r="885" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D885" s="8"/>
+      <c r="D885" s="6"/>
     </row>
     <row r="886" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D886" s="8"/>
+      <c r="D886" s="6"/>
     </row>
     <row r="887" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D887" s="8"/>
+      <c r="D887" s="6"/>
     </row>
     <row r="888" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D888" s="8"/>
+      <c r="D888" s="6"/>
     </row>
     <row r="889" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D889" s="8"/>
+      <c r="D889" s="6"/>
     </row>
     <row r="890" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D890" s="8"/>
+      <c r="D890" s="6"/>
     </row>
     <row r="891" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D891" s="8"/>
+      <c r="D891" s="6"/>
     </row>
     <row r="892" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D892" s="8"/>
+      <c r="D892" s="6"/>
     </row>
     <row r="893" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D893" s="8"/>
+      <c r="D893" s="6"/>
     </row>
     <row r="894" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D894" s="8"/>
+      <c r="D894" s="6"/>
     </row>
     <row r="895" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D895" s="8"/>
+      <c r="D895" s="6"/>
     </row>
     <row r="896" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D896" s="8"/>
+      <c r="D896" s="6"/>
     </row>
     <row r="897" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D897" s="8"/>
+      <c r="D897" s="6"/>
     </row>
     <row r="898" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D898" s="8"/>
+      <c r="D898" s="6"/>
     </row>
     <row r="899" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D899" s="8"/>
+      <c r="D899" s="6"/>
     </row>
     <row r="900" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D900" s="8"/>
+      <c r="D900" s="6"/>
     </row>
     <row r="901" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D901" s="8"/>
+      <c r="D901" s="6"/>
     </row>
     <row r="902" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D902" s="8"/>
+      <c r="D902" s="6"/>
     </row>
     <row r="903" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D903" s="8"/>
+      <c r="D903" s="6"/>
     </row>
     <row r="904" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D904" s="8"/>
+      <c r="D904" s="6"/>
     </row>
     <row r="905" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D905" s="8"/>
+      <c r="D905" s="6"/>
     </row>
     <row r="906" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D906" s="8"/>
+      <c r="D906" s="6"/>
     </row>
     <row r="907" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D907" s="8"/>
+      <c r="D907" s="6"/>
     </row>
     <row r="908" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D908" s="8"/>
+      <c r="D908" s="6"/>
     </row>
     <row r="909" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D909" s="8"/>
+      <c r="D909" s="6"/>
     </row>
     <row r="910" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D910" s="8"/>
+      <c r="D910" s="6"/>
     </row>
     <row r="911" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D911" s="8"/>
+      <c r="D911" s="6"/>
     </row>
     <row r="912" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D912" s="8"/>
+      <c r="D912" s="6"/>
     </row>
     <row r="913" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D913" s="8"/>
+      <c r="D913" s="6"/>
     </row>
     <row r="914" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D914" s="8"/>
+      <c r="D914" s="6"/>
     </row>
     <row r="915" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D915" s="8"/>
+      <c r="D915" s="6"/>
     </row>
     <row r="916" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D916" s="8"/>
+      <c r="D916" s="6"/>
     </row>
     <row r="917" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D917" s="8"/>
+      <c r="D917" s="6"/>
     </row>
     <row r="918" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D918" s="8"/>
+      <c r="D918" s="6"/>
     </row>
     <row r="919" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D919" s="8"/>
+      <c r="D919" s="6"/>
     </row>
     <row r="920" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D920" s="8"/>
+      <c r="D920" s="6"/>
     </row>
     <row r="921" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D921" s="8"/>
+      <c r="D921" s="6"/>
     </row>
     <row r="922" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D922" s="8"/>
+      <c r="D922" s="6"/>
     </row>
     <row r="923" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D923" s="8"/>
+      <c r="D923" s="6"/>
     </row>
     <row r="924" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D924" s="8"/>
+      <c r="D924" s="6"/>
     </row>
     <row r="925" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D925" s="8"/>
+      <c r="D925" s="6"/>
     </row>
     <row r="926" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D926" s="8"/>
+      <c r="D926" s="6"/>
     </row>
     <row r="927" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D927" s="8"/>
+      <c r="D927" s="6"/>
     </row>
     <row r="928" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D928" s="8"/>
+      <c r="D928" s="6"/>
     </row>
     <row r="929" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D929" s="8"/>
+      <c r="D929" s="6"/>
     </row>
     <row r="930" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D930" s="8"/>
+      <c r="D930" s="6"/>
     </row>
     <row r="931" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D931" s="8"/>
+      <c r="D931" s="6"/>
     </row>
     <row r="932" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D932" s="8"/>
+      <c r="D932" s="6"/>
     </row>
     <row r="933" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D933" s="8"/>
+      <c r="D933" s="6"/>
     </row>
     <row r="934" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D934" s="8"/>
+      <c r="D934" s="6"/>
     </row>
     <row r="935" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D935" s="8"/>
+      <c r="D935" s="6"/>
     </row>
     <row r="936" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D936" s="8"/>
+      <c r="D936" s="6"/>
     </row>
     <row r="937" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D937" s="8"/>
+      <c r="D937" s="6"/>
     </row>
     <row r="938" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D938" s="8"/>
+      <c r="D938" s="6"/>
     </row>
     <row r="939" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D939" s="8"/>
+      <c r="D939" s="6"/>
     </row>
     <row r="940" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D940" s="8"/>
+      <c r="D940" s="6"/>
     </row>
     <row r="941" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D941" s="8"/>
+      <c r="D941" s="6"/>
     </row>
     <row r="942" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D942" s="8"/>
+      <c r="D942" s="6"/>
     </row>
     <row r="943" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D943" s="8"/>
+      <c r="D943" s="6"/>
     </row>
     <row r="944" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D944" s="8"/>
+      <c r="D944" s="6"/>
     </row>
     <row r="945" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D945" s="8"/>
+      <c r="D945" s="6"/>
     </row>
     <row r="946" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D946" s="8"/>
+      <c r="D946" s="6"/>
     </row>
     <row r="947" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D947" s="8"/>
+      <c r="D947" s="6"/>
     </row>
     <row r="948" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D948" s="8"/>
+      <c r="D948" s="6"/>
     </row>
     <row r="949" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D949" s="8"/>
+      <c r="D949" s="6"/>
     </row>
     <row r="950" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D950" s="8"/>
+      <c r="D950" s="6"/>
     </row>
     <row r="951" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D951" s="8"/>
+      <c r="D951" s="6"/>
     </row>
     <row r="952" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D952" s="8"/>
+      <c r="D952" s="6"/>
     </row>
     <row r="953" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D953" s="8"/>
+      <c r="D953" s="6"/>
     </row>
     <row r="954" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D954" s="8"/>
+      <c r="D954" s="6"/>
     </row>
     <row r="955" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D955" s="8"/>
+      <c r="D955" s="6"/>
     </row>
     <row r="956" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D956" s="8"/>
+      <c r="D956" s="6"/>
     </row>
     <row r="957" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D957" s="8"/>
+      <c r="D957" s="6"/>
     </row>
     <row r="958" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D958" s="8"/>
+      <c r="D958" s="6"/>
     </row>
     <row r="959" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D959" s="8"/>
+      <c r="D959" s="6"/>
     </row>
     <row r="960" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D960" s="8"/>
+      <c r="D960" s="6"/>
     </row>
     <row r="961" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D961" s="8"/>
+      <c r="D961" s="6"/>
     </row>
     <row r="962" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D962" s="8"/>
+      <c r="D962" s="6"/>
     </row>
     <row r="963" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D963" s="8"/>
+      <c r="D963" s="6"/>
     </row>
     <row r="964" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D964" s="8"/>
+      <c r="D964" s="6"/>
     </row>
     <row r="965" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D965" s="8"/>
+      <c r="D965" s="6"/>
     </row>
     <row r="966" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D966" s="8"/>
+      <c r="D966" s="6"/>
     </row>
     <row r="967" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D967" s="8"/>
+      <c r="D967" s="6"/>
     </row>
     <row r="968" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D968" s="8"/>
+      <c r="D968" s="6"/>
     </row>
     <row r="969" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D969" s="8"/>
+      <c r="D969" s="6"/>
     </row>
     <row r="970" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D970" s="8"/>
+      <c r="D970" s="6"/>
     </row>
     <row r="971" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D971" s="8"/>
+      <c r="D971" s="6"/>
     </row>
     <row r="972" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D972" s="8"/>
+      <c r="D972" s="6"/>
     </row>
     <row r="973" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D973" s="8"/>
+      <c r="D973" s="6"/>
     </row>
     <row r="974" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D974" s="8"/>
+      <c r="D974" s="6"/>
     </row>
     <row r="975" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D975" s="8"/>
+      <c r="D975" s="6"/>
     </row>
     <row r="976" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D976" s="8"/>
+      <c r="D976" s="6"/>
     </row>
     <row r="977" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D977" s="8"/>
+      <c r="D977" s="6"/>
     </row>
     <row r="978" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D978" s="8"/>
+      <c r="D978" s="6"/>
     </row>
     <row r="979" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D979" s="8"/>
+      <c r="D979" s="6"/>
     </row>
     <row r="980" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D980" s="8"/>
+      <c r="D980" s="6"/>
     </row>
     <row r="981" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D981" s="8"/>
+      <c r="D981" s="6"/>
     </row>
     <row r="982" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D982" s="8"/>
+      <c r="D982" s="6"/>
     </row>
     <row r="983" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D983" s="8"/>
+      <c r="D983" s="6"/>
     </row>
     <row r="984" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D984" s="8"/>
+      <c r="D984" s="6"/>
     </row>
     <row r="985" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D985" s="8"/>
+      <c r="D985" s="6"/>
     </row>
     <row r="986" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D986" s="8"/>
+      <c r="D986" s="6"/>
     </row>
     <row r="987" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D987" s="8"/>
+      <c r="D987" s="6"/>
     </row>
     <row r="988" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D988" s="8"/>
+      <c r="D988" s="6"/>
     </row>
     <row r="989" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D989" s="8"/>
+      <c r="D989" s="6"/>
     </row>
     <row r="990" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D990" s="8"/>
+      <c r="D990" s="6"/>
     </row>
     <row r="991" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D991" s="8"/>
+      <c r="D991" s="6"/>
     </row>
     <row r="992" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D992" s="8"/>
+      <c r="D992" s="6"/>
     </row>
     <row r="993" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D993" s="8"/>
+      <c r="D993" s="6"/>
     </row>
     <row r="994" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D994" s="8"/>
+      <c r="D994" s="6"/>
     </row>
     <row r="995" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D995" s="8"/>
+      <c r="D995" s="6"/>
     </row>
     <row r="996" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D996" s="8"/>
+      <c r="D996" s="6"/>
     </row>
     <row r="997" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D997" s="8"/>
+      <c r="D997" s="6"/>
     </row>
     <row r="998" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D998" s="8"/>
+      <c r="D998" s="6"/>
     </row>
     <row r="999" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D999" s="8"/>
+      <c r="D999" s="6"/>
     </row>
     <row r="1000" spans="4:4" ht="13" x14ac:dyDescent="0.15">
-      <c r="D1000" s="8"/>
+      <c r="D1000" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1000">
-    <cfRule type="colorScale" priority="1">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8802,6 +9096,11 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/likert/examples/in_their_own_words/Corrected combined Sentiment analysis.xlsx
+++ b/likert/examples/in_their_own_words/Corrected combined Sentiment analysis.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thorwhalen/Dropbox/py/proj/t/likert/likert/examples/in_their_own_words/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B877F551-0902-384A-AB3E-52ADB9A2898B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F477475D-87E3-3E45-9CF5-EA694C64A9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="-37900" windowWidth="21600" windowHeight="37900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6460" yWindow="-37900" windowWidth="21600" windowHeight="37900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="base" sheetId="1" r:id="rId1"/>
-    <sheet name="edit1" sheetId="2" r:id="rId2"/>
+    <sheet name="edit1" sheetId="3" r:id="rId2"/>
+    <sheet name="edit_old" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">base!$A$1:$O$994</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="99">
   <si>
     <t>expression</t>
   </si>
@@ -343,7 +344,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -397,6 +398,46 @@
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFCCCCCC"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -512,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -561,11 +602,38 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -5031,14 +5099,4050 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0734510-3022-CC4F-8BFA-7F1E94B0C99B}">
+  <dimension ref="A1:E998"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E58" sqref="E58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="25.33203125" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="35.5" style="37" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" style="37"/>
+    <col min="3" max="3" width="25.33203125" style="38"/>
+    <col min="4" max="16384" width="25.33203125" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="39">
+        <v>-99.999535100000003</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="41">
+        <v>-0.99999535100000003</v>
+      </c>
+      <c r="E2" s="37" t="b">
+        <f>A2=C2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="39">
+        <v>-99.996030300000001</v>
+      </c>
+      <c r="C3" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="41">
+        <v>-0.99996030300000005</v>
+      </c>
+      <c r="E3" s="37" t="b">
+        <f t="shared" ref="E3:E64" si="0">A3=C3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="39">
+        <v>-99.99194150000001</v>
+      </c>
+      <c r="C4" s="40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="41">
+        <v>-0.99991941500000003</v>
+      </c>
+      <c r="E4" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="39">
+        <v>-99.9870181</v>
+      </c>
+      <c r="C5" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="41">
+        <v>-0.99987018100000002</v>
+      </c>
+      <c r="E5" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="39">
+        <v>-99.984407399999995</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="41">
+        <v>-0.99984407399999997</v>
+      </c>
+      <c r="E6" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="39">
+        <v>-99.983596800000001</v>
+      </c>
+      <c r="C7" s="40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="41">
+        <v>-0.99983596799999996</v>
+      </c>
+      <c r="E7" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="39">
+        <v>-99.977570800000009</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="41">
+        <v>-0.99977570800000004</v>
+      </c>
+      <c r="E8" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="39">
+        <v>-99.950063200000002</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="41">
+        <v>-0.99950063199999994</v>
+      </c>
+      <c r="E9" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="39">
+        <v>-99.9479592</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="41">
+        <v>-0.99947959200000003</v>
+      </c>
+      <c r="E10" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="39">
+        <v>-99.938726399999993</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="41">
+        <v>-0.999387264</v>
+      </c>
+      <c r="E11" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="39">
+        <v>-99.922967</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="41">
+        <v>-0.99922966999999996</v>
+      </c>
+      <c r="E12" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="39">
+        <v>-99.918371399999998</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="41">
+        <v>-0.99918371399999995</v>
+      </c>
+      <c r="E13" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="39">
+        <v>-99.890267800000004</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="41">
+        <v>-0.99890267799999999</v>
+      </c>
+      <c r="E14" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="39">
+        <v>-99.867057799999998</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="41">
+        <v>-0.99867057800000003</v>
+      </c>
+      <c r="E15" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="39">
+        <v>-99.858439000000004</v>
+      </c>
+      <c r="C16" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="41">
+        <v>-0.99858438999999999</v>
+      </c>
+      <c r="E16" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="39">
+        <v>-99.799782000000008</v>
+      </c>
+      <c r="C17" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="41">
+        <v>-0.99799782000000004</v>
+      </c>
+      <c r="E17" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="39">
+        <v>-99.780398599999998</v>
+      </c>
+      <c r="C18" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="41">
+        <v>-0.99780398599999998</v>
+      </c>
+      <c r="E18" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="39">
+        <v>-99.768579000000003</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="41">
+        <v>-0.99768579000000002</v>
+      </c>
+      <c r="E19" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="39">
+        <v>-99.752730099999994</v>
+      </c>
+      <c r="C20" s="40" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="41">
+        <v>-0.99752730099999998</v>
+      </c>
+      <c r="E20" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="39">
+        <v>100</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="41">
+        <v>-0.99738222399999998</v>
+      </c>
+      <c r="E21" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="39">
+        <v>-99.726223899999994</v>
+      </c>
+      <c r="C22" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="41">
+        <v>-0.99726223899999999</v>
+      </c>
+      <c r="E22" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="39">
+        <v>-99.709832700000007</v>
+      </c>
+      <c r="C23" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="41">
+        <v>-0.99709832700000001</v>
+      </c>
+      <c r="E23" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="39">
+        <v>-99.682581400000004</v>
+      </c>
+      <c r="C24" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="41">
+        <v>-0.99682581400000003</v>
+      </c>
+      <c r="E24" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="39">
+        <v>100</v>
+      </c>
+      <c r="C25" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="41">
+        <v>-0.99680173400000005</v>
+      </c>
+      <c r="E25" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="39">
+        <v>-99.590307499999994</v>
+      </c>
+      <c r="C26" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" s="41">
+        <v>-0.99590307499999997</v>
+      </c>
+      <c r="E26" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="39">
+        <v>-99.344628999999998</v>
+      </c>
+      <c r="C27" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" s="41">
+        <v>-0.99344628999999995</v>
+      </c>
+      <c r="E27" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="39">
+        <v>-99.095320700000002</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="41">
+        <v>-0.990953207</v>
+      </c>
+      <c r="E28" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="39">
+        <v>-99.059301599999998</v>
+      </c>
+      <c r="C29" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="41">
+        <v>-0.99059301600000005</v>
+      </c>
+      <c r="E29" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="39">
+        <v>-98.958080999999993</v>
+      </c>
+      <c r="C30" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="41">
+        <v>-0.98958080999999998</v>
+      </c>
+      <c r="E30" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="39">
+        <v>-98.712211800000006</v>
+      </c>
+      <c r="C31" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="41">
+        <v>-0.98712211800000005</v>
+      </c>
+      <c r="E31" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B32" s="39">
+        <v>98</v>
+      </c>
+      <c r="C32" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="41">
+        <v>-0.97508537799999995</v>
+      </c>
+      <c r="E32" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="39">
+        <v>-97.422766699999997</v>
+      </c>
+      <c r="C33" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="D33" s="41">
+        <v>-0.97422766699999996</v>
+      </c>
+      <c r="E33" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="39">
+        <v>97</v>
+      </c>
+      <c r="C34" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="41">
+        <v>-0.96838432600000002</v>
+      </c>
+      <c r="E34" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="39">
+        <v>-94.987863300000001</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="41">
+        <v>-0.94987863299999997</v>
+      </c>
+      <c r="E35" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="39">
+        <v>-93.946838400000004</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="D36" s="41">
+        <v>-0.93946838399999999</v>
+      </c>
+      <c r="E36" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="39">
+        <v>87</v>
+      </c>
+      <c r="C37" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" s="41">
+        <v>-0.86592888800000001</v>
+      </c>
+      <c r="E37" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" s="38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="39">
+        <v>-85.450994999999992</v>
+      </c>
+      <c r="C38" s="40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D38" s="41">
+        <v>-0.85450994999999996</v>
+      </c>
+      <c r="E38" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B39" s="39">
+        <v>-80.147802799999994</v>
+      </c>
+      <c r="C39" s="40" t="s">
+        <v>72</v>
+      </c>
+      <c r="D39" s="41">
+        <v>-0.80147802800000001</v>
+      </c>
+      <c r="E39" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="39">
+        <v>-71.620190100000002</v>
+      </c>
+      <c r="C40" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="D40" s="41">
+        <v>-0.71620190100000003</v>
+      </c>
+      <c r="E40" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="39">
+        <v>-63.640242800000003</v>
+      </c>
+      <c r="C41" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="41">
+        <v>-0.63640242800000002</v>
+      </c>
+      <c r="E41" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="39">
+        <v>52.415520000000001</v>
+      </c>
+      <c r="C42" s="40" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="41">
+        <v>0.52415520000000004</v>
+      </c>
+      <c r="E42" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="39">
+        <v>52.743262099999995</v>
+      </c>
+      <c r="C43" s="40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="41">
+        <v>0.52743262099999999</v>
+      </c>
+      <c r="E43" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="39">
+        <v>58.057606200000002</v>
+      </c>
+      <c r="C44" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="D44" s="41">
+        <v>0.580576062</v>
+      </c>
+      <c r="E44" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="39">
+        <v>66.124647899999999</v>
+      </c>
+      <c r="C45" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="41">
+        <v>0.661246479</v>
+      </c>
+      <c r="E45" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="39">
+        <v>82.047957199999999</v>
+      </c>
+      <c r="C46" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="41">
+        <v>0.82047957199999999</v>
+      </c>
+      <c r="E46" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A47" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="39">
+        <v>-93</v>
+      </c>
+      <c r="C47" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="D47" s="41">
+        <v>0.92958265500000004</v>
+      </c>
+      <c r="E47" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="39">
+        <v>95.233881499999995</v>
+      </c>
+      <c r="C48" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="D48" s="41">
+        <v>0.95233881499999995</v>
+      </c>
+      <c r="E48" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="39">
+        <v>95.662486599999994</v>
+      </c>
+      <c r="C49" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D49" s="41">
+        <v>0.95662486599999996</v>
+      </c>
+      <c r="E49" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="39">
+        <v>95.988416700000002</v>
+      </c>
+      <c r="C50" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" s="41">
+        <v>0.95988416700000001</v>
+      </c>
+      <c r="E50" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="39">
+        <v>96.022111199999998</v>
+      </c>
+      <c r="C51" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D51" s="41">
+        <v>0.96022111200000004</v>
+      </c>
+      <c r="E51" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A52" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="39">
+        <v>96.507293000000004</v>
+      </c>
+      <c r="C52" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="D52" s="41">
+        <v>0.96507293000000005</v>
+      </c>
+      <c r="E52" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A53" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="39">
+        <v>97.433686300000005</v>
+      </c>
+      <c r="C53" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D53" s="41">
+        <v>0.974336863</v>
+      </c>
+      <c r="E53" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A54" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="39">
+        <v>-98</v>
+      </c>
+      <c r="C54" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D54" s="41">
+        <v>0.98157805200000003</v>
+      </c>
+      <c r="E54" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A55" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="39">
+        <v>98.969191300000006</v>
+      </c>
+      <c r="C55" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="41">
+        <v>0.98969191300000003</v>
+      </c>
+      <c r="E55" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A56" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B56" s="39">
+        <v>99.330067600000007</v>
+      </c>
+      <c r="C56" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="41">
+        <v>0.99330067600000005</v>
+      </c>
+      <c r="E56" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A57" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="39">
+        <v>99.496763899999991</v>
+      </c>
+      <c r="C57" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D57" s="41">
+        <v>0.99496763899999996</v>
+      </c>
+      <c r="E57" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A58" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="39">
+        <v>99.547356399999998</v>
+      </c>
+      <c r="C58" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" s="41">
+        <v>0.99547356399999998</v>
+      </c>
+      <c r="E58" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A59" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="39">
+        <v>99.603515899999991</v>
+      </c>
+      <c r="C59" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D59" s="41">
+        <v>0.99603515899999995</v>
+      </c>
+      <c r="E59" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A60" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="39">
+        <v>99.647313400000002</v>
+      </c>
+      <c r="C60" s="40" t="s">
+        <v>63</v>
+      </c>
+      <c r="D60" s="41">
+        <v>0.99647313400000004</v>
+      </c>
+      <c r="E60" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A61" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="39">
+        <v>99.796992500000002</v>
+      </c>
+      <c r="C61" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" s="41">
+        <v>0.99796992500000004</v>
+      </c>
+      <c r="E61" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A62" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" s="39">
+        <v>99.8188198</v>
+      </c>
+      <c r="C62" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="D62" s="41">
+        <v>0.99818819800000003</v>
+      </c>
+      <c r="E62" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A63" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" s="39">
+        <v>99.827528000000001</v>
+      </c>
+      <c r="C63" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63" s="41">
+        <v>0.99827527999999999</v>
+      </c>
+      <c r="E63" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A64" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="39">
+        <v>99.851709600000007</v>
+      </c>
+      <c r="C64" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="D64" s="41">
+        <v>0.99851709600000005</v>
+      </c>
+      <c r="E64" s="37" t="b">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A65" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="39">
+        <v>99.966311500000003</v>
+      </c>
+      <c r="C65" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" s="41">
+        <v>0.99966311500000005</v>
+      </c>
+      <c r="E65" s="37" t="b">
+        <f t="shared" ref="E65:E67" si="1">A65=C65</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A66" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="39">
+        <v>99.966526000000002</v>
+      </c>
+      <c r="C66" s="40" t="s">
+        <v>69</v>
+      </c>
+      <c r="D66" s="41">
+        <v>0.99966526</v>
+      </c>
+      <c r="E66" s="37" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A67" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B67" s="39">
+        <v>99.971073899999993</v>
+      </c>
+      <c r="C67" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D67" s="41">
+        <v>0.99971073899999996</v>
+      </c>
+      <c r="E67" s="37" t="b">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D68" s="42"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D69" s="42"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D70" s="42"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D71" s="42"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D72" s="42"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D73" s="42"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D74" s="42"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D75" s="42"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D76" s="42"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D77" s="42"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D78" s="42"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D79" s="42"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D80" s="42"/>
+    </row>
+    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D81" s="42"/>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D82" s="42"/>
+    </row>
+    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D83" s="42"/>
+    </row>
+    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D84" s="42"/>
+    </row>
+    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D85" s="42"/>
+    </row>
+    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D86" s="42"/>
+    </row>
+    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D87" s="42"/>
+    </row>
+    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D88" s="42"/>
+    </row>
+    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D89" s="42"/>
+    </row>
+    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D90" s="42"/>
+    </row>
+    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D91" s="42"/>
+    </row>
+    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D92" s="42"/>
+    </row>
+    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D93" s="42"/>
+    </row>
+    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D94" s="42"/>
+    </row>
+    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D95" s="42"/>
+    </row>
+    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D96" s="42"/>
+    </row>
+    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D97" s="42"/>
+    </row>
+    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D98" s="42"/>
+    </row>
+    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D99" s="42"/>
+    </row>
+    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D100" s="42"/>
+    </row>
+    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D101" s="42"/>
+    </row>
+    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D102" s="42"/>
+    </row>
+    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D103" s="42"/>
+    </row>
+    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D104" s="42"/>
+    </row>
+    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D105" s="42"/>
+    </row>
+    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D106" s="42"/>
+    </row>
+    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D107" s="42"/>
+    </row>
+    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D108" s="42"/>
+    </row>
+    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D109" s="42"/>
+    </row>
+    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D110" s="42"/>
+    </row>
+    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D111" s="42"/>
+    </row>
+    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D112" s="42"/>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D113" s="42"/>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D114" s="42"/>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D115" s="42"/>
+    </row>
+    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D116" s="42"/>
+    </row>
+    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D117" s="42"/>
+    </row>
+    <row r="118" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D118" s="42"/>
+    </row>
+    <row r="119" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D119" s="42"/>
+    </row>
+    <row r="120" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D120" s="42"/>
+    </row>
+    <row r="121" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D121" s="42"/>
+    </row>
+    <row r="122" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D122" s="42"/>
+    </row>
+    <row r="123" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D123" s="42"/>
+    </row>
+    <row r="124" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D124" s="42"/>
+    </row>
+    <row r="125" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D125" s="42"/>
+    </row>
+    <row r="126" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D126" s="42"/>
+    </row>
+    <row r="127" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D127" s="42"/>
+    </row>
+    <row r="128" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D128" s="42"/>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D129" s="42"/>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D130" s="42"/>
+    </row>
+    <row r="131" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D131" s="42"/>
+    </row>
+    <row r="132" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D132" s="42"/>
+    </row>
+    <row r="133" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D133" s="42"/>
+    </row>
+    <row r="134" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D134" s="42"/>
+    </row>
+    <row r="135" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D135" s="42"/>
+    </row>
+    <row r="136" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D136" s="42"/>
+    </row>
+    <row r="137" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D137" s="42"/>
+    </row>
+    <row r="138" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D138" s="42"/>
+    </row>
+    <row r="139" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D139" s="42"/>
+    </row>
+    <row r="140" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D140" s="42"/>
+    </row>
+    <row r="141" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D141" s="42"/>
+    </row>
+    <row r="142" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D142" s="42"/>
+    </row>
+    <row r="143" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D143" s="42"/>
+    </row>
+    <row r="144" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D144" s="42"/>
+    </row>
+    <row r="145" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D145" s="42"/>
+    </row>
+    <row r="146" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D146" s="42"/>
+    </row>
+    <row r="147" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D147" s="42"/>
+    </row>
+    <row r="148" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D148" s="42"/>
+    </row>
+    <row r="149" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D149" s="42"/>
+    </row>
+    <row r="150" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D150" s="42"/>
+    </row>
+    <row r="151" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D151" s="42"/>
+    </row>
+    <row r="152" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D152" s="42"/>
+    </row>
+    <row r="153" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D153" s="42"/>
+    </row>
+    <row r="154" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D154" s="42"/>
+    </row>
+    <row r="155" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D155" s="42"/>
+    </row>
+    <row r="156" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D156" s="42"/>
+    </row>
+    <row r="157" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D157" s="42"/>
+    </row>
+    <row r="158" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D158" s="42"/>
+    </row>
+    <row r="159" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D159" s="42"/>
+    </row>
+    <row r="160" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D160" s="42"/>
+    </row>
+    <row r="161" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D161" s="42"/>
+    </row>
+    <row r="162" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D162" s="42"/>
+    </row>
+    <row r="163" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D163" s="42"/>
+    </row>
+    <row r="164" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D164" s="42"/>
+    </row>
+    <row r="165" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D165" s="42"/>
+    </row>
+    <row r="166" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D166" s="42"/>
+    </row>
+    <row r="167" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D167" s="42"/>
+    </row>
+    <row r="168" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D168" s="42"/>
+    </row>
+    <row r="169" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D169" s="42"/>
+    </row>
+    <row r="170" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D170" s="42"/>
+    </row>
+    <row r="171" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D171" s="42"/>
+    </row>
+    <row r="172" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D172" s="42"/>
+    </row>
+    <row r="173" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D173" s="42"/>
+    </row>
+    <row r="174" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D174" s="42"/>
+    </row>
+    <row r="175" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D175" s="42"/>
+    </row>
+    <row r="176" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D176" s="42"/>
+    </row>
+    <row r="177" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D177" s="42"/>
+    </row>
+    <row r="178" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D178" s="42"/>
+    </row>
+    <row r="179" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D179" s="42"/>
+    </row>
+    <row r="180" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D180" s="42"/>
+    </row>
+    <row r="181" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D181" s="42"/>
+    </row>
+    <row r="182" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D182" s="42"/>
+    </row>
+    <row r="183" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D183" s="42"/>
+    </row>
+    <row r="184" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D184" s="42"/>
+    </row>
+    <row r="185" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D185" s="42"/>
+    </row>
+    <row r="186" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D186" s="42"/>
+    </row>
+    <row r="187" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D187" s="42"/>
+    </row>
+    <row r="188" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D188" s="42"/>
+    </row>
+    <row r="189" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D189" s="42"/>
+    </row>
+    <row r="190" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D190" s="42"/>
+    </row>
+    <row r="191" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D191" s="42"/>
+    </row>
+    <row r="192" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D192" s="42"/>
+    </row>
+    <row r="193" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D193" s="42"/>
+    </row>
+    <row r="194" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D194" s="42"/>
+    </row>
+    <row r="195" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D195" s="42"/>
+    </row>
+    <row r="196" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D196" s="42"/>
+    </row>
+    <row r="197" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D197" s="42"/>
+    </row>
+    <row r="198" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D198" s="42"/>
+    </row>
+    <row r="199" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D199" s="42"/>
+    </row>
+    <row r="200" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D200" s="42"/>
+    </row>
+    <row r="201" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D201" s="42"/>
+    </row>
+    <row r="202" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D202" s="42"/>
+    </row>
+    <row r="203" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D203" s="42"/>
+    </row>
+    <row r="204" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D204" s="42"/>
+    </row>
+    <row r="205" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D205" s="42"/>
+    </row>
+    <row r="206" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D206" s="42"/>
+    </row>
+    <row r="207" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D207" s="42"/>
+    </row>
+    <row r="208" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D208" s="42"/>
+    </row>
+    <row r="209" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D209" s="42"/>
+    </row>
+    <row r="210" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D210" s="42"/>
+    </row>
+    <row r="211" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D211" s="42"/>
+    </row>
+    <row r="212" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D212" s="42"/>
+    </row>
+    <row r="213" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D213" s="42"/>
+    </row>
+    <row r="214" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D214" s="42"/>
+    </row>
+    <row r="215" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D215" s="42"/>
+    </row>
+    <row r="216" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D216" s="42"/>
+    </row>
+    <row r="217" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D217" s="42"/>
+    </row>
+    <row r="218" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D218" s="42"/>
+    </row>
+    <row r="219" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D219" s="42"/>
+    </row>
+    <row r="220" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D220" s="42"/>
+    </row>
+    <row r="221" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D221" s="42"/>
+    </row>
+    <row r="222" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D222" s="42"/>
+    </row>
+    <row r="223" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D223" s="42"/>
+    </row>
+    <row r="224" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D224" s="42"/>
+    </row>
+    <row r="225" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D225" s="42"/>
+    </row>
+    <row r="226" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D226" s="42"/>
+    </row>
+    <row r="227" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D227" s="42"/>
+    </row>
+    <row r="228" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D228" s="42"/>
+    </row>
+    <row r="229" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D229" s="42"/>
+    </row>
+    <row r="230" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D230" s="42"/>
+    </row>
+    <row r="231" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D231" s="42"/>
+    </row>
+    <row r="232" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D232" s="42"/>
+    </row>
+    <row r="233" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D233" s="42"/>
+    </row>
+    <row r="234" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D234" s="42"/>
+    </row>
+    <row r="235" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D235" s="42"/>
+    </row>
+    <row r="236" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D236" s="42"/>
+    </row>
+    <row r="237" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D237" s="42"/>
+    </row>
+    <row r="238" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D238" s="42"/>
+    </row>
+    <row r="239" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D239" s="42"/>
+    </row>
+    <row r="240" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D240" s="42"/>
+    </row>
+    <row r="241" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D241" s="42"/>
+    </row>
+    <row r="242" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D242" s="42"/>
+    </row>
+    <row r="243" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D243" s="42"/>
+    </row>
+    <row r="244" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D244" s="42"/>
+    </row>
+    <row r="245" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D245" s="42"/>
+    </row>
+    <row r="246" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D246" s="42"/>
+    </row>
+    <row r="247" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D247" s="42"/>
+    </row>
+    <row r="248" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D248" s="42"/>
+    </row>
+    <row r="249" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D249" s="42"/>
+    </row>
+    <row r="250" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D250" s="42"/>
+    </row>
+    <row r="251" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D251" s="42"/>
+    </row>
+    <row r="252" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D252" s="42"/>
+    </row>
+    <row r="253" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D253" s="42"/>
+    </row>
+    <row r="254" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D254" s="42"/>
+    </row>
+    <row r="255" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D255" s="42"/>
+    </row>
+    <row r="256" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D256" s="42"/>
+    </row>
+    <row r="257" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D257" s="42"/>
+    </row>
+    <row r="258" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D258" s="42"/>
+    </row>
+    <row r="259" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D259" s="42"/>
+    </row>
+    <row r="260" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D260" s="42"/>
+    </row>
+    <row r="261" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D261" s="42"/>
+    </row>
+    <row r="262" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D262" s="42"/>
+    </row>
+    <row r="263" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D263" s="42"/>
+    </row>
+    <row r="264" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D264" s="42"/>
+    </row>
+    <row r="265" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D265" s="42"/>
+    </row>
+    <row r="266" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D266" s="42"/>
+    </row>
+    <row r="267" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D267" s="42"/>
+    </row>
+    <row r="268" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D268" s="42"/>
+    </row>
+    <row r="269" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D269" s="42"/>
+    </row>
+    <row r="270" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D270" s="42"/>
+    </row>
+    <row r="271" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D271" s="42"/>
+    </row>
+    <row r="272" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D272" s="42"/>
+    </row>
+    <row r="273" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D273" s="42"/>
+    </row>
+    <row r="274" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D274" s="42"/>
+    </row>
+    <row r="275" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D275" s="42"/>
+    </row>
+    <row r="276" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D276" s="42"/>
+    </row>
+    <row r="277" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D277" s="42"/>
+    </row>
+    <row r="278" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D278" s="42"/>
+    </row>
+    <row r="279" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D279" s="42"/>
+    </row>
+    <row r="280" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D280" s="42"/>
+    </row>
+    <row r="281" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D281" s="42"/>
+    </row>
+    <row r="282" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D282" s="42"/>
+    </row>
+    <row r="283" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D283" s="42"/>
+    </row>
+    <row r="284" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D284" s="42"/>
+    </row>
+    <row r="285" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D285" s="42"/>
+    </row>
+    <row r="286" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D286" s="42"/>
+    </row>
+    <row r="287" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D287" s="42"/>
+    </row>
+    <row r="288" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D288" s="42"/>
+    </row>
+    <row r="289" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D289" s="42"/>
+    </row>
+    <row r="290" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D290" s="42"/>
+    </row>
+    <row r="291" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D291" s="42"/>
+    </row>
+    <row r="292" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D292" s="42"/>
+    </row>
+    <row r="293" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D293" s="42"/>
+    </row>
+    <row r="294" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D294" s="42"/>
+    </row>
+    <row r="295" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D295" s="42"/>
+    </row>
+    <row r="296" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D296" s="42"/>
+    </row>
+    <row r="297" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D297" s="42"/>
+    </row>
+    <row r="298" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D298" s="42"/>
+    </row>
+    <row r="299" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D299" s="42"/>
+    </row>
+    <row r="300" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D300" s="42"/>
+    </row>
+    <row r="301" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D301" s="42"/>
+    </row>
+    <row r="302" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D302" s="42"/>
+    </row>
+    <row r="303" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D303" s="42"/>
+    </row>
+    <row r="304" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D304" s="42"/>
+    </row>
+    <row r="305" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D305" s="42"/>
+    </row>
+    <row r="306" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D306" s="42"/>
+    </row>
+    <row r="307" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D307" s="42"/>
+    </row>
+    <row r="308" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D308" s="42"/>
+    </row>
+    <row r="309" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D309" s="42"/>
+    </row>
+    <row r="310" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D310" s="42"/>
+    </row>
+    <row r="311" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D311" s="42"/>
+    </row>
+    <row r="312" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D312" s="42"/>
+    </row>
+    <row r="313" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D313" s="42"/>
+    </row>
+    <row r="314" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D314" s="42"/>
+    </row>
+    <row r="315" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D315" s="42"/>
+    </row>
+    <row r="316" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D316" s="42"/>
+    </row>
+    <row r="317" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D317" s="42"/>
+    </row>
+    <row r="318" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D318" s="42"/>
+    </row>
+    <row r="319" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D319" s="42"/>
+    </row>
+    <row r="320" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D320" s="42"/>
+    </row>
+    <row r="321" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D321" s="42"/>
+    </row>
+    <row r="322" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D322" s="42"/>
+    </row>
+    <row r="323" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D323" s="42"/>
+    </row>
+    <row r="324" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D324" s="42"/>
+    </row>
+    <row r="325" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D325" s="42"/>
+    </row>
+    <row r="326" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D326" s="42"/>
+    </row>
+    <row r="327" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D327" s="42"/>
+    </row>
+    <row r="328" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D328" s="42"/>
+    </row>
+    <row r="329" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D329" s="42"/>
+    </row>
+    <row r="330" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D330" s="42"/>
+    </row>
+    <row r="331" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D331" s="42"/>
+    </row>
+    <row r="332" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D332" s="42"/>
+    </row>
+    <row r="333" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D333" s="42"/>
+    </row>
+    <row r="334" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D334" s="42"/>
+    </row>
+    <row r="335" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D335" s="42"/>
+    </row>
+    <row r="336" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D336" s="42"/>
+    </row>
+    <row r="337" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D337" s="42"/>
+    </row>
+    <row r="338" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D338" s="42"/>
+    </row>
+    <row r="339" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D339" s="42"/>
+    </row>
+    <row r="340" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D340" s="42"/>
+    </row>
+    <row r="341" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D341" s="42"/>
+    </row>
+    <row r="342" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D342" s="42"/>
+    </row>
+    <row r="343" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D343" s="42"/>
+    </row>
+    <row r="344" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D344" s="42"/>
+    </row>
+    <row r="345" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D345" s="42"/>
+    </row>
+    <row r="346" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D346" s="42"/>
+    </row>
+    <row r="347" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D347" s="42"/>
+    </row>
+    <row r="348" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D348" s="42"/>
+    </row>
+    <row r="349" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D349" s="42"/>
+    </row>
+    <row r="350" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D350" s="42"/>
+    </row>
+    <row r="351" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D351" s="42"/>
+    </row>
+    <row r="352" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D352" s="42"/>
+    </row>
+    <row r="353" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D353" s="42"/>
+    </row>
+    <row r="354" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D354" s="42"/>
+    </row>
+    <row r="355" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D355" s="42"/>
+    </row>
+    <row r="356" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D356" s="42"/>
+    </row>
+    <row r="357" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D357" s="42"/>
+    </row>
+    <row r="358" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D358" s="42"/>
+    </row>
+    <row r="359" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D359" s="42"/>
+    </row>
+    <row r="360" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D360" s="42"/>
+    </row>
+    <row r="361" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D361" s="42"/>
+    </row>
+    <row r="362" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D362" s="42"/>
+    </row>
+    <row r="363" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D363" s="42"/>
+    </row>
+    <row r="364" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D364" s="42"/>
+    </row>
+    <row r="365" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D365" s="42"/>
+    </row>
+    <row r="366" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D366" s="42"/>
+    </row>
+    <row r="367" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D367" s="42"/>
+    </row>
+    <row r="368" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D368" s="42"/>
+    </row>
+    <row r="369" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D369" s="42"/>
+    </row>
+    <row r="370" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D370" s="42"/>
+    </row>
+    <row r="371" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D371" s="42"/>
+    </row>
+    <row r="372" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D372" s="42"/>
+    </row>
+    <row r="373" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D373" s="42"/>
+    </row>
+    <row r="374" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D374" s="42"/>
+    </row>
+    <row r="375" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D375" s="42"/>
+    </row>
+    <row r="376" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D376" s="42"/>
+    </row>
+    <row r="377" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D377" s="42"/>
+    </row>
+    <row r="378" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D378" s="42"/>
+    </row>
+    <row r="379" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D379" s="42"/>
+    </row>
+    <row r="380" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D380" s="42"/>
+    </row>
+    <row r="381" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D381" s="42"/>
+    </row>
+    <row r="382" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D382" s="42"/>
+    </row>
+    <row r="383" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D383" s="42"/>
+    </row>
+    <row r="384" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D384" s="42"/>
+    </row>
+    <row r="385" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D385" s="42"/>
+    </row>
+    <row r="386" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D386" s="42"/>
+    </row>
+    <row r="387" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D387" s="42"/>
+    </row>
+    <row r="388" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D388" s="42"/>
+    </row>
+    <row r="389" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D389" s="42"/>
+    </row>
+    <row r="390" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D390" s="42"/>
+    </row>
+    <row r="391" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D391" s="42"/>
+    </row>
+    <row r="392" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D392" s="42"/>
+    </row>
+    <row r="393" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D393" s="42"/>
+    </row>
+    <row r="394" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D394" s="42"/>
+    </row>
+    <row r="395" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D395" s="42"/>
+    </row>
+    <row r="396" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D396" s="42"/>
+    </row>
+    <row r="397" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D397" s="42"/>
+    </row>
+    <row r="398" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D398" s="42"/>
+    </row>
+    <row r="399" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D399" s="42"/>
+    </row>
+    <row r="400" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D400" s="42"/>
+    </row>
+    <row r="401" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D401" s="42"/>
+    </row>
+    <row r="402" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D402" s="42"/>
+    </row>
+    <row r="403" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D403" s="42"/>
+    </row>
+    <row r="404" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D404" s="42"/>
+    </row>
+    <row r="405" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D405" s="42"/>
+    </row>
+    <row r="406" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D406" s="42"/>
+    </row>
+    <row r="407" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D407" s="42"/>
+    </row>
+    <row r="408" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D408" s="42"/>
+    </row>
+    <row r="409" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D409" s="42"/>
+    </row>
+    <row r="410" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D410" s="42"/>
+    </row>
+    <row r="411" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D411" s="42"/>
+    </row>
+    <row r="412" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D412" s="42"/>
+    </row>
+    <row r="413" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D413" s="42"/>
+    </row>
+    <row r="414" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D414" s="42"/>
+    </row>
+    <row r="415" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D415" s="42"/>
+    </row>
+    <row r="416" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D416" s="42"/>
+    </row>
+    <row r="417" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D417" s="42"/>
+    </row>
+    <row r="418" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D418" s="42"/>
+    </row>
+    <row r="419" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D419" s="42"/>
+    </row>
+    <row r="420" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D420" s="42"/>
+    </row>
+    <row r="421" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D421" s="42"/>
+    </row>
+    <row r="422" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D422" s="42"/>
+    </row>
+    <row r="423" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D423" s="42"/>
+    </row>
+    <row r="424" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D424" s="42"/>
+    </row>
+    <row r="425" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D425" s="42"/>
+    </row>
+    <row r="426" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D426" s="42"/>
+    </row>
+    <row r="427" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D427" s="42"/>
+    </row>
+    <row r="428" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D428" s="42"/>
+    </row>
+    <row r="429" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D429" s="42"/>
+    </row>
+    <row r="430" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D430" s="42"/>
+    </row>
+    <row r="431" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D431" s="42"/>
+    </row>
+    <row r="432" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D432" s="42"/>
+    </row>
+    <row r="433" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D433" s="42"/>
+    </row>
+    <row r="434" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D434" s="42"/>
+    </row>
+    <row r="435" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D435" s="42"/>
+    </row>
+    <row r="436" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D436" s="42"/>
+    </row>
+    <row r="437" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D437" s="42"/>
+    </row>
+    <row r="438" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D438" s="42"/>
+    </row>
+    <row r="439" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D439" s="42"/>
+    </row>
+    <row r="440" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D440" s="42"/>
+    </row>
+    <row r="441" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D441" s="42"/>
+    </row>
+    <row r="442" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D442" s="42"/>
+    </row>
+    <row r="443" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D443" s="42"/>
+    </row>
+    <row r="444" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D444" s="42"/>
+    </row>
+    <row r="445" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D445" s="42"/>
+    </row>
+    <row r="446" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D446" s="42"/>
+    </row>
+    <row r="447" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D447" s="42"/>
+    </row>
+    <row r="448" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D448" s="42"/>
+    </row>
+    <row r="449" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D449" s="42"/>
+    </row>
+    <row r="450" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D450" s="42"/>
+    </row>
+    <row r="451" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D451" s="42"/>
+    </row>
+    <row r="452" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D452" s="42"/>
+    </row>
+    <row r="453" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D453" s="42"/>
+    </row>
+    <row r="454" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D454" s="42"/>
+    </row>
+    <row r="455" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D455" s="42"/>
+    </row>
+    <row r="456" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D456" s="42"/>
+    </row>
+    <row r="457" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D457" s="42"/>
+    </row>
+    <row r="458" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D458" s="42"/>
+    </row>
+    <row r="459" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D459" s="42"/>
+    </row>
+    <row r="460" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D460" s="42"/>
+    </row>
+    <row r="461" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D461" s="42"/>
+    </row>
+    <row r="462" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D462" s="42"/>
+    </row>
+    <row r="463" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D463" s="42"/>
+    </row>
+    <row r="464" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D464" s="42"/>
+    </row>
+    <row r="465" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D465" s="42"/>
+    </row>
+    <row r="466" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D466" s="42"/>
+    </row>
+    <row r="467" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D467" s="42"/>
+    </row>
+    <row r="468" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D468" s="42"/>
+    </row>
+    <row r="469" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D469" s="42"/>
+    </row>
+    <row r="470" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D470" s="42"/>
+    </row>
+    <row r="471" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D471" s="42"/>
+    </row>
+    <row r="472" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D472" s="42"/>
+    </row>
+    <row r="473" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D473" s="42"/>
+    </row>
+    <row r="474" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D474" s="42"/>
+    </row>
+    <row r="475" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D475" s="42"/>
+    </row>
+    <row r="476" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D476" s="42"/>
+    </row>
+    <row r="477" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D477" s="42"/>
+    </row>
+    <row r="478" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D478" s="42"/>
+    </row>
+    <row r="479" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D479" s="42"/>
+    </row>
+    <row r="480" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D480" s="42"/>
+    </row>
+    <row r="481" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D481" s="42"/>
+    </row>
+    <row r="482" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D482" s="42"/>
+    </row>
+    <row r="483" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D483" s="42"/>
+    </row>
+    <row r="484" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D484" s="42"/>
+    </row>
+    <row r="485" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D485" s="42"/>
+    </row>
+    <row r="486" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D486" s="42"/>
+    </row>
+    <row r="487" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D487" s="42"/>
+    </row>
+    <row r="488" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D488" s="42"/>
+    </row>
+    <row r="489" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D489" s="42"/>
+    </row>
+    <row r="490" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D490" s="42"/>
+    </row>
+    <row r="491" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D491" s="42"/>
+    </row>
+    <row r="492" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D492" s="42"/>
+    </row>
+    <row r="493" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D493" s="42"/>
+    </row>
+    <row r="494" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D494" s="42"/>
+    </row>
+    <row r="495" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D495" s="42"/>
+    </row>
+    <row r="496" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D496" s="42"/>
+    </row>
+    <row r="497" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D497" s="42"/>
+    </row>
+    <row r="498" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D498" s="42"/>
+    </row>
+    <row r="499" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D499" s="42"/>
+    </row>
+    <row r="500" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D500" s="42"/>
+    </row>
+    <row r="501" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D501" s="42"/>
+    </row>
+    <row r="502" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D502" s="42"/>
+    </row>
+    <row r="503" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D503" s="42"/>
+    </row>
+    <row r="504" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D504" s="42"/>
+    </row>
+    <row r="505" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D505" s="42"/>
+    </row>
+    <row r="506" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D506" s="42"/>
+    </row>
+    <row r="507" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D507" s="42"/>
+    </row>
+    <row r="508" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D508" s="42"/>
+    </row>
+    <row r="509" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D509" s="42"/>
+    </row>
+    <row r="510" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D510" s="42"/>
+    </row>
+    <row r="511" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D511" s="42"/>
+    </row>
+    <row r="512" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D512" s="42"/>
+    </row>
+    <row r="513" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D513" s="42"/>
+    </row>
+    <row r="514" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D514" s="42"/>
+    </row>
+    <row r="515" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D515" s="42"/>
+    </row>
+    <row r="516" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D516" s="42"/>
+    </row>
+    <row r="517" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D517" s="42"/>
+    </row>
+    <row r="518" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D518" s="42"/>
+    </row>
+    <row r="519" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D519" s="42"/>
+    </row>
+    <row r="520" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D520" s="42"/>
+    </row>
+    <row r="521" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D521" s="42"/>
+    </row>
+    <row r="522" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D522" s="42"/>
+    </row>
+    <row r="523" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D523" s="42"/>
+    </row>
+    <row r="524" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D524" s="42"/>
+    </row>
+    <row r="525" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D525" s="42"/>
+    </row>
+    <row r="526" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D526" s="42"/>
+    </row>
+    <row r="527" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D527" s="42"/>
+    </row>
+    <row r="528" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D528" s="42"/>
+    </row>
+    <row r="529" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D529" s="42"/>
+    </row>
+    <row r="530" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D530" s="42"/>
+    </row>
+    <row r="531" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D531" s="42"/>
+    </row>
+    <row r="532" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D532" s="42"/>
+    </row>
+    <row r="533" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D533" s="42"/>
+    </row>
+    <row r="534" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D534" s="42"/>
+    </row>
+    <row r="535" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D535" s="42"/>
+    </row>
+    <row r="536" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D536" s="42"/>
+    </row>
+    <row r="537" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D537" s="42"/>
+    </row>
+    <row r="538" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D538" s="42"/>
+    </row>
+    <row r="539" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D539" s="42"/>
+    </row>
+    <row r="540" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D540" s="42"/>
+    </row>
+    <row r="541" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D541" s="42"/>
+    </row>
+    <row r="542" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D542" s="42"/>
+    </row>
+    <row r="543" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D543" s="42"/>
+    </row>
+    <row r="544" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D544" s="42"/>
+    </row>
+    <row r="545" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D545" s="42"/>
+    </row>
+    <row r="546" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D546" s="42"/>
+    </row>
+    <row r="547" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D547" s="42"/>
+    </row>
+    <row r="548" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D548" s="42"/>
+    </row>
+    <row r="549" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D549" s="42"/>
+    </row>
+    <row r="550" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D550" s="42"/>
+    </row>
+    <row r="551" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D551" s="42"/>
+    </row>
+    <row r="552" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D552" s="42"/>
+    </row>
+    <row r="553" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D553" s="42"/>
+    </row>
+    <row r="554" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D554" s="42"/>
+    </row>
+    <row r="555" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D555" s="42"/>
+    </row>
+    <row r="556" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D556" s="42"/>
+    </row>
+    <row r="557" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D557" s="42"/>
+    </row>
+    <row r="558" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D558" s="42"/>
+    </row>
+    <row r="559" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D559" s="42"/>
+    </row>
+    <row r="560" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D560" s="42"/>
+    </row>
+    <row r="561" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D561" s="42"/>
+    </row>
+    <row r="562" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D562" s="42"/>
+    </row>
+    <row r="563" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D563" s="42"/>
+    </row>
+    <row r="564" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D564" s="42"/>
+    </row>
+    <row r="565" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D565" s="42"/>
+    </row>
+    <row r="566" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D566" s="42"/>
+    </row>
+    <row r="567" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D567" s="42"/>
+    </row>
+    <row r="568" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D568" s="42"/>
+    </row>
+    <row r="569" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D569" s="42"/>
+    </row>
+    <row r="570" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D570" s="42"/>
+    </row>
+    <row r="571" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D571" s="42"/>
+    </row>
+    <row r="572" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D572" s="42"/>
+    </row>
+    <row r="573" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D573" s="42"/>
+    </row>
+    <row r="574" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D574" s="42"/>
+    </row>
+    <row r="575" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D575" s="42"/>
+    </row>
+    <row r="576" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D576" s="42"/>
+    </row>
+    <row r="577" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D577" s="42"/>
+    </row>
+    <row r="578" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D578" s="42"/>
+    </row>
+    <row r="579" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D579" s="42"/>
+    </row>
+    <row r="580" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D580" s="42"/>
+    </row>
+    <row r="581" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D581" s="42"/>
+    </row>
+    <row r="582" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D582" s="42"/>
+    </row>
+    <row r="583" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D583" s="42"/>
+    </row>
+    <row r="584" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D584" s="42"/>
+    </row>
+    <row r="585" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D585" s="42"/>
+    </row>
+    <row r="586" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D586" s="42"/>
+    </row>
+    <row r="587" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D587" s="42"/>
+    </row>
+    <row r="588" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D588" s="42"/>
+    </row>
+    <row r="589" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D589" s="42"/>
+    </row>
+    <row r="590" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D590" s="42"/>
+    </row>
+    <row r="591" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D591" s="42"/>
+    </row>
+    <row r="592" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D592" s="42"/>
+    </row>
+    <row r="593" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D593" s="42"/>
+    </row>
+    <row r="594" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D594" s="42"/>
+    </row>
+    <row r="595" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D595" s="42"/>
+    </row>
+    <row r="596" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D596" s="42"/>
+    </row>
+    <row r="597" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D597" s="42"/>
+    </row>
+    <row r="598" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D598" s="42"/>
+    </row>
+    <row r="599" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D599" s="42"/>
+    </row>
+    <row r="600" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D600" s="42"/>
+    </row>
+    <row r="601" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D601" s="42"/>
+    </row>
+    <row r="602" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D602" s="42"/>
+    </row>
+    <row r="603" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D603" s="42"/>
+    </row>
+    <row r="604" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D604" s="42"/>
+    </row>
+    <row r="605" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D605" s="42"/>
+    </row>
+    <row r="606" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D606" s="42"/>
+    </row>
+    <row r="607" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D607" s="42"/>
+    </row>
+    <row r="608" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D608" s="42"/>
+    </row>
+    <row r="609" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D609" s="42"/>
+    </row>
+    <row r="610" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D610" s="42"/>
+    </row>
+    <row r="611" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D611" s="42"/>
+    </row>
+    <row r="612" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D612" s="42"/>
+    </row>
+    <row r="613" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D613" s="42"/>
+    </row>
+    <row r="614" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D614" s="42"/>
+    </row>
+    <row r="615" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D615" s="42"/>
+    </row>
+    <row r="616" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D616" s="42"/>
+    </row>
+    <row r="617" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D617" s="42"/>
+    </row>
+    <row r="618" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D618" s="42"/>
+    </row>
+    <row r="619" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D619" s="42"/>
+    </row>
+    <row r="620" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D620" s="42"/>
+    </row>
+    <row r="621" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D621" s="42"/>
+    </row>
+    <row r="622" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D622" s="42"/>
+    </row>
+    <row r="623" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D623" s="42"/>
+    </row>
+    <row r="624" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D624" s="42"/>
+    </row>
+    <row r="625" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D625" s="42"/>
+    </row>
+    <row r="626" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D626" s="42"/>
+    </row>
+    <row r="627" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D627" s="42"/>
+    </row>
+    <row r="628" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D628" s="42"/>
+    </row>
+    <row r="629" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D629" s="42"/>
+    </row>
+    <row r="630" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D630" s="42"/>
+    </row>
+    <row r="631" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D631" s="42"/>
+    </row>
+    <row r="632" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D632" s="42"/>
+    </row>
+    <row r="633" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D633" s="42"/>
+    </row>
+    <row r="634" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D634" s="42"/>
+    </row>
+    <row r="635" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D635" s="42"/>
+    </row>
+    <row r="636" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D636" s="42"/>
+    </row>
+    <row r="637" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D637" s="42"/>
+    </row>
+    <row r="638" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D638" s="42"/>
+    </row>
+    <row r="639" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D639" s="42"/>
+    </row>
+    <row r="640" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D640" s="42"/>
+    </row>
+    <row r="641" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D641" s="42"/>
+    </row>
+    <row r="642" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D642" s="42"/>
+    </row>
+    <row r="643" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D643" s="42"/>
+    </row>
+    <row r="644" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D644" s="42"/>
+    </row>
+    <row r="645" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D645" s="42"/>
+    </row>
+    <row r="646" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D646" s="42"/>
+    </row>
+    <row r="647" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D647" s="42"/>
+    </row>
+    <row r="648" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D648" s="42"/>
+    </row>
+    <row r="649" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D649" s="42"/>
+    </row>
+    <row r="650" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D650" s="42"/>
+    </row>
+    <row r="651" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D651" s="42"/>
+    </row>
+    <row r="652" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D652" s="42"/>
+    </row>
+    <row r="653" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D653" s="42"/>
+    </row>
+    <row r="654" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D654" s="42"/>
+    </row>
+    <row r="655" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D655" s="42"/>
+    </row>
+    <row r="656" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D656" s="42"/>
+    </row>
+    <row r="657" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D657" s="42"/>
+    </row>
+    <row r="658" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D658" s="42"/>
+    </row>
+    <row r="659" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D659" s="42"/>
+    </row>
+    <row r="660" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D660" s="42"/>
+    </row>
+    <row r="661" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D661" s="42"/>
+    </row>
+    <row r="662" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D662" s="42"/>
+    </row>
+    <row r="663" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D663" s="42"/>
+    </row>
+    <row r="664" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D664" s="42"/>
+    </row>
+    <row r="665" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D665" s="42"/>
+    </row>
+    <row r="666" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D666" s="42"/>
+    </row>
+    <row r="667" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D667" s="42"/>
+    </row>
+    <row r="668" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D668" s="42"/>
+    </row>
+    <row r="669" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D669" s="42"/>
+    </row>
+    <row r="670" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D670" s="42"/>
+    </row>
+    <row r="671" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D671" s="42"/>
+    </row>
+    <row r="672" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D672" s="42"/>
+    </row>
+    <row r="673" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D673" s="42"/>
+    </row>
+    <row r="674" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D674" s="42"/>
+    </row>
+    <row r="675" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D675" s="42"/>
+    </row>
+    <row r="676" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D676" s="42"/>
+    </row>
+    <row r="677" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D677" s="42"/>
+    </row>
+    <row r="678" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D678" s="42"/>
+    </row>
+    <row r="679" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D679" s="42"/>
+    </row>
+    <row r="680" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D680" s="42"/>
+    </row>
+    <row r="681" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D681" s="42"/>
+    </row>
+    <row r="682" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D682" s="42"/>
+    </row>
+    <row r="683" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D683" s="42"/>
+    </row>
+    <row r="684" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D684" s="42"/>
+    </row>
+    <row r="685" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D685" s="42"/>
+    </row>
+    <row r="686" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D686" s="42"/>
+    </row>
+    <row r="687" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D687" s="42"/>
+    </row>
+    <row r="688" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D688" s="42"/>
+    </row>
+    <row r="689" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D689" s="42"/>
+    </row>
+    <row r="690" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D690" s="42"/>
+    </row>
+    <row r="691" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D691" s="42"/>
+    </row>
+    <row r="692" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D692" s="42"/>
+    </row>
+    <row r="693" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D693" s="42"/>
+    </row>
+    <row r="694" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D694" s="42"/>
+    </row>
+    <row r="695" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D695" s="42"/>
+    </row>
+    <row r="696" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D696" s="42"/>
+    </row>
+    <row r="697" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D697" s="42"/>
+    </row>
+    <row r="698" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D698" s="42"/>
+    </row>
+    <row r="699" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D699" s="42"/>
+    </row>
+    <row r="700" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D700" s="42"/>
+    </row>
+    <row r="701" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D701" s="42"/>
+    </row>
+    <row r="702" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D702" s="42"/>
+    </row>
+    <row r="703" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D703" s="42"/>
+    </row>
+    <row r="704" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D704" s="42"/>
+    </row>
+    <row r="705" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D705" s="42"/>
+    </row>
+    <row r="706" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D706" s="42"/>
+    </row>
+    <row r="707" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D707" s="42"/>
+    </row>
+    <row r="708" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D708" s="42"/>
+    </row>
+    <row r="709" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D709" s="42"/>
+    </row>
+    <row r="710" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D710" s="42"/>
+    </row>
+    <row r="711" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D711" s="42"/>
+    </row>
+    <row r="712" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D712" s="42"/>
+    </row>
+    <row r="713" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D713" s="42"/>
+    </row>
+    <row r="714" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D714" s="42"/>
+    </row>
+    <row r="715" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D715" s="42"/>
+    </row>
+    <row r="716" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D716" s="42"/>
+    </row>
+    <row r="717" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D717" s="42"/>
+    </row>
+    <row r="718" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D718" s="42"/>
+    </row>
+    <row r="719" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D719" s="42"/>
+    </row>
+    <row r="720" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D720" s="42"/>
+    </row>
+    <row r="721" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D721" s="42"/>
+    </row>
+    <row r="722" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D722" s="42"/>
+    </row>
+    <row r="723" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D723" s="42"/>
+    </row>
+    <row r="724" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D724" s="42"/>
+    </row>
+    <row r="725" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D725" s="42"/>
+    </row>
+    <row r="726" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D726" s="42"/>
+    </row>
+    <row r="727" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D727" s="42"/>
+    </row>
+    <row r="728" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D728" s="42"/>
+    </row>
+    <row r="729" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D729" s="42"/>
+    </row>
+    <row r="730" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D730" s="42"/>
+    </row>
+    <row r="731" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D731" s="42"/>
+    </row>
+    <row r="732" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D732" s="42"/>
+    </row>
+    <row r="733" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D733" s="42"/>
+    </row>
+    <row r="734" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D734" s="42"/>
+    </row>
+    <row r="735" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D735" s="42"/>
+    </row>
+    <row r="736" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D736" s="42"/>
+    </row>
+    <row r="737" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D737" s="42"/>
+    </row>
+    <row r="738" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D738" s="42"/>
+    </row>
+    <row r="739" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D739" s="42"/>
+    </row>
+    <row r="740" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D740" s="42"/>
+    </row>
+    <row r="741" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D741" s="42"/>
+    </row>
+    <row r="742" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D742" s="42"/>
+    </row>
+    <row r="743" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D743" s="42"/>
+    </row>
+    <row r="744" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D744" s="42"/>
+    </row>
+    <row r="745" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D745" s="42"/>
+    </row>
+    <row r="746" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D746" s="42"/>
+    </row>
+    <row r="747" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D747" s="42"/>
+    </row>
+    <row r="748" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D748" s="42"/>
+    </row>
+    <row r="749" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D749" s="42"/>
+    </row>
+    <row r="750" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D750" s="42"/>
+    </row>
+    <row r="751" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D751" s="42"/>
+    </row>
+    <row r="752" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D752" s="42"/>
+    </row>
+    <row r="753" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D753" s="42"/>
+    </row>
+    <row r="754" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D754" s="42"/>
+    </row>
+    <row r="755" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D755" s="42"/>
+    </row>
+    <row r="756" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D756" s="42"/>
+    </row>
+    <row r="757" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D757" s="42"/>
+    </row>
+    <row r="758" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D758" s="42"/>
+    </row>
+    <row r="759" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D759" s="42"/>
+    </row>
+    <row r="760" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D760" s="42"/>
+    </row>
+    <row r="761" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D761" s="42"/>
+    </row>
+    <row r="762" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D762" s="42"/>
+    </row>
+    <row r="763" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D763" s="42"/>
+    </row>
+    <row r="764" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D764" s="42"/>
+    </row>
+    <row r="765" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D765" s="42"/>
+    </row>
+    <row r="766" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D766" s="42"/>
+    </row>
+    <row r="767" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D767" s="42"/>
+    </row>
+    <row r="768" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D768" s="42"/>
+    </row>
+    <row r="769" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D769" s="42"/>
+    </row>
+    <row r="770" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D770" s="42"/>
+    </row>
+    <row r="771" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D771" s="42"/>
+    </row>
+    <row r="772" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D772" s="42"/>
+    </row>
+    <row r="773" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D773" s="42"/>
+    </row>
+    <row r="774" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D774" s="42"/>
+    </row>
+    <row r="775" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D775" s="42"/>
+    </row>
+    <row r="776" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D776" s="42"/>
+    </row>
+    <row r="777" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D777" s="42"/>
+    </row>
+    <row r="778" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D778" s="42"/>
+    </row>
+    <row r="779" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D779" s="42"/>
+    </row>
+    <row r="780" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D780" s="42"/>
+    </row>
+    <row r="781" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D781" s="42"/>
+    </row>
+    <row r="782" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D782" s="42"/>
+    </row>
+    <row r="783" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D783" s="42"/>
+    </row>
+    <row r="784" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D784" s="42"/>
+    </row>
+    <row r="785" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D785" s="42"/>
+    </row>
+    <row r="786" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D786" s="42"/>
+    </row>
+    <row r="787" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D787" s="42"/>
+    </row>
+    <row r="788" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D788" s="42"/>
+    </row>
+    <row r="789" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D789" s="42"/>
+    </row>
+    <row r="790" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D790" s="42"/>
+    </row>
+    <row r="791" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D791" s="42"/>
+    </row>
+    <row r="792" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D792" s="42"/>
+    </row>
+    <row r="793" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D793" s="42"/>
+    </row>
+    <row r="794" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D794" s="42"/>
+    </row>
+    <row r="795" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D795" s="42"/>
+    </row>
+    <row r="796" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D796" s="42"/>
+    </row>
+    <row r="797" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D797" s="42"/>
+    </row>
+    <row r="798" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D798" s="42"/>
+    </row>
+    <row r="799" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D799" s="42"/>
+    </row>
+    <row r="800" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D800" s="42"/>
+    </row>
+    <row r="801" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D801" s="42"/>
+    </row>
+    <row r="802" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D802" s="42"/>
+    </row>
+    <row r="803" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D803" s="42"/>
+    </row>
+    <row r="804" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D804" s="42"/>
+    </row>
+    <row r="805" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D805" s="42"/>
+    </row>
+    <row r="806" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D806" s="42"/>
+    </row>
+    <row r="807" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D807" s="42"/>
+    </row>
+    <row r="808" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D808" s="42"/>
+    </row>
+    <row r="809" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D809" s="42"/>
+    </row>
+    <row r="810" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D810" s="42"/>
+    </row>
+    <row r="811" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D811" s="42"/>
+    </row>
+    <row r="812" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D812" s="42"/>
+    </row>
+    <row r="813" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D813" s="42"/>
+    </row>
+    <row r="814" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D814" s="42"/>
+    </row>
+    <row r="815" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D815" s="42"/>
+    </row>
+    <row r="816" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D816" s="42"/>
+    </row>
+    <row r="817" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D817" s="42"/>
+    </row>
+    <row r="818" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D818" s="42"/>
+    </row>
+    <row r="819" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D819" s="42"/>
+    </row>
+    <row r="820" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D820" s="42"/>
+    </row>
+    <row r="821" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D821" s="42"/>
+    </row>
+    <row r="822" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D822" s="42"/>
+    </row>
+    <row r="823" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D823" s="42"/>
+    </row>
+    <row r="824" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D824" s="42"/>
+    </row>
+    <row r="825" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D825" s="42"/>
+    </row>
+    <row r="826" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D826" s="42"/>
+    </row>
+    <row r="827" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D827" s="42"/>
+    </row>
+    <row r="828" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D828" s="42"/>
+    </row>
+    <row r="829" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D829" s="42"/>
+    </row>
+    <row r="830" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D830" s="42"/>
+    </row>
+    <row r="831" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D831" s="42"/>
+    </row>
+    <row r="832" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D832" s="42"/>
+    </row>
+    <row r="833" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D833" s="42"/>
+    </row>
+    <row r="834" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D834" s="42"/>
+    </row>
+    <row r="835" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D835" s="42"/>
+    </row>
+    <row r="836" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D836" s="42"/>
+    </row>
+    <row r="837" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D837" s="42"/>
+    </row>
+    <row r="838" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D838" s="42"/>
+    </row>
+    <row r="839" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D839" s="42"/>
+    </row>
+    <row r="840" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D840" s="42"/>
+    </row>
+    <row r="841" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D841" s="42"/>
+    </row>
+    <row r="842" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D842" s="42"/>
+    </row>
+    <row r="843" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D843" s="42"/>
+    </row>
+    <row r="844" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D844" s="42"/>
+    </row>
+    <row r="845" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D845" s="42"/>
+    </row>
+    <row r="846" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D846" s="42"/>
+    </row>
+    <row r="847" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D847" s="42"/>
+    </row>
+    <row r="848" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D848" s="42"/>
+    </row>
+    <row r="849" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D849" s="42"/>
+    </row>
+    <row r="850" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D850" s="42"/>
+    </row>
+    <row r="851" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D851" s="42"/>
+    </row>
+    <row r="852" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D852" s="42"/>
+    </row>
+    <row r="853" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D853" s="42"/>
+    </row>
+    <row r="854" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D854" s="42"/>
+    </row>
+    <row r="855" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D855" s="42"/>
+    </row>
+    <row r="856" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D856" s="42"/>
+    </row>
+    <row r="857" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D857" s="42"/>
+    </row>
+    <row r="858" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D858" s="42"/>
+    </row>
+    <row r="859" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D859" s="42"/>
+    </row>
+    <row r="860" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D860" s="42"/>
+    </row>
+    <row r="861" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D861" s="42"/>
+    </row>
+    <row r="862" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D862" s="42"/>
+    </row>
+    <row r="863" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D863" s="42"/>
+    </row>
+    <row r="864" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D864" s="42"/>
+    </row>
+    <row r="865" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D865" s="42"/>
+    </row>
+    <row r="866" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D866" s="42"/>
+    </row>
+    <row r="867" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D867" s="42"/>
+    </row>
+    <row r="868" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D868" s="42"/>
+    </row>
+    <row r="869" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D869" s="42"/>
+    </row>
+    <row r="870" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D870" s="42"/>
+    </row>
+    <row r="871" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D871" s="42"/>
+    </row>
+    <row r="872" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D872" s="42"/>
+    </row>
+    <row r="873" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D873" s="42"/>
+    </row>
+    <row r="874" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D874" s="42"/>
+    </row>
+    <row r="875" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D875" s="42"/>
+    </row>
+    <row r="876" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D876" s="42"/>
+    </row>
+    <row r="877" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D877" s="42"/>
+    </row>
+    <row r="878" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D878" s="42"/>
+    </row>
+    <row r="879" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D879" s="42"/>
+    </row>
+    <row r="880" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D880" s="42"/>
+    </row>
+    <row r="881" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D881" s="42"/>
+    </row>
+    <row r="882" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D882" s="42"/>
+    </row>
+    <row r="883" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D883" s="42"/>
+    </row>
+    <row r="884" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D884" s="42"/>
+    </row>
+    <row r="885" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D885" s="42"/>
+    </row>
+    <row r="886" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D886" s="42"/>
+    </row>
+    <row r="887" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D887" s="42"/>
+    </row>
+    <row r="888" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D888" s="42"/>
+    </row>
+    <row r="889" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D889" s="42"/>
+    </row>
+    <row r="890" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D890" s="42"/>
+    </row>
+    <row r="891" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D891" s="42"/>
+    </row>
+    <row r="892" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D892" s="42"/>
+    </row>
+    <row r="893" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D893" s="42"/>
+    </row>
+    <row r="894" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D894" s="42"/>
+    </row>
+    <row r="895" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D895" s="42"/>
+    </row>
+    <row r="896" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D896" s="42"/>
+    </row>
+    <row r="897" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D897" s="42"/>
+    </row>
+    <row r="898" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D898" s="42"/>
+    </row>
+    <row r="899" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D899" s="42"/>
+    </row>
+    <row r="900" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D900" s="42"/>
+    </row>
+    <row r="901" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D901" s="42"/>
+    </row>
+    <row r="902" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D902" s="42"/>
+    </row>
+    <row r="903" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D903" s="42"/>
+    </row>
+    <row r="904" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D904" s="42"/>
+    </row>
+    <row r="905" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D905" s="42"/>
+    </row>
+    <row r="906" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D906" s="42"/>
+    </row>
+    <row r="907" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D907" s="42"/>
+    </row>
+    <row r="908" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D908" s="42"/>
+    </row>
+    <row r="909" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D909" s="42"/>
+    </row>
+    <row r="910" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D910" s="42"/>
+    </row>
+    <row r="911" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D911" s="42"/>
+    </row>
+    <row r="912" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D912" s="42"/>
+    </row>
+    <row r="913" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D913" s="42"/>
+    </row>
+    <row r="914" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D914" s="42"/>
+    </row>
+    <row r="915" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D915" s="42"/>
+    </row>
+    <row r="916" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D916" s="42"/>
+    </row>
+    <row r="917" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D917" s="42"/>
+    </row>
+    <row r="918" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D918" s="42"/>
+    </row>
+    <row r="919" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D919" s="42"/>
+    </row>
+    <row r="920" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D920" s="42"/>
+    </row>
+    <row r="921" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D921" s="42"/>
+    </row>
+    <row r="922" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D922" s="42"/>
+    </row>
+    <row r="923" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D923" s="42"/>
+    </row>
+    <row r="924" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D924" s="42"/>
+    </row>
+    <row r="925" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D925" s="42"/>
+    </row>
+    <row r="926" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D926" s="42"/>
+    </row>
+    <row r="927" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D927" s="42"/>
+    </row>
+    <row r="928" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D928" s="42"/>
+    </row>
+    <row r="929" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D929" s="42"/>
+    </row>
+    <row r="930" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D930" s="42"/>
+    </row>
+    <row r="931" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D931" s="42"/>
+    </row>
+    <row r="932" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D932" s="42"/>
+    </row>
+    <row r="933" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D933" s="42"/>
+    </row>
+    <row r="934" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D934" s="42"/>
+    </row>
+    <row r="935" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D935" s="42"/>
+    </row>
+    <row r="936" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D936" s="42"/>
+    </row>
+    <row r="937" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D937" s="42"/>
+    </row>
+    <row r="938" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D938" s="42"/>
+    </row>
+    <row r="939" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D939" s="42"/>
+    </row>
+    <row r="940" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D940" s="42"/>
+    </row>
+    <row r="941" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D941" s="42"/>
+    </row>
+    <row r="942" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D942" s="42"/>
+    </row>
+    <row r="943" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D943" s="42"/>
+    </row>
+    <row r="944" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D944" s="42"/>
+    </row>
+    <row r="945" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D945" s="42"/>
+    </row>
+    <row r="946" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D946" s="42"/>
+    </row>
+    <row r="947" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D947" s="42"/>
+    </row>
+    <row r="948" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D948" s="42"/>
+    </row>
+    <row r="949" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D949" s="42"/>
+    </row>
+    <row r="950" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D950" s="42"/>
+    </row>
+    <row r="951" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D951" s="42"/>
+    </row>
+    <row r="952" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D952" s="42"/>
+    </row>
+    <row r="953" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D953" s="42"/>
+    </row>
+    <row r="954" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D954" s="42"/>
+    </row>
+    <row r="955" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D955" s="42"/>
+    </row>
+    <row r="956" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D956" s="42"/>
+    </row>
+    <row r="957" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D957" s="42"/>
+    </row>
+    <row r="958" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D958" s="42"/>
+    </row>
+    <row r="959" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D959" s="42"/>
+    </row>
+    <row r="960" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D960" s="42"/>
+    </row>
+    <row r="961" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D961" s="42"/>
+    </row>
+    <row r="962" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D962" s="42"/>
+    </row>
+    <row r="963" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D963" s="42"/>
+    </row>
+    <row r="964" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D964" s="42"/>
+    </row>
+    <row r="965" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D965" s="42"/>
+    </row>
+    <row r="966" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D966" s="42"/>
+    </row>
+    <row r="967" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D967" s="42"/>
+    </row>
+    <row r="968" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D968" s="42"/>
+    </row>
+    <row r="969" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D969" s="42"/>
+    </row>
+    <row r="970" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D970" s="42"/>
+    </row>
+    <row r="971" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D971" s="42"/>
+    </row>
+    <row r="972" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D972" s="42"/>
+    </row>
+    <row r="973" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D973" s="42"/>
+    </row>
+    <row r="974" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D974" s="42"/>
+    </row>
+    <row r="975" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D975" s="42"/>
+    </row>
+    <row r="976" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D976" s="42"/>
+    </row>
+    <row r="977" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D977" s="42"/>
+    </row>
+    <row r="978" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D978" s="42"/>
+    </row>
+    <row r="979" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D979" s="42"/>
+    </row>
+    <row r="980" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D980" s="42"/>
+    </row>
+    <row r="981" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D981" s="42"/>
+    </row>
+    <row r="982" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D982" s="42"/>
+    </row>
+    <row r="983" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D983" s="42"/>
+    </row>
+    <row r="984" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D984" s="42"/>
+    </row>
+    <row r="985" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D985" s="42"/>
+    </row>
+    <row r="986" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D986" s="42"/>
+    </row>
+    <row r="987" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D987" s="42"/>
+    </row>
+    <row r="988" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D988" s="42"/>
+    </row>
+    <row r="989" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D989" s="42"/>
+    </row>
+    <row r="990" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D990" s="42"/>
+    </row>
+    <row r="991" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D991" s="42"/>
+    </row>
+    <row r="992" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D992" s="42"/>
+    </row>
+    <row r="993" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D993" s="42"/>
+    </row>
+    <row r="994" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D994" s="42"/>
+    </row>
+    <row r="995" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D995" s="42"/>
+    </row>
+    <row r="996" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D996" s="42"/>
+    </row>
+    <row r="997" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D997" s="42"/>
+    </row>
+    <row r="998" spans="4:4" x14ac:dyDescent="0.2">
+      <c r="D998" s="42"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B998">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFE67C73"/>
+        <color rgb="FFFFFFFF"/>
+        <color rgb="FF57BB8A"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:E1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView zoomScale="136" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9097,7 +13201,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>FALSE</formula>
     </cfRule>
   </conditionalFormatting>
